--- a/data/other/cell_metadata.xlsx
+++ b/data/other/cell_metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tristan/active_repos/cd_2f/data/other/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/trca9794_colorado_edu/Documents/projects/CD_2F/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2131F20-7469-1F48-9360-22BE44EA1A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="294" documentId="8_{E2131F20-7469-1F48-9360-22BE44EA1A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1812375A-1993-BB4E-933C-638C08D5EB75}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="1" xr2:uid="{F0790F3C-5B86-E547-B6EE-344AE8C045F9}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{F0790F3C-5B86-E547-B6EE-344AE8C045F9}"/>
   </bookViews>
   <sheets>
     <sheet name="single_cell_metadata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="2284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4445" uniqueCount="2289">
   <si>
     <t>raman_spectrum_id</t>
   </si>
@@ -6888,6 +6888,21 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>Thy_20_09_3_1</t>
+  </si>
+  <si>
+    <t>Thy_20_09_3_2</t>
+  </si>
+  <si>
+    <t>Thy_20_09_3_4</t>
+  </si>
+  <si>
+    <t>Thy_20_09_3_5</t>
+  </si>
+  <si>
+    <t>Thy_20_09_3_6</t>
   </si>
 </sst>
 </file>
@@ -6938,7 +6953,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7023,6 +7038,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0C1EE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -7036,7 +7057,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -7067,6 +7088,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7400,11 +7422,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA62B451-AAA5-CC48-A7EF-03FFB53D9774}">
   <dimension ref="A1:E706"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B248" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="D268" sqref="D268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7485,7 +7507,9 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="17" t="s">
+        <v>2196</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>12</v>
@@ -7498,9 +7522,7 @@
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>2196</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>15</v>
@@ -7513,9 +7535,7 @@
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>2196</v>
-      </c>
+      <c r="C7" s="17"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>18</v>
@@ -7528,9 +7548,7 @@
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>2196</v>
-      </c>
+      <c r="C8" s="17"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>21</v>
@@ -7556,7 +7574,9 @@
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="17" t="s">
+        <v>2196</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>27</v>
@@ -7569,7 +7589,9 @@
       <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="17" t="s">
+        <v>2196</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>30</v>
@@ -7600,7 +7622,9 @@
       <c r="C13" s="17" t="s">
         <v>2195</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>36</v>
       </c>
@@ -7615,7 +7639,9 @@
       <c r="C14" s="17" t="s">
         <v>2195</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>9</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>39</v>
       </c>
@@ -7630,7 +7656,9 @@
       <c r="C15" s="17" t="s">
         <v>2195</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>12</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>42</v>
       </c>
@@ -7645,7 +7673,9 @@
       <c r="C16" s="17" t="s">
         <v>2195</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>17</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>45</v>
       </c>
@@ -7660,7 +7690,9 @@
       <c r="C17" s="17" t="s">
         <v>2195</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>18</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>48</v>
       </c>
@@ -7675,7 +7707,9 @@
       <c r="C18" s="17" t="s">
         <v>2195</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>22</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>51</v>
       </c>
@@ -7690,7 +7724,9 @@
       <c r="C19" s="17" t="s">
         <v>2195</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>32</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>54</v>
       </c>
@@ -7705,7 +7741,9 @@
       <c r="C20" s="17" t="s">
         <v>2195</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>35</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>57</v>
       </c>
@@ -7720,7 +7758,9 @@
       <c r="C21" s="17" t="s">
         <v>2195</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>43</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>60</v>
       </c>
@@ -7735,7 +7775,9 @@
       <c r="C22" s="17" t="s">
         <v>2199</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>9</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>63</v>
       </c>
@@ -7750,7 +7792,9 @@
       <c r="C23" s="17" t="s">
         <v>2199</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1">
+        <v>10</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>66</v>
       </c>
@@ -7765,7 +7809,9 @@
       <c r="C24" s="17" t="s">
         <v>2199</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1">
+        <v>8</v>
+      </c>
       <c r="E24" s="1" t="s">
         <v>69</v>
       </c>
@@ -7780,7 +7826,9 @@
       <c r="C25" s="17" t="s">
         <v>2199</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1">
+        <v>15</v>
+      </c>
       <c r="E25" s="1" t="s">
         <v>72</v>
       </c>
@@ -7795,7 +7843,9 @@
       <c r="C26" s="17" t="s">
         <v>2199</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1">
+        <v>16</v>
+      </c>
       <c r="E26" s="1" t="s">
         <v>75</v>
       </c>
@@ -7810,7 +7860,9 @@
       <c r="C27" s="17" t="s">
         <v>2199</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1">
+        <v>22</v>
+      </c>
       <c r="E27" s="1" t="s">
         <v>78</v>
       </c>
@@ -7825,7 +7877,9 @@
       <c r="C28" s="17" t="s">
         <v>2199</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
       <c r="E28" s="1" t="s">
         <v>81</v>
       </c>
@@ -7840,7 +7894,9 @@
       <c r="C29" s="17" t="s">
         <v>2199</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
       <c r="E29" s="1" t="s">
         <v>84</v>
       </c>
@@ -7855,7 +7911,9 @@
       <c r="C30" s="17" t="s">
         <v>2198</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
       <c r="E30" s="1" t="s">
         <v>87</v>
       </c>
@@ -7870,7 +7928,9 @@
       <c r="C31" s="17" t="s">
         <v>2198</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1">
+        <v>8</v>
+      </c>
       <c r="E31" s="1" t="s">
         <v>90</v>
       </c>
@@ -7975,7 +8035,9 @@
       <c r="C38" s="17" t="s">
         <v>2198</v>
       </c>
-      <c r="D38" s="1"/>
+      <c r="D38" s="1">
+        <v>7</v>
+      </c>
       <c r="E38" s="3" t="s">
         <v>111</v>
       </c>
@@ -7990,7 +8052,9 @@
       <c r="C39" s="17" t="s">
         <v>2198</v>
       </c>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1">
+        <v>13</v>
+      </c>
       <c r="E39" s="1" t="s">
         <v>114</v>
       </c>
@@ -8005,7 +8069,9 @@
       <c r="C40" s="17" t="s">
         <v>2198</v>
       </c>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1">
+        <v>14</v>
+      </c>
       <c r="E40" s="1" t="s">
         <v>117</v>
       </c>
@@ -8020,7 +8086,9 @@
       <c r="C41" s="17" t="s">
         <v>2198</v>
       </c>
-      <c r="D41" s="1"/>
+      <c r="D41" s="1">
+        <v>15</v>
+      </c>
       <c r="E41" s="1" t="s">
         <v>120</v>
       </c>
@@ -8035,7 +8103,9 @@
       <c r="C42" s="17" t="s">
         <v>2198</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1">
+        <v>20</v>
+      </c>
       <c r="E42" s="1" t="s">
         <v>123</v>
       </c>
@@ -8050,7 +8120,9 @@
       <c r="C43" s="17" t="s">
         <v>2198</v>
       </c>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1">
+        <v>21</v>
+      </c>
       <c r="E43" s="1" t="s">
         <v>126</v>
       </c>
@@ -8065,7 +8137,9 @@
       <c r="C44" s="17" t="s">
         <v>2198</v>
       </c>
-      <c r="D44" s="1"/>
+      <c r="D44" s="1">
+        <v>25</v>
+      </c>
       <c r="E44" s="1" t="s">
         <v>129</v>
       </c>
@@ -8103,8 +8177,12 @@
       <c r="B47" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="1"/>
+      <c r="C47" s="17" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D47" s="1">
+        <v>29</v>
+      </c>
       <c r="E47" s="1" t="s">
         <v>138</v>
       </c>
@@ -8116,8 +8194,12 @@
       <c r="B48" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="1"/>
+      <c r="C48" s="17" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D48" s="1">
+        <v>28</v>
+      </c>
       <c r="E48" s="1" t="s">
         <v>141</v>
       </c>
@@ -8145,7 +8227,9 @@
       <c r="C50" s="17" t="s">
         <v>2200</v>
       </c>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1">
+        <v>18</v>
+      </c>
       <c r="E50" s="1" t="s">
         <v>147</v>
       </c>
@@ -8160,7 +8244,9 @@
       <c r="C51" s="17" t="s">
         <v>2200</v>
       </c>
-      <c r="D51" s="1"/>
+      <c r="D51" s="1">
+        <v>20</v>
+      </c>
       <c r="E51" s="1" t="s">
         <v>150</v>
       </c>
@@ -8221,6 +8307,9 @@
       <c r="C56" s="20" t="s">
         <v>2171</v>
       </c>
+      <c r="D56">
+        <v>12</v>
+      </c>
       <c r="E56" s="7" t="s">
         <v>165</v>
       </c>
@@ -8235,6 +8324,9 @@
       <c r="C57" s="20" t="s">
         <v>2171</v>
       </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
       <c r="E57" s="7" t="s">
         <v>168</v>
       </c>
@@ -8249,6 +8341,9 @@
       <c r="C58" s="20" t="s">
         <v>2171</v>
       </c>
+      <c r="D58">
+        <v>13</v>
+      </c>
       <c r="E58" s="7" t="s">
         <v>171</v>
       </c>
@@ -8263,6 +8358,9 @@
       <c r="C59" s="20" t="s">
         <v>2171</v>
       </c>
+      <c r="D59">
+        <v>14</v>
+      </c>
       <c r="E59" s="7" t="s">
         <v>174</v>
       </c>
@@ -8277,6 +8375,9 @@
       <c r="C60" s="20" t="s">
         <v>2171</v>
       </c>
+      <c r="D60">
+        <v>11</v>
+      </c>
       <c r="E60" s="7" t="s">
         <v>177</v>
       </c>
@@ -8291,6 +8392,9 @@
       <c r="C61" s="20" t="s">
         <v>2171</v>
       </c>
+      <c r="D61">
+        <v>9</v>
+      </c>
       <c r="E61" s="7" t="s">
         <v>180</v>
       </c>
@@ -8305,6 +8409,9 @@
       <c r="C62" s="20" t="s">
         <v>2171</v>
       </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
       <c r="E62" s="7" t="s">
         <v>183</v>
       </c>
@@ -8319,6 +8426,9 @@
       <c r="C63" s="20" t="s">
         <v>2171</v>
       </c>
+      <c r="D63">
+        <v>7</v>
+      </c>
       <c r="E63" s="7" t="s">
         <v>186</v>
       </c>
@@ -8333,6 +8443,9 @@
       <c r="C64" s="20" t="s">
         <v>2171</v>
       </c>
+      <c r="D64">
+        <v>6</v>
+      </c>
       <c r="E64" s="7" t="s">
         <v>189</v>
       </c>
@@ -8347,6 +8460,9 @@
       <c r="C65" s="20" t="s">
         <v>2171</v>
       </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
       <c r="E65" s="7" t="s">
         <v>192</v>
       </c>
@@ -8373,6 +8489,9 @@
       <c r="C67" s="20" t="s">
         <v>2167</v>
       </c>
+      <c r="D67">
+        <v>6</v>
+      </c>
       <c r="E67" s="7" t="s">
         <v>198</v>
       </c>
@@ -8387,6 +8506,9 @@
       <c r="C68" s="20" t="s">
         <v>2167</v>
       </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
       <c r="E68" s="7" t="s">
         <v>201</v>
       </c>
@@ -8401,6 +8523,9 @@
       <c r="C69" s="20" t="s">
         <v>2166</v>
       </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
       <c r="E69" s="7" t="s">
         <v>204</v>
       </c>
@@ -8415,6 +8540,9 @@
       <c r="C70" s="20" t="s">
         <v>2166</v>
       </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
       <c r="E70" s="7" t="s">
         <v>207</v>
       </c>
@@ -8429,6 +8557,9 @@
       <c r="C71" s="20" t="s">
         <v>2166</v>
       </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
       <c r="E71" s="7" t="s">
         <v>210</v>
       </c>
@@ -8443,6 +8574,9 @@
       <c r="C72" s="20" t="s">
         <v>2166</v>
       </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
       <c r="E72" s="7" t="s">
         <v>213</v>
       </c>
@@ -8457,6 +8591,9 @@
       <c r="C73" s="20" t="s">
         <v>2166</v>
       </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
       <c r="E73" s="7" t="s">
         <v>216</v>
       </c>
@@ -8581,6 +8718,9 @@
       <c r="C82" s="20" t="s">
         <v>2167</v>
       </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
       <c r="E82" s="7" t="s">
         <v>243</v>
       </c>
@@ -8595,6 +8735,9 @@
       <c r="C83" s="20" t="s">
         <v>2167</v>
       </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
       <c r="E83" s="7" t="s">
         <v>246</v>
       </c>
@@ -8609,6 +8752,9 @@
       <c r="C84" s="20" t="s">
         <v>2167</v>
       </c>
+      <c r="D84">
+        <v>5</v>
+      </c>
       <c r="E84" s="7" t="s">
         <v>249</v>
       </c>
@@ -8623,6 +8769,9 @@
       <c r="C85" s="20" t="s">
         <v>2167</v>
       </c>
+      <c r="D85">
+        <v>10</v>
+      </c>
       <c r="E85" s="7" t="s">
         <v>252</v>
       </c>
@@ -8637,6 +8786,9 @@
       <c r="C86" s="20" t="s">
         <v>2167</v>
       </c>
+      <c r="D86">
+        <v>9</v>
+      </c>
       <c r="E86" s="7" t="s">
         <v>255</v>
       </c>
@@ -8651,6 +8803,9 @@
       <c r="C87" s="20" t="s">
         <v>2174</v>
       </c>
+      <c r="D87">
+        <v>35</v>
+      </c>
       <c r="E87" s="7" t="s">
         <v>258</v>
       </c>
@@ -8665,6 +8820,9 @@
       <c r="C88" s="20" t="s">
         <v>2174</v>
       </c>
+      <c r="D88">
+        <v>32</v>
+      </c>
       <c r="E88" s="7" t="s">
         <v>261</v>
       </c>
@@ -8679,6 +8837,9 @@
       <c r="C89" s="20" t="s">
         <v>2174</v>
       </c>
+      <c r="D89">
+        <v>24</v>
+      </c>
       <c r="E89" s="7" t="s">
         <v>264</v>
       </c>
@@ -8693,6 +8854,9 @@
       <c r="C90" s="20" t="s">
         <v>2174</v>
       </c>
+      <c r="D90">
+        <v>20</v>
+      </c>
       <c r="E90" s="7" t="s">
         <v>267</v>
       </c>
@@ -8707,6 +8871,9 @@
       <c r="C91" s="20" t="s">
         <v>2174</v>
       </c>
+      <c r="D91">
+        <v>18</v>
+      </c>
       <c r="E91" s="7" t="s">
         <v>270</v>
       </c>
@@ -8721,6 +8888,9 @@
       <c r="C92" s="20" t="s">
         <v>2174</v>
       </c>
+      <c r="D92">
+        <v>10</v>
+      </c>
       <c r="E92" s="7" t="s">
         <v>273</v>
       </c>
@@ -8735,6 +8905,9 @@
       <c r="C93" s="20" t="s">
         <v>2174</v>
       </c>
+      <c r="D93">
+        <v>9</v>
+      </c>
       <c r="E93" s="7" t="s">
         <v>276</v>
       </c>
@@ -8749,6 +8922,9 @@
       <c r="C94" s="20" t="s">
         <v>2174</v>
       </c>
+      <c r="D94">
+        <v>5</v>
+      </c>
       <c r="E94" s="7" t="s">
         <v>279</v>
       </c>
@@ -8763,6 +8939,9 @@
       <c r="C95" s="20" t="s">
         <v>2174</v>
       </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
       <c r="E95" s="7" t="s">
         <v>282</v>
       </c>
@@ -8777,6 +8956,9 @@
       <c r="C96" s="20" t="s">
         <v>2174</v>
       </c>
+      <c r="D96">
+        <v>6</v>
+      </c>
       <c r="E96" s="7" t="s">
         <v>285</v>
       </c>
@@ -8791,6 +8973,9 @@
       <c r="C97" s="20" t="s">
         <v>2174</v>
       </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
       <c r="E97" s="7" t="s">
         <v>288</v>
       </c>
@@ -8805,6 +8990,9 @@
       <c r="C98" s="20" t="s">
         <v>2174</v>
       </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
       <c r="E98" s="7" t="s">
         <v>291</v>
       </c>
@@ -8816,7 +9004,12 @@
       <c r="B99" t="s">
         <v>293</v>
       </c>
-      <c r="C99" s="20"/>
+      <c r="C99" s="20" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
       <c r="E99" s="7" t="s">
         <v>294</v>
       </c>
@@ -8959,7 +9152,9 @@
       <c r="C109" s="17" t="s">
         <v>2272</v>
       </c>
-      <c r="D109" s="1"/>
+      <c r="D109" s="1">
+        <v>7</v>
+      </c>
       <c r="E109" s="1" t="s">
         <v>324</v>
       </c>
@@ -8974,7 +9169,9 @@
       <c r="C110" s="17" t="s">
         <v>2272</v>
       </c>
-      <c r="D110" s="1"/>
+      <c r="D110" s="1">
+        <v>8</v>
+      </c>
       <c r="E110" s="1" t="s">
         <v>327</v>
       </c>
@@ -8987,9 +9184,11 @@
         <v>329</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>2273</v>
-      </c>
-      <c r="D111" s="1"/>
+        <v>2284</v>
+      </c>
+      <c r="D111" s="1">
+        <v>19</v>
+      </c>
       <c r="E111" s="1" t="s">
         <v>330</v>
       </c>
@@ -9002,9 +9201,11 @@
         <v>332</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>2273</v>
-      </c>
-      <c r="D112" s="1"/>
+        <v>2284</v>
+      </c>
+      <c r="D112" s="1">
+        <v>18</v>
+      </c>
       <c r="E112" s="1" t="s">
         <v>333</v>
       </c>
@@ -9016,8 +9217,12 @@
       <c r="B113" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C113" s="17"/>
-      <c r="D113" s="1"/>
+      <c r="C113" s="17" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D113" s="1">
+        <v>1</v>
+      </c>
       <c r="E113" s="1" t="s">
         <v>336</v>
       </c>
@@ -9030,9 +9235,11 @@
         <v>338</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>2273</v>
-      </c>
-      <c r="D114" s="1"/>
+        <v>2272</v>
+      </c>
+      <c r="D114" s="1">
+        <v>14</v>
+      </c>
       <c r="E114" s="1" t="s">
         <v>339</v>
       </c>
@@ -9044,8 +9251,12 @@
       <c r="B115" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C115" s="17"/>
-      <c r="D115" s="1"/>
+      <c r="C115" s="17" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D115" s="1">
+        <v>6</v>
+      </c>
       <c r="E115" s="1" t="s">
         <v>342</v>
       </c>
@@ -9058,9 +9269,11 @@
         <v>344</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>2276</v>
-      </c>
-      <c r="D116" s="1"/>
+        <v>2288</v>
+      </c>
+      <c r="D116" s="1">
+        <v>1</v>
+      </c>
       <c r="E116" s="1" t="s">
         <v>345</v>
       </c>
@@ -9294,9 +9507,11 @@
         <v>398</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>2275</v>
-      </c>
-      <c r="D134" s="1"/>
+        <v>2287</v>
+      </c>
+      <c r="D134" s="1">
+        <v>14</v>
+      </c>
       <c r="E134" s="1" t="s">
         <v>399</v>
       </c>
@@ -9309,9 +9524,11 @@
         <v>401</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>2275</v>
-      </c>
-      <c r="D135" s="1"/>
+        <v>2287</v>
+      </c>
+      <c r="D135" s="1">
+        <v>12</v>
+      </c>
       <c r="E135" s="1" t="s">
         <v>402</v>
       </c>
@@ -9324,9 +9541,11 @@
         <v>404</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>2275</v>
-      </c>
-      <c r="D136" s="1"/>
+        <v>2287</v>
+      </c>
+      <c r="D136" s="1">
+        <v>13</v>
+      </c>
       <c r="E136" s="1" t="s">
         <v>405</v>
       </c>
@@ -9339,9 +9558,11 @@
         <v>407</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>2275</v>
-      </c>
-      <c r="D137" s="1"/>
+        <v>2287</v>
+      </c>
+      <c r="D137" s="1">
+        <v>5</v>
+      </c>
       <c r="E137" s="1" t="s">
         <v>408</v>
       </c>
@@ -9353,10 +9574,12 @@
       <c r="B138" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C138" s="17" t="s">
-        <v>2275</v>
-      </c>
-      <c r="D138" s="1"/>
+      <c r="C138" s="16" t="s">
+        <v>2287</v>
+      </c>
+      <c r="D138" s="1">
+        <v>4</v>
+      </c>
       <c r="E138" s="1" t="s">
         <v>411</v>
       </c>
@@ -9369,9 +9592,11 @@
         <v>413</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>2276</v>
-      </c>
-      <c r="D139" s="1"/>
+        <v>2288</v>
+      </c>
+      <c r="D139" s="1">
+        <v>4</v>
+      </c>
       <c r="E139" s="1" t="s">
         <v>414</v>
       </c>
@@ -9383,10 +9608,12 @@
       <c r="B140" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C140" s="17" t="s">
-        <v>2275</v>
-      </c>
-      <c r="D140" s="1"/>
+      <c r="C140" s="16" t="s">
+        <v>2287</v>
+      </c>
+      <c r="D140" s="1">
+        <v>2</v>
+      </c>
       <c r="E140" s="1" t="s">
         <v>417</v>
       </c>
@@ -9398,10 +9625,12 @@
       <c r="B141" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C141" s="17" t="s">
-        <v>2274</v>
-      </c>
-      <c r="D141" s="1"/>
+      <c r="C141" s="16" t="s">
+        <v>2287</v>
+      </c>
+      <c r="D141" s="1">
+        <v>1</v>
+      </c>
       <c r="E141" s="1" t="s">
         <v>420</v>
       </c>
@@ -9413,10 +9642,12 @@
       <c r="B142" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C142" s="17" t="s">
-        <v>2274</v>
-      </c>
-      <c r="D142" s="1"/>
+      <c r="C142" s="16" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D142" s="1">
+        <v>8</v>
+      </c>
       <c r="E142" s="1" t="s">
         <v>423</v>
       </c>
@@ -9428,10 +9659,12 @@
       <c r="B143" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C143" s="17" t="s">
-        <v>2274</v>
-      </c>
-      <c r="D143" s="1"/>
+      <c r="C143" s="16" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D143" s="1">
+        <v>7</v>
+      </c>
       <c r="E143" s="1" t="s">
         <v>426</v>
       </c>
@@ -9444,9 +9677,11 @@
         <v>428</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>2274</v>
-      </c>
-      <c r="D144" s="1"/>
+        <v>2286</v>
+      </c>
+      <c r="D144" s="1">
+        <v>2</v>
+      </c>
       <c r="E144" s="1" t="s">
         <v>429</v>
       </c>
@@ -9461,7 +9696,9 @@
       <c r="C145" s="17" t="s">
         <v>2272</v>
       </c>
-      <c r="D145" s="1"/>
+      <c r="D145" s="1">
+        <v>12</v>
+      </c>
       <c r="E145" s="1" t="s">
         <v>432</v>
       </c>
@@ -9473,9 +9710,7 @@
       <c r="B146" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C146" s="17" t="s">
-        <v>2271</v>
-      </c>
+      <c r="C146" s="17"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1" t="s">
         <v>435</v>
@@ -9488,9 +9723,7 @@
       <c r="B147" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C147" s="17" t="s">
-        <v>2271</v>
-      </c>
+      <c r="C147" s="17"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1" t="s">
         <v>438</v>
@@ -9503,9 +9736,7 @@
       <c r="B148" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C148" s="17" t="s">
-        <v>2271</v>
-      </c>
+      <c r="C148" s="17"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1" t="s">
         <v>441</v>
@@ -9518,8 +9749,12 @@
       <c r="B149" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C149" s="17"/>
-      <c r="D149" s="1"/>
+      <c r="C149" s="17" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D149" s="1">
+        <v>1</v>
+      </c>
       <c r="E149" s="1" t="s">
         <v>444</v>
       </c>
@@ -9571,6 +9806,9 @@
       <c r="C153" s="8" t="s">
         <v>2151</v>
       </c>
+      <c r="D153">
+        <v>7</v>
+      </c>
       <c r="E153" t="s">
         <v>456</v>
       </c>
@@ -9585,6 +9823,9 @@
       <c r="C154" s="8" t="s">
         <v>2151</v>
       </c>
+      <c r="D154">
+        <v>3</v>
+      </c>
       <c r="E154" t="s">
         <v>459</v>
       </c>
@@ -9599,6 +9840,9 @@
       <c r="C155" s="8" t="s">
         <v>2151</v>
       </c>
+      <c r="D155">
+        <v>4</v>
+      </c>
       <c r="E155" t="s">
         <v>462</v>
       </c>
@@ -9613,6 +9857,9 @@
       <c r="C156" s="8" t="s">
         <v>2151</v>
       </c>
+      <c r="D156">
+        <v>6</v>
+      </c>
       <c r="E156" t="s">
         <v>465</v>
       </c>
@@ -9627,6 +9874,9 @@
       <c r="C157" s="8" t="s">
         <v>2151</v>
       </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
       <c r="E157" t="s">
         <v>468</v>
       </c>
@@ -9641,6 +9891,9 @@
       <c r="C158" s="8" t="s">
         <v>2151</v>
       </c>
+      <c r="D158">
+        <v>5</v>
+      </c>
       <c r="E158" t="s">
         <v>471</v>
       </c>
@@ -9655,6 +9908,9 @@
       <c r="C159" s="8" t="s">
         <v>2151</v>
       </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
       <c r="E159" t="s">
         <v>474</v>
       </c>
@@ -9669,6 +9925,9 @@
       <c r="C160" s="8" t="s">
         <v>2152</v>
       </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
       <c r="E160" t="s">
         <v>477</v>
       </c>
@@ -9683,6 +9942,9 @@
       <c r="C161" s="8" t="s">
         <v>2152</v>
       </c>
+      <c r="D161">
+        <v>3</v>
+      </c>
       <c r="E161" t="s">
         <v>480</v>
       </c>
@@ -9697,6 +9959,9 @@
       <c r="C162" s="8" t="s">
         <v>2152</v>
       </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
       <c r="E162" t="s">
         <v>483</v>
       </c>
@@ -9711,6 +9976,9 @@
       <c r="C163" s="8" t="s">
         <v>2152</v>
       </c>
+      <c r="D163">
+        <v>4</v>
+      </c>
       <c r="E163" t="s">
         <v>486</v>
       </c>
@@ -9725,6 +9993,9 @@
       <c r="C164" s="8" t="s">
         <v>2151</v>
       </c>
+      <c r="D164">
+        <v>13</v>
+      </c>
       <c r="E164" t="s">
         <v>489</v>
       </c>
@@ -9739,6 +10010,9 @@
       <c r="C165" s="8" t="s">
         <v>2152</v>
       </c>
+      <c r="D165">
+        <v>7</v>
+      </c>
       <c r="E165" t="s">
         <v>492</v>
       </c>
@@ -9753,6 +10027,9 @@
       <c r="C166" s="8" t="s">
         <v>2151</v>
       </c>
+      <c r="D166">
+        <v>18</v>
+      </c>
       <c r="E166" t="s">
         <v>495</v>
       </c>
@@ -9767,6 +10044,9 @@
       <c r="C167" s="8" t="s">
         <v>2152</v>
       </c>
+      <c r="D167">
+        <v>14</v>
+      </c>
       <c r="E167" t="s">
         <v>498</v>
       </c>
@@ -9781,6 +10061,9 @@
       <c r="C168" s="8" t="s">
         <v>2151</v>
       </c>
+      <c r="D168">
+        <v>15</v>
+      </c>
       <c r="E168" t="s">
         <v>501</v>
       </c>
@@ -9792,6 +10075,12 @@
       <c r="B169" t="s">
         <v>503</v>
       </c>
+      <c r="C169" s="8" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D169">
+        <v>14</v>
+      </c>
       <c r="E169" t="s">
         <v>504</v>
       </c>
@@ -9806,6 +10095,9 @@
       <c r="C170" s="8" t="s">
         <v>2151</v>
       </c>
+      <c r="D170">
+        <v>9</v>
+      </c>
       <c r="E170" t="s">
         <v>507</v>
       </c>
@@ -9820,6 +10112,9 @@
       <c r="C171" s="8" t="s">
         <v>2151</v>
       </c>
+      <c r="D171">
+        <v>10</v>
+      </c>
       <c r="E171" t="s">
         <v>510</v>
       </c>
@@ -9834,6 +10129,9 @@
       <c r="C172" s="8" t="s">
         <v>2151</v>
       </c>
+      <c r="D172">
+        <v>8</v>
+      </c>
       <c r="E172" t="s">
         <v>513</v>
       </c>
@@ -9848,6 +10146,9 @@
       <c r="C173" s="8" t="s">
         <v>2151</v>
       </c>
+      <c r="D173">
+        <v>17</v>
+      </c>
       <c r="E173" t="s">
         <v>516</v>
       </c>
@@ -9862,6 +10163,9 @@
       <c r="C174" s="8" t="s">
         <v>2151</v>
       </c>
+      <c r="D174">
+        <v>19</v>
+      </c>
       <c r="E174" t="s">
         <v>519</v>
       </c>
@@ -9876,6 +10180,9 @@
       <c r="C175" s="8" t="s">
         <v>2151</v>
       </c>
+      <c r="D175">
+        <v>33</v>
+      </c>
       <c r="E175" t="s">
         <v>522</v>
       </c>
@@ -9890,6 +10197,9 @@
       <c r="C176" s="8" t="s">
         <v>2151</v>
       </c>
+      <c r="D176">
+        <v>32</v>
+      </c>
       <c r="E176" t="s">
         <v>525</v>
       </c>
@@ -9904,6 +10214,9 @@
       <c r="C177" s="8" t="s">
         <v>2156</v>
       </c>
+      <c r="D177">
+        <v>9</v>
+      </c>
       <c r="E177" t="s">
         <v>528</v>
       </c>
@@ -9918,6 +10231,9 @@
       <c r="C178" s="8" t="s">
         <v>2156</v>
       </c>
+      <c r="D178">
+        <v>10</v>
+      </c>
       <c r="E178" t="s">
         <v>531</v>
       </c>
@@ -9932,6 +10248,9 @@
       <c r="C179" s="8" t="s">
         <v>2156</v>
       </c>
+      <c r="D179">
+        <v>12</v>
+      </c>
       <c r="E179" t="s">
         <v>534</v>
       </c>
@@ -9946,6 +10265,9 @@
       <c r="C180" s="8" t="s">
         <v>2156</v>
       </c>
+      <c r="D180">
+        <v>11</v>
+      </c>
       <c r="E180" t="s">
         <v>537</v>
       </c>
@@ -9960,6 +10282,9 @@
       <c r="C181" s="8" t="s">
         <v>2156</v>
       </c>
+      <c r="D181">
+        <v>15</v>
+      </c>
       <c r="E181" t="s">
         <v>540</v>
       </c>
@@ -9974,6 +10299,9 @@
       <c r="C182" s="8" t="s">
         <v>2156</v>
       </c>
+      <c r="D182">
+        <v>13</v>
+      </c>
       <c r="E182" t="s">
         <v>543</v>
       </c>
@@ -9988,6 +10316,9 @@
       <c r="C183" s="8" t="s">
         <v>2156</v>
       </c>
+      <c r="D183">
+        <v>20</v>
+      </c>
       <c r="E183" t="s">
         <v>546</v>
       </c>
@@ -10002,6 +10333,9 @@
       <c r="C184" s="8" t="s">
         <v>2156</v>
       </c>
+      <c r="D184">
+        <v>18</v>
+      </c>
       <c r="E184" s="1" t="s">
         <v>549</v>
       </c>
@@ -10016,6 +10350,9 @@
       <c r="C185" s="8" t="s">
         <v>2151</v>
       </c>
+      <c r="D185">
+        <v>36</v>
+      </c>
       <c r="E185" t="s">
         <v>552</v>
       </c>
@@ -10030,6 +10367,9 @@
       <c r="C186" s="8" t="s">
         <v>2152</v>
       </c>
+      <c r="D186">
+        <v>21</v>
+      </c>
       <c r="E186" t="s">
         <v>555</v>
       </c>
@@ -10044,6 +10384,9 @@
       <c r="C187" s="8" t="s">
         <v>2152</v>
       </c>
+      <c r="D187">
+        <v>19</v>
+      </c>
       <c r="E187" t="s">
         <v>558</v>
       </c>
@@ -10058,6 +10401,9 @@
       <c r="C188" s="8" t="s">
         <v>2152</v>
       </c>
+      <c r="D188">
+        <v>20</v>
+      </c>
       <c r="E188" t="s">
         <v>561</v>
       </c>
@@ -10072,6 +10418,9 @@
       <c r="C189" s="8" t="s">
         <v>2152</v>
       </c>
+      <c r="D189">
+        <v>24</v>
+      </c>
       <c r="E189" t="s">
         <v>564</v>
       </c>
@@ -10084,7 +10433,10 @@
         <v>566</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>2155</v>
+        <v>2153</v>
+      </c>
+      <c r="D190">
+        <v>11</v>
       </c>
       <c r="E190" t="s">
         <v>567</v>
@@ -10100,6 +10452,9 @@
       <c r="C191" s="8" t="s">
         <v>2155</v>
       </c>
+      <c r="D191">
+        <v>5</v>
+      </c>
       <c r="E191" t="s">
         <v>570</v>
       </c>
@@ -10114,6 +10469,9 @@
       <c r="C192" s="8" t="s">
         <v>2153</v>
       </c>
+      <c r="D192">
+        <v>12</v>
+      </c>
       <c r="E192" t="s">
         <v>573</v>
       </c>
@@ -10128,6 +10486,9 @@
       <c r="C193" s="8" t="s">
         <v>2153</v>
       </c>
+      <c r="D193">
+        <v>9</v>
+      </c>
       <c r="E193" t="s">
         <v>576</v>
       </c>
@@ -10142,6 +10503,9 @@
       <c r="C194" s="8" t="s">
         <v>2153</v>
       </c>
+      <c r="D194">
+        <v>18</v>
+      </c>
       <c r="E194" t="s">
         <v>579</v>
       </c>
@@ -10156,6 +10520,9 @@
       <c r="C195" s="8" t="s">
         <v>2154</v>
       </c>
+      <c r="D195">
+        <v>5</v>
+      </c>
       <c r="E195" t="s">
         <v>582</v>
       </c>
@@ -10170,6 +10537,9 @@
       <c r="C196" s="8" t="s">
         <v>2154</v>
       </c>
+      <c r="D196">
+        <v>6</v>
+      </c>
       <c r="E196" t="s">
         <v>585</v>
       </c>
@@ -10184,6 +10554,9 @@
       <c r="C197" s="8" t="s">
         <v>2154</v>
       </c>
+      <c r="D197">
+        <v>8</v>
+      </c>
       <c r="E197" t="s">
         <v>588</v>
       </c>
@@ -10198,6 +10571,9 @@
       <c r="C198" s="8" t="s">
         <v>2154</v>
       </c>
+      <c r="D198">
+        <v>7</v>
+      </c>
       <c r="E198" t="s">
         <v>591</v>
       </c>
@@ -10212,6 +10588,9 @@
       <c r="C199" s="8" t="s">
         <v>2155</v>
       </c>
+      <c r="D199">
+        <v>25</v>
+      </c>
       <c r="E199" t="s">
         <v>594</v>
       </c>
@@ -10226,6 +10605,9 @@
       <c r="C200" s="8" t="s">
         <v>2155</v>
       </c>
+      <c r="D200">
+        <v>22</v>
+      </c>
       <c r="E200" t="s">
         <v>597</v>
       </c>
@@ -10240,6 +10622,9 @@
       <c r="C201" s="8" t="s">
         <v>2155</v>
       </c>
+      <c r="D201">
+        <v>29</v>
+      </c>
       <c r="E201" t="s">
         <v>600</v>
       </c>
@@ -10590,6 +10975,9 @@
       <c r="C230" s="18" t="s">
         <v>2266</v>
       </c>
+      <c r="D230" s="6">
+        <v>4</v>
+      </c>
       <c r="E230" s="6" t="s">
         <v>687</v>
       </c>
@@ -10604,6 +10992,9 @@
       <c r="C231" s="18" t="s">
         <v>2266</v>
       </c>
+      <c r="D231" s="6">
+        <v>1</v>
+      </c>
       <c r="E231" s="6" t="s">
         <v>690</v>
       </c>
@@ -10618,6 +11009,9 @@
       <c r="C232" s="18" t="s">
         <v>2266</v>
       </c>
+      <c r="D232" s="6">
+        <v>2</v>
+      </c>
       <c r="E232" s="6" t="s">
         <v>693</v>
       </c>
@@ -10632,6 +11026,9 @@
       <c r="C233" s="18" t="s">
         <v>2266</v>
       </c>
+      <c r="D233" s="6">
+        <v>3</v>
+      </c>
       <c r="E233" s="6" t="s">
         <v>696</v>
       </c>
@@ -10646,6 +11043,9 @@
       <c r="C234" s="18" t="s">
         <v>2266</v>
       </c>
+      <c r="D234" s="6">
+        <v>5</v>
+      </c>
       <c r="E234" s="6" t="s">
         <v>699</v>
       </c>
@@ -10732,6 +11132,9 @@
       <c r="C241" s="18" t="s">
         <v>2265</v>
       </c>
+      <c r="D241" s="6">
+        <v>4</v>
+      </c>
       <c r="E241" s="6" t="s">
         <v>720</v>
       </c>
@@ -10746,6 +11149,9 @@
       <c r="C242" s="18" t="s">
         <v>2265</v>
       </c>
+      <c r="D242" s="6">
+        <v>3</v>
+      </c>
       <c r="E242" s="6" t="s">
         <v>723</v>
       </c>
@@ -10760,6 +11166,9 @@
       <c r="C243" s="18" t="s">
         <v>2265</v>
       </c>
+      <c r="D243" s="6">
+        <v>2</v>
+      </c>
       <c r="E243" s="6" t="s">
         <v>726</v>
       </c>
@@ -10774,6 +11183,9 @@
       <c r="C244" s="18" t="s">
         <v>2265</v>
       </c>
+      <c r="D244" s="6">
+        <v>1</v>
+      </c>
       <c r="E244" s="6" t="s">
         <v>729</v>
       </c>
@@ -10788,6 +11200,9 @@
       <c r="C245" s="18" t="s">
         <v>2266</v>
       </c>
+      <c r="D245" s="6">
+        <v>6</v>
+      </c>
       <c r="E245" s="6" t="s">
         <v>732</v>
       </c>
@@ -10802,6 +11217,9 @@
       <c r="C246" s="18" t="s">
         <v>2264</v>
       </c>
+      <c r="D246" s="6">
+        <v>2</v>
+      </c>
       <c r="E246" s="6" t="s">
         <v>735</v>
       </c>
@@ -10816,6 +11234,9 @@
       <c r="C247" s="18" t="s">
         <v>2264</v>
       </c>
+      <c r="D247" s="6">
+        <v>1</v>
+      </c>
       <c r="E247" s="6" t="s">
         <v>738</v>
       </c>
@@ -10830,6 +11251,9 @@
       <c r="C248" s="18" t="s">
         <v>2265</v>
       </c>
+      <c r="D248" s="6">
+        <v>7</v>
+      </c>
       <c r="E248" s="6" t="s">
         <v>741</v>
       </c>
@@ -10856,6 +11280,9 @@
       <c r="C250" s="18" t="s">
         <v>2264</v>
       </c>
+      <c r="D250" s="6">
+        <v>3</v>
+      </c>
       <c r="E250" s="6" t="s">
         <v>747</v>
       </c>
@@ -10966,6 +11393,9 @@
       <c r="C258" s="23" t="s">
         <v>2162</v>
       </c>
+      <c r="D258">
+        <v>3</v>
+      </c>
       <c r="E258" t="s">
         <v>771</v>
       </c>
@@ -10980,6 +11410,9 @@
       <c r="C259" s="23" t="s">
         <v>2162</v>
       </c>
+      <c r="D259">
+        <v>2</v>
+      </c>
       <c r="E259" t="s">
         <v>774</v>
       </c>
@@ -10994,6 +11427,9 @@
       <c r="C260" s="23" t="s">
         <v>2162</v>
       </c>
+      <c r="D260">
+        <v>4</v>
+      </c>
       <c r="E260" t="s">
         <v>777</v>
       </c>
@@ -11008,6 +11444,9 @@
       <c r="C261" s="23" t="s">
         <v>2162</v>
       </c>
+      <c r="D261">
+        <v>8</v>
+      </c>
       <c r="E261" t="s">
         <v>780</v>
       </c>
@@ -11022,6 +11461,9 @@
       <c r="C262" s="23" t="s">
         <v>2162</v>
       </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
       <c r="E262" t="s">
         <v>783</v>
       </c>
@@ -11036,6 +11478,9 @@
       <c r="C263" s="23" t="s">
         <v>2162</v>
       </c>
+      <c r="D263">
+        <v>9</v>
+      </c>
       <c r="E263" t="s">
         <v>786</v>
       </c>
@@ -11050,6 +11495,9 @@
       <c r="C264" s="24" t="s">
         <v>2143</v>
       </c>
+      <c r="D264">
+        <v>10</v>
+      </c>
       <c r="E264" t="s">
         <v>789</v>
       </c>
@@ -11064,6 +11512,9 @@
       <c r="C265" s="24" t="s">
         <v>2143</v>
       </c>
+      <c r="D265">
+        <v>4</v>
+      </c>
       <c r="E265" t="s">
         <v>792</v>
       </c>
@@ -11078,6 +11529,9 @@
       <c r="C266" s="25" t="s">
         <v>2147</v>
       </c>
+      <c r="D266">
+        <v>15</v>
+      </c>
       <c r="E266" t="s">
         <v>795</v>
       </c>
@@ -11092,6 +11546,9 @@
       <c r="C267" s="25" t="s">
         <v>2147</v>
       </c>
+      <c r="D267">
+        <v>2</v>
+      </c>
       <c r="E267" t="s">
         <v>798</v>
       </c>
@@ -11106,6 +11563,9 @@
       <c r="C268" s="25" t="s">
         <v>2147</v>
       </c>
+      <c r="D268">
+        <v>7</v>
+      </c>
       <c r="E268" t="s">
         <v>801</v>
       </c>
@@ -11120,6 +11580,9 @@
       <c r="C269" s="25" t="s">
         <v>2147</v>
       </c>
+      <c r="D269">
+        <v>12</v>
+      </c>
       <c r="E269" t="s">
         <v>804</v>
       </c>
@@ -11134,6 +11597,9 @@
       <c r="C270" s="25" t="s">
         <v>2147</v>
       </c>
+      <c r="D270">
+        <v>13</v>
+      </c>
       <c r="E270" t="s">
         <v>807</v>
       </c>
@@ -11148,6 +11614,9 @@
       <c r="C271" s="25" t="s">
         <v>2147</v>
       </c>
+      <c r="D271">
+        <v>14</v>
+      </c>
       <c r="E271" t="s">
         <v>810</v>
       </c>
@@ -11162,6 +11631,9 @@
       <c r="C272" s="26" t="s">
         <v>2144</v>
       </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
       <c r="E272" t="s">
         <v>813</v>
       </c>
@@ -11176,6 +11648,9 @@
       <c r="C273" s="24" t="s">
         <v>2143</v>
       </c>
+      <c r="D273">
+        <v>14</v>
+      </c>
       <c r="E273" t="s">
         <v>816</v>
       </c>
@@ -11190,6 +11665,9 @@
       <c r="C274" s="24" t="s">
         <v>2143</v>
       </c>
+      <c r="D274">
+        <v>13</v>
+      </c>
       <c r="E274" t="s">
         <v>819</v>
       </c>
@@ -11204,6 +11682,9 @@
       <c r="C275" s="26" t="s">
         <v>2144</v>
       </c>
+      <c r="D275">
+        <v>3</v>
+      </c>
       <c r="E275" t="s">
         <v>822</v>
       </c>
@@ -11218,6 +11699,9 @@
       <c r="C276" s="26" t="s">
         <v>2144</v>
       </c>
+      <c r="D276">
+        <v>2</v>
+      </c>
       <c r="E276" t="s">
         <v>825</v>
       </c>
@@ -11232,6 +11716,9 @@
       <c r="C277" s="26" t="s">
         <v>2144</v>
       </c>
+      <c r="D277">
+        <v>4</v>
+      </c>
       <c r="E277" t="s">
         <v>828</v>
       </c>
@@ -11246,6 +11733,9 @@
       <c r="C278" s="26" t="s">
         <v>2144</v>
       </c>
+      <c r="D278">
+        <v>6</v>
+      </c>
       <c r="E278" t="s">
         <v>831</v>
       </c>
@@ -11260,6 +11750,9 @@
       <c r="C279" s="27" t="s">
         <v>2145</v>
       </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
       <c r="E279" t="s">
         <v>834</v>
       </c>
@@ -11274,6 +11767,9 @@
       <c r="C280" s="27" t="s">
         <v>2145</v>
       </c>
+      <c r="D280">
+        <v>2</v>
+      </c>
       <c r="E280" t="s">
         <v>837</v>
       </c>
@@ -11288,6 +11784,9 @@
       <c r="C281" s="27" t="s">
         <v>2145</v>
       </c>
+      <c r="D281">
+        <v>7</v>
+      </c>
       <c r="E281" t="s">
         <v>840</v>
       </c>
@@ -11302,6 +11801,9 @@
       <c r="C282" s="27" t="s">
         <v>2145</v>
       </c>
+      <c r="D282">
+        <v>10</v>
+      </c>
       <c r="E282" t="s">
         <v>843</v>
       </c>
@@ -11316,6 +11818,9 @@
       <c r="C283" s="27" t="s">
         <v>2145</v>
       </c>
+      <c r="D283">
+        <v>13</v>
+      </c>
       <c r="E283" t="s">
         <v>846</v>
       </c>
@@ -11330,6 +11835,9 @@
       <c r="C284" s="27" t="s">
         <v>2145</v>
       </c>
+      <c r="D284">
+        <v>14</v>
+      </c>
       <c r="E284" t="s">
         <v>849</v>
       </c>
@@ -11341,8 +11849,11 @@
       <c r="B285" t="s">
         <v>851</v>
       </c>
-      <c r="C285" s="27" t="s">
-        <v>2145</v>
+      <c r="C285" s="28" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
       </c>
       <c r="E285" t="s">
         <v>852</v>
@@ -11355,8 +11866,11 @@
       <c r="B286" t="s">
         <v>854</v>
       </c>
-      <c r="C286" s="27" t="s">
-        <v>2145</v>
+      <c r="C286" s="30" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D286">
+        <v>3</v>
       </c>
       <c r="E286" t="s">
         <v>855</v>
@@ -11369,8 +11883,11 @@
       <c r="B287" t="s">
         <v>857</v>
       </c>
-      <c r="C287" s="27" t="s">
-        <v>2145</v>
+      <c r="C287" s="30" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D287">
+        <v>2</v>
       </c>
       <c r="E287" t="s">
         <v>858</v>
@@ -11386,6 +11903,9 @@
       <c r="C288" s="28" t="s">
         <v>2146</v>
       </c>
+      <c r="D288">
+        <v>14</v>
+      </c>
       <c r="E288" t="s">
         <v>861</v>
       </c>
@@ -11400,6 +11920,9 @@
       <c r="C289" s="28" t="s">
         <v>2146</v>
       </c>
+      <c r="D289">
+        <v>23</v>
+      </c>
       <c r="E289" t="s">
         <v>864</v>
       </c>
@@ -11414,6 +11937,9 @@
       <c r="C290" s="28" t="s">
         <v>2146</v>
       </c>
+      <c r="D290">
+        <v>31</v>
+      </c>
       <c r="E290" t="s">
         <v>867</v>
       </c>
@@ -11428,6 +11954,9 @@
       <c r="C291" s="28" t="s">
         <v>2146</v>
       </c>
+      <c r="D291">
+        <v>4</v>
+      </c>
       <c r="E291" t="s">
         <v>870</v>
       </c>
@@ -11442,6 +11971,9 @@
       <c r="C292" s="28" t="s">
         <v>2146</v>
       </c>
+      <c r="D292">
+        <v>6</v>
+      </c>
       <c r="E292" t="s">
         <v>873</v>
       </c>
@@ -11456,6 +11988,9 @@
       <c r="C293" s="28" t="s">
         <v>2146</v>
       </c>
+      <c r="D293">
+        <v>5</v>
+      </c>
       <c r="E293" t="s">
         <v>876</v>
       </c>
@@ -11470,6 +12005,9 @@
       <c r="C294" s="28" t="s">
         <v>2146</v>
       </c>
+      <c r="D294">
+        <v>20</v>
+      </c>
       <c r="E294" t="s">
         <v>879</v>
       </c>
@@ -11484,6 +12022,9 @@
       <c r="C295" s="28" t="s">
         <v>2146</v>
       </c>
+      <c r="D295">
+        <v>29</v>
+      </c>
       <c r="E295" t="s">
         <v>882</v>
       </c>
@@ -11498,6 +12039,9 @@
       <c r="C296" s="28" t="s">
         <v>2146</v>
       </c>
+      <c r="D296">
+        <v>30</v>
+      </c>
       <c r="E296" t="s">
         <v>885</v>
       </c>
@@ -11545,6 +12089,9 @@
       <c r="C300" s="24" t="s">
         <v>2143</v>
       </c>
+      <c r="D300">
+        <v>12</v>
+      </c>
       <c r="E300" t="s">
         <v>897</v>
       </c>
@@ -11559,6 +12106,9 @@
       <c r="C301" s="24" t="s">
         <v>2143</v>
       </c>
+      <c r="D301">
+        <v>11</v>
+      </c>
       <c r="E301" t="s">
         <v>900</v>
       </c>
@@ -11573,6 +12123,9 @@
       <c r="C302" s="18" t="s">
         <v>2241</v>
       </c>
+      <c r="D302" s="6">
+        <v>7</v>
+      </c>
       <c r="E302" s="6" t="s">
         <v>903</v>
       </c>
@@ -11587,6 +12140,9 @@
       <c r="C303" s="18" t="s">
         <v>2241</v>
       </c>
+      <c r="D303" s="6">
+        <v>9</v>
+      </c>
       <c r="E303" s="6" t="s">
         <v>906</v>
       </c>
@@ -11601,6 +12157,9 @@
       <c r="C304" s="18" t="s">
         <v>2241</v>
       </c>
+      <c r="D304" s="6">
+        <v>11</v>
+      </c>
       <c r="E304" s="6" t="s">
         <v>909</v>
       </c>
@@ -11615,6 +12174,9 @@
       <c r="C305" s="18" t="s">
         <v>2241</v>
       </c>
+      <c r="D305" s="6">
+        <v>12</v>
+      </c>
       <c r="E305" s="6" t="s">
         <v>912</v>
       </c>
@@ -11629,6 +12191,9 @@
       <c r="C306" s="18" t="s">
         <v>2241</v>
       </c>
+      <c r="D306" s="6">
+        <v>13</v>
+      </c>
       <c r="E306" s="6" t="s">
         <v>915</v>
       </c>
@@ -11655,6 +12220,9 @@
       <c r="C308" s="18" t="s">
         <v>2241</v>
       </c>
+      <c r="D308" s="6">
+        <v>10</v>
+      </c>
       <c r="E308" s="6" t="s">
         <v>921</v>
       </c>
@@ -11669,6 +12237,9 @@
       <c r="C309" s="18" t="s">
         <v>2241</v>
       </c>
+      <c r="D309" s="6">
+        <v>8</v>
+      </c>
       <c r="E309" s="6" t="s">
         <v>924</v>
       </c>
@@ -11683,6 +12254,9 @@
       <c r="C310" s="18" t="s">
         <v>2241</v>
       </c>
+      <c r="D310" s="6">
+        <v>6</v>
+      </c>
       <c r="E310" s="6" t="s">
         <v>927</v>
       </c>
@@ -11697,6 +12271,9 @@
       <c r="C311" s="18" t="s">
         <v>2242</v>
       </c>
+      <c r="D311" s="6">
+        <v>11</v>
+      </c>
       <c r="E311" s="6" t="s">
         <v>930</v>
       </c>
@@ -11711,6 +12288,9 @@
       <c r="C312" s="18" t="s">
         <v>2242</v>
       </c>
+      <c r="D312" s="6">
+        <v>7</v>
+      </c>
       <c r="E312" s="6" t="s">
         <v>933</v>
       </c>
@@ -11725,6 +12305,9 @@
       <c r="C313" s="18" t="s">
         <v>2242</v>
       </c>
+      <c r="D313" s="6">
+        <v>6</v>
+      </c>
       <c r="E313" s="6" t="s">
         <v>936</v>
       </c>
@@ -11739,6 +12322,9 @@
       <c r="C314" s="18" t="s">
         <v>2242</v>
       </c>
+      <c r="D314" s="6">
+        <v>1</v>
+      </c>
       <c r="E314" s="6" t="s">
         <v>939</v>
       </c>
@@ -11801,6 +12387,9 @@
       <c r="C319" s="18" t="s">
         <v>2247</v>
       </c>
+      <c r="D319" s="6">
+        <v>2</v>
+      </c>
       <c r="E319" s="6" t="s">
         <v>954</v>
       </c>
@@ -11815,6 +12404,9 @@
       <c r="C320" s="18" t="s">
         <v>2247</v>
       </c>
+      <c r="D320" s="6">
+        <v>4</v>
+      </c>
       <c r="E320" s="6" t="s">
         <v>957</v>
       </c>
@@ -11829,6 +12421,9 @@
       <c r="C321" s="18" t="s">
         <v>2247</v>
       </c>
+      <c r="D321" s="6">
+        <v>3</v>
+      </c>
       <c r="E321" s="6" t="s">
         <v>960</v>
       </c>
@@ -11855,6 +12450,9 @@
       <c r="C323" s="18" t="s">
         <v>2247</v>
       </c>
+      <c r="D323" s="6">
+        <v>1</v>
+      </c>
       <c r="E323" s="6" t="s">
         <v>213</v>
       </c>
@@ -11869,6 +12467,9 @@
       <c r="C324" s="18" t="s">
         <v>2246</v>
       </c>
+      <c r="D324" s="6">
+        <v>4</v>
+      </c>
       <c r="E324" s="6" t="s">
         <v>968</v>
       </c>
@@ -11883,6 +12484,9 @@
       <c r="C325" s="18" t="s">
         <v>2247</v>
       </c>
+      <c r="D325" s="6">
+        <v>5</v>
+      </c>
       <c r="E325" s="6" t="s">
         <v>971</v>
       </c>
@@ -11909,6 +12513,9 @@
       <c r="C327" s="18" t="s">
         <v>2246</v>
       </c>
+      <c r="D327" s="6">
+        <v>3</v>
+      </c>
       <c r="E327" s="6" t="s">
         <v>977</v>
       </c>
@@ -11923,6 +12530,9 @@
       <c r="C328" s="18" t="s">
         <v>2246</v>
       </c>
+      <c r="D328" s="6">
+        <v>1</v>
+      </c>
       <c r="E328" s="6" t="s">
         <v>980</v>
       </c>
@@ -11937,6 +12547,9 @@
       <c r="C329" s="18" t="s">
         <v>2246</v>
       </c>
+      <c r="D329" s="6">
+        <v>2</v>
+      </c>
       <c r="E329" s="6" t="s">
         <v>983</v>
       </c>
@@ -12011,6 +12624,9 @@
       <c r="C335" s="18" t="s">
         <v>2245</v>
       </c>
+      <c r="D335" s="6">
+        <v>1</v>
+      </c>
       <c r="E335" s="6" t="s">
         <v>1001</v>
       </c>
@@ -12025,6 +12641,9 @@
       <c r="C336" s="18" t="s">
         <v>2245</v>
       </c>
+      <c r="D336" s="6">
+        <v>3</v>
+      </c>
       <c r="E336" s="6" t="s">
         <v>1004</v>
       </c>
@@ -12039,6 +12658,9 @@
       <c r="C337" s="18" t="s">
         <v>2245</v>
       </c>
+      <c r="D337" s="6">
+        <v>4</v>
+      </c>
       <c r="E337" s="6" t="s">
         <v>1007</v>
       </c>
@@ -12053,6 +12675,9 @@
       <c r="C338" s="18" t="s">
         <v>2245</v>
       </c>
+      <c r="D338" s="6">
+        <v>2</v>
+      </c>
       <c r="E338" s="6" t="s">
         <v>1010</v>
       </c>
@@ -12067,6 +12692,9 @@
       <c r="C339" s="18" t="s">
         <v>2244</v>
       </c>
+      <c r="D339" s="6">
+        <v>1</v>
+      </c>
       <c r="E339" s="6" t="s">
         <v>1013</v>
       </c>
@@ -12081,6 +12709,9 @@
       <c r="C340" s="18" t="s">
         <v>2244</v>
       </c>
+      <c r="D340" s="6">
+        <v>3</v>
+      </c>
       <c r="E340" s="6" t="s">
         <v>1016</v>
       </c>
@@ -12095,6 +12726,9 @@
       <c r="C341" s="18" t="s">
         <v>2244</v>
       </c>
+      <c r="D341" s="6">
+        <v>5</v>
+      </c>
       <c r="E341" s="6" t="s">
         <v>1019</v>
       </c>
@@ -12109,6 +12743,9 @@
       <c r="C342" s="18" t="s">
         <v>2244</v>
       </c>
+      <c r="D342" s="6">
+        <v>4</v>
+      </c>
       <c r="E342" s="6" t="s">
         <v>1022</v>
       </c>
@@ -12123,6 +12760,9 @@
       <c r="C343" s="18" t="s">
         <v>2243</v>
       </c>
+      <c r="D343" s="6">
+        <v>6</v>
+      </c>
       <c r="E343" s="6" t="s">
         <v>1025</v>
       </c>
@@ -12137,6 +12777,9 @@
       <c r="C344" s="18" t="s">
         <v>2243</v>
       </c>
+      <c r="D344" s="6">
+        <v>4</v>
+      </c>
       <c r="E344" s="6" t="s">
         <v>1028</v>
       </c>
@@ -12151,6 +12794,9 @@
       <c r="C345" s="18" t="s">
         <v>2243</v>
       </c>
+      <c r="D345" s="6">
+        <v>2</v>
+      </c>
       <c r="E345" s="6" t="s">
         <v>1031</v>
       </c>
@@ -12164,6 +12810,9 @@
       </c>
       <c r="C346" s="18" t="s">
         <v>2243</v>
+      </c>
+      <c r="D346" s="6">
+        <v>3</v>
       </c>
       <c r="E346" s="6" t="s">
         <v>1034</v>
@@ -16955,8 +17604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18C389C-E644-2C41-991C-9BC738E968D5}">
   <dimension ref="A1:AJ99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>

--- a/data/other/cell_metadata.xlsx
+++ b/data/other/cell_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/trca9794_colorado_edu/Documents/projects/CD_2F/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="294" documentId="8_{E2131F20-7469-1F48-9360-22BE44EA1A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1812375A-1993-BB4E-933C-638C08D5EB75}"/>
+  <xr:revisionPtr revIDLastSave="378" documentId="8_{E2131F20-7469-1F48-9360-22BE44EA1A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1EB51ED-798B-8046-A1B8-5845F97CE4D6}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{F0790F3C-5B86-E547-B6EE-344AE8C045F9}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{F0790F3C-5B86-E547-B6EE-344AE8C045F9}"/>
   </bookViews>
   <sheets>
     <sheet name="single_cell_metadata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4445" uniqueCount="2289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4450" uniqueCount="2289">
   <si>
     <t>raman_spectrum_id</t>
   </si>
@@ -7057,7 +7057,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -7089,6 +7089,24 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7423,10 +7441,10 @@
   <dimension ref="A1:E706"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B248" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B581" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D268" sqref="D268"/>
+      <selection pane="bottomRight" activeCell="D593" sqref="D593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7434,7 +7452,7 @@
     <col min="1" max="1" width="16" style="8" customWidth="1"/>
     <col min="2" max="2" width="54.5" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="33" customWidth="1"/>
     <col min="5" max="5" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7448,7 +7466,7 @@
       <c r="C1" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="31" t="s">
         <v>2192</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -7465,7 +7483,9 @@
       <c r="C2" s="17" t="s">
         <v>2196</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="32">
+        <v>21</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
@@ -7480,7 +7500,9 @@
       <c r="C3" s="17" t="s">
         <v>2196</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="32">
+        <v>22</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
@@ -7495,7 +7517,9 @@
       <c r="C4" s="17" t="s">
         <v>2196</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="32">
+        <v>24</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
@@ -7510,7 +7534,9 @@
       <c r="C5" s="17" t="s">
         <v>2196</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="32">
+        <v>7</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
@@ -7522,8 +7548,12 @@
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="17" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D6" s="32">
+        <v>1</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
@@ -7536,7 +7566,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
@@ -7549,7 +7579,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="17"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
@@ -7561,8 +7591,12 @@
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="17" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D9" s="32">
+        <v>2</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
@@ -7577,7 +7611,9 @@
       <c r="C10" s="17" t="s">
         <v>2196</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="32">
+        <v>9</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>27</v>
       </c>
@@ -7592,7 +7628,9 @@
       <c r="C11" s="17" t="s">
         <v>2196</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="32">
+        <v>10</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>30</v>
       </c>
@@ -7607,7 +7645,9 @@
       <c r="C12" s="17" t="s">
         <v>2196</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="32">
+        <v>20</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
@@ -7622,7 +7662,7 @@
       <c r="C13" s="17" t="s">
         <v>2195</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="32">
         <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -7639,7 +7679,7 @@
       <c r="C14" s="17" t="s">
         <v>2195</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="32">
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -7656,7 +7696,7 @@
       <c r="C15" s="17" t="s">
         <v>2195</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="32">
         <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -7673,7 +7713,7 @@
       <c r="C16" s="17" t="s">
         <v>2195</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="32">
         <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -7690,7 +7730,7 @@
       <c r="C17" s="17" t="s">
         <v>2195</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="32">
         <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -7707,7 +7747,7 @@
       <c r="C18" s="17" t="s">
         <v>2195</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="32">
         <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -7724,7 +7764,7 @@
       <c r="C19" s="17" t="s">
         <v>2195</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="32">
         <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -7741,7 +7781,7 @@
       <c r="C20" s="17" t="s">
         <v>2195</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="32">
         <v>35</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -7758,7 +7798,7 @@
       <c r="C21" s="17" t="s">
         <v>2195</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="32">
         <v>43</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -7775,7 +7815,7 @@
       <c r="C22" s="17" t="s">
         <v>2199</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="32">
         <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -7792,7 +7832,7 @@
       <c r="C23" s="17" t="s">
         <v>2199</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="32">
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -7809,7 +7849,7 @@
       <c r="C24" s="17" t="s">
         <v>2199</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="32">
         <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -7826,7 +7866,7 @@
       <c r="C25" s="17" t="s">
         <v>2199</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="32">
         <v>15</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -7843,7 +7883,7 @@
       <c r="C26" s="17" t="s">
         <v>2199</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="32">
         <v>16</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -7860,7 +7900,7 @@
       <c r="C27" s="17" t="s">
         <v>2199</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="32">
         <v>22</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -7877,7 +7917,7 @@
       <c r="C28" s="17" t="s">
         <v>2199</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="32">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -7894,7 +7934,7 @@
       <c r="C29" s="17" t="s">
         <v>2199</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="32">
         <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -7911,7 +7951,7 @@
       <c r="C30" s="17" t="s">
         <v>2198</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="32">
         <v>3</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -7928,7 +7968,7 @@
       <c r="C31" s="17" t="s">
         <v>2198</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="32">
         <v>8</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -7945,7 +7985,9 @@
       <c r="C32" s="17" t="s">
         <v>2197</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="32">
+        <v>51</v>
+      </c>
       <c r="E32" s="1" t="s">
         <v>93</v>
       </c>
@@ -7960,7 +8002,9 @@
       <c r="C33" s="17" t="s">
         <v>2197</v>
       </c>
-      <c r="D33" s="1"/>
+      <c r="D33" s="32">
+        <v>48</v>
+      </c>
       <c r="E33" s="1" t="s">
         <v>96</v>
       </c>
@@ -7975,7 +8019,9 @@
       <c r="C34" s="17" t="s">
         <v>2197</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="32">
+        <v>47</v>
+      </c>
       <c r="E34" s="1" t="s">
         <v>99</v>
       </c>
@@ -7990,7 +8036,9 @@
       <c r="C35" s="17" t="s">
         <v>2197</v>
       </c>
-      <c r="D35" s="1"/>
+      <c r="D35" s="32">
+        <v>49</v>
+      </c>
       <c r="E35" s="1" t="s">
         <v>102</v>
       </c>
@@ -8005,7 +8053,9 @@
       <c r="C36" s="17" t="s">
         <v>2197</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="32">
+        <v>52</v>
+      </c>
       <c r="E36" s="1" t="s">
         <v>105</v>
       </c>
@@ -8020,7 +8070,9 @@
       <c r="C37" s="17" t="s">
         <v>2197</v>
       </c>
-      <c r="D37" s="1"/>
+      <c r="D37" s="32">
+        <v>50</v>
+      </c>
       <c r="E37" s="1" t="s">
         <v>108</v>
       </c>
@@ -8035,7 +8087,7 @@
       <c r="C38" s="17" t="s">
         <v>2198</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="32">
         <v>7</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -8052,7 +8104,7 @@
       <c r="C39" s="17" t="s">
         <v>2198</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="32">
         <v>13</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -8069,7 +8121,7 @@
       <c r="C40" s="17" t="s">
         <v>2198</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="32">
         <v>14</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -8086,7 +8138,7 @@
       <c r="C41" s="17" t="s">
         <v>2198</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="32">
         <v>15</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -8103,7 +8155,7 @@
       <c r="C42" s="17" t="s">
         <v>2198</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="32">
         <v>20</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -8120,7 +8172,7 @@
       <c r="C43" s="17" t="s">
         <v>2198</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="32">
         <v>21</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -8137,7 +8189,7 @@
       <c r="C44" s="17" t="s">
         <v>2198</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="32">
         <v>25</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -8152,7 +8204,7 @@
         <v>131</v>
       </c>
       <c r="C45" s="17"/>
-      <c r="D45" s="1"/>
+      <c r="D45" s="32"/>
       <c r="E45" s="1" t="s">
         <v>132</v>
       </c>
@@ -8165,7 +8217,7 @@
         <v>134</v>
       </c>
       <c r="C46" s="17"/>
-      <c r="D46" s="1"/>
+      <c r="D46" s="32"/>
       <c r="E46" s="1" t="s">
         <v>135</v>
       </c>
@@ -8180,7 +8232,7 @@
       <c r="C47" s="17" t="s">
         <v>2199</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="32">
         <v>29</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -8197,7 +8249,7 @@
       <c r="C48" s="17" t="s">
         <v>2199</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="32">
         <v>28</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -8212,7 +8264,7 @@
         <v>143</v>
       </c>
       <c r="C49" s="17"/>
-      <c r="D49" s="1"/>
+      <c r="D49" s="32"/>
       <c r="E49" s="1" t="s">
         <v>144</v>
       </c>
@@ -8227,7 +8279,7 @@
       <c r="C50" s="17" t="s">
         <v>2200</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="32">
         <v>18</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -8244,7 +8296,7 @@
       <c r="C51" s="17" t="s">
         <v>2200</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="32">
         <v>20</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -8307,7 +8359,7 @@
       <c r="C56" s="20" t="s">
         <v>2171</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="33">
         <v>12</v>
       </c>
       <c r="E56" s="7" t="s">
@@ -8324,7 +8376,7 @@
       <c r="C57" s="20" t="s">
         <v>2171</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="33">
         <v>10</v>
       </c>
       <c r="E57" s="7" t="s">
@@ -8341,7 +8393,7 @@
       <c r="C58" s="20" t="s">
         <v>2171</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="33">
         <v>13</v>
       </c>
       <c r="E58" s="7" t="s">
@@ -8358,7 +8410,7 @@
       <c r="C59" s="20" t="s">
         <v>2171</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="33">
         <v>14</v>
       </c>
       <c r="E59" s="7" t="s">
@@ -8375,7 +8427,7 @@
       <c r="C60" s="20" t="s">
         <v>2171</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="33">
         <v>11</v>
       </c>
       <c r="E60" s="7" t="s">
@@ -8392,7 +8444,7 @@
       <c r="C61" s="20" t="s">
         <v>2171</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="33">
         <v>9</v>
       </c>
       <c r="E61" s="7" t="s">
@@ -8409,7 +8461,7 @@
       <c r="C62" s="20" t="s">
         <v>2171</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="33">
         <v>8</v>
       </c>
       <c r="E62" s="7" t="s">
@@ -8426,7 +8478,7 @@
       <c r="C63" s="20" t="s">
         <v>2171</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="33">
         <v>7</v>
       </c>
       <c r="E63" s="7" t="s">
@@ -8443,7 +8495,7 @@
       <c r="C64" s="20" t="s">
         <v>2171</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="33">
         <v>6</v>
       </c>
       <c r="E64" s="7" t="s">
@@ -8460,7 +8512,7 @@
       <c r="C65" s="20" t="s">
         <v>2171</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="33">
         <v>3</v>
       </c>
       <c r="E65" s="7" t="s">
@@ -8489,7 +8541,7 @@
       <c r="C67" s="20" t="s">
         <v>2167</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="33">
         <v>6</v>
       </c>
       <c r="E67" s="7" t="s">
@@ -8506,7 +8558,7 @@
       <c r="C68" s="20" t="s">
         <v>2167</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="33">
         <v>3</v>
       </c>
       <c r="E68" s="7" t="s">
@@ -8523,7 +8575,7 @@
       <c r="C69" s="20" t="s">
         <v>2166</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="33">
         <v>2</v>
       </c>
       <c r="E69" s="7" t="s">
@@ -8540,7 +8592,7 @@
       <c r="C70" s="20" t="s">
         <v>2166</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="33">
         <v>3</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -8557,7 +8609,7 @@
       <c r="C71" s="20" t="s">
         <v>2166</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="33">
         <v>4</v>
       </c>
       <c r="E71" s="7" t="s">
@@ -8574,7 +8626,7 @@
       <c r="C72" s="20" t="s">
         <v>2166</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="33">
         <v>5</v>
       </c>
       <c r="E72" s="7" t="s">
@@ -8591,7 +8643,7 @@
       <c r="C73" s="20" t="s">
         <v>2166</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="33">
         <v>1</v>
       </c>
       <c r="E73" s="7" t="s">
@@ -8608,6 +8660,9 @@
       <c r="C74" s="20" t="s">
         <v>2165</v>
       </c>
+      <c r="D74" s="33">
+        <v>9</v>
+      </c>
       <c r="E74" s="7" t="s">
         <v>219</v>
       </c>
@@ -8622,6 +8677,9 @@
       <c r="C75" s="20" t="s">
         <v>2165</v>
       </c>
+      <c r="D75" s="33">
+        <v>7</v>
+      </c>
       <c r="E75" s="7" t="s">
         <v>222</v>
       </c>
@@ -8636,6 +8694,9 @@
       <c r="C76" s="20" t="s">
         <v>2165</v>
       </c>
+      <c r="D76" s="33">
+        <v>6</v>
+      </c>
       <c r="E76" s="7" t="s">
         <v>225</v>
       </c>
@@ -8650,6 +8711,9 @@
       <c r="C77" s="20" t="s">
         <v>2165</v>
       </c>
+      <c r="D77" s="33">
+        <v>1</v>
+      </c>
       <c r="E77" s="7" t="s">
         <v>228</v>
       </c>
@@ -8664,6 +8728,9 @@
       <c r="C78" s="20" t="s">
         <v>2165</v>
       </c>
+      <c r="D78" s="33">
+        <v>8</v>
+      </c>
       <c r="E78" s="7" t="s">
         <v>231</v>
       </c>
@@ -8678,6 +8745,9 @@
       <c r="C79" s="20" t="s">
         <v>2165</v>
       </c>
+      <c r="D79" s="33">
+        <v>10</v>
+      </c>
       <c r="E79" s="7" t="s">
         <v>234</v>
       </c>
@@ -8692,6 +8762,9 @@
       <c r="C80" s="20" t="s">
         <v>2165</v>
       </c>
+      <c r="D80" s="33">
+        <v>11</v>
+      </c>
       <c r="E80" s="7" t="s">
         <v>237</v>
       </c>
@@ -8718,7 +8791,7 @@
       <c r="C82" s="20" t="s">
         <v>2167</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="33">
         <v>1</v>
       </c>
       <c r="E82" s="7" t="s">
@@ -8735,7 +8808,7 @@
       <c r="C83" s="20" t="s">
         <v>2167</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="33">
         <v>2</v>
       </c>
       <c r="E83" s="7" t="s">
@@ -8752,7 +8825,7 @@
       <c r="C84" s="20" t="s">
         <v>2167</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="33">
         <v>5</v>
       </c>
       <c r="E84" s="7" t="s">
@@ -8769,7 +8842,7 @@
       <c r="C85" s="20" t="s">
         <v>2167</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="33">
         <v>10</v>
       </c>
       <c r="E85" s="7" t="s">
@@ -8786,7 +8859,7 @@
       <c r="C86" s="20" t="s">
         <v>2167</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="33">
         <v>9</v>
       </c>
       <c r="E86" s="7" t="s">
@@ -8803,7 +8876,7 @@
       <c r="C87" s="20" t="s">
         <v>2174</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="33">
         <v>35</v>
       </c>
       <c r="E87" s="7" t="s">
@@ -8820,7 +8893,7 @@
       <c r="C88" s="20" t="s">
         <v>2174</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="33">
         <v>32</v>
       </c>
       <c r="E88" s="7" t="s">
@@ -8837,7 +8910,7 @@
       <c r="C89" s="20" t="s">
         <v>2174</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="33">
         <v>24</v>
       </c>
       <c r="E89" s="7" t="s">
@@ -8854,7 +8927,7 @@
       <c r="C90" s="20" t="s">
         <v>2174</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="33">
         <v>20</v>
       </c>
       <c r="E90" s="7" t="s">
@@ -8871,7 +8944,7 @@
       <c r="C91" s="20" t="s">
         <v>2174</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="33">
         <v>18</v>
       </c>
       <c r="E91" s="7" t="s">
@@ -8888,7 +8961,7 @@
       <c r="C92" s="20" t="s">
         <v>2174</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="33">
         <v>10</v>
       </c>
       <c r="E92" s="7" t="s">
@@ -8905,7 +8978,7 @@
       <c r="C93" s="20" t="s">
         <v>2174</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="33">
         <v>9</v>
       </c>
       <c r="E93" s="7" t="s">
@@ -8922,7 +8995,7 @@
       <c r="C94" s="20" t="s">
         <v>2174</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="33">
         <v>5</v>
       </c>
       <c r="E94" s="7" t="s">
@@ -8939,7 +9012,7 @@
       <c r="C95" s="20" t="s">
         <v>2174</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="33">
         <v>2</v>
       </c>
       <c r="E95" s="7" t="s">
@@ -8956,7 +9029,7 @@
       <c r="C96" s="20" t="s">
         <v>2174</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="33">
         <v>6</v>
       </c>
       <c r="E96" s="7" t="s">
@@ -8973,7 +9046,7 @@
       <c r="C97" s="20" t="s">
         <v>2174</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="33">
         <v>4</v>
       </c>
       <c r="E97" s="7" t="s">
@@ -8990,7 +9063,7 @@
       <c r="C98" s="20" t="s">
         <v>2174</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="33">
         <v>3</v>
       </c>
       <c r="E98" s="7" t="s">
@@ -9007,7 +9080,7 @@
       <c r="C99" s="20" t="s">
         <v>2174</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="33">
         <v>4</v>
       </c>
       <c r="E99" s="7" t="s">
@@ -9047,7 +9120,9 @@
       <c r="C102" s="17" t="s">
         <v>2271</v>
       </c>
-      <c r="D102" s="1"/>
+      <c r="D102" s="32">
+        <v>11</v>
+      </c>
       <c r="E102" s="1" t="s">
         <v>303</v>
       </c>
@@ -9062,7 +9137,9 @@
       <c r="C103" s="17" t="s">
         <v>2271</v>
       </c>
-      <c r="D103" s="1"/>
+      <c r="D103" s="32">
+        <v>13</v>
+      </c>
       <c r="E103" s="1" t="s">
         <v>306</v>
       </c>
@@ -9077,7 +9154,9 @@
       <c r="C104" s="17" t="s">
         <v>2271</v>
       </c>
-      <c r="D104" s="1"/>
+      <c r="D104" s="32">
+        <v>8</v>
+      </c>
       <c r="E104" s="1" t="s">
         <v>309</v>
       </c>
@@ -9092,7 +9171,9 @@
       <c r="C105" s="17" t="s">
         <v>2271</v>
       </c>
-      <c r="D105" s="1"/>
+      <c r="D105" s="32">
+        <v>7</v>
+      </c>
       <c r="E105" s="1" t="s">
         <v>312</v>
       </c>
@@ -9107,7 +9188,9 @@
       <c r="C106" s="17" t="s">
         <v>2271</v>
       </c>
-      <c r="D106" s="1"/>
+      <c r="D106" s="32">
+        <v>6</v>
+      </c>
       <c r="E106" s="1" t="s">
         <v>315</v>
       </c>
@@ -9122,7 +9205,9 @@
       <c r="C107" s="17" t="s">
         <v>2271</v>
       </c>
-      <c r="D107" s="1"/>
+      <c r="D107" s="32">
+        <v>4</v>
+      </c>
       <c r="E107" s="1" t="s">
         <v>318</v>
       </c>
@@ -9137,7 +9222,9 @@
       <c r="C108" s="17" t="s">
         <v>2271</v>
       </c>
-      <c r="D108" s="1"/>
+      <c r="D108" s="32">
+        <v>2</v>
+      </c>
       <c r="E108" s="1" t="s">
         <v>321</v>
       </c>
@@ -9152,7 +9239,7 @@
       <c r="C109" s="17" t="s">
         <v>2272</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109" s="32">
         <v>7</v>
       </c>
       <c r="E109" s="1" t="s">
@@ -9169,7 +9256,7 @@
       <c r="C110" s="17" t="s">
         <v>2272</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110" s="32">
         <v>8</v>
       </c>
       <c r="E110" s="1" t="s">
@@ -9186,7 +9273,7 @@
       <c r="C111" s="17" t="s">
         <v>2284</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111" s="32">
         <v>19</v>
       </c>
       <c r="E111" s="1" t="s">
@@ -9203,7 +9290,7 @@
       <c r="C112" s="17" t="s">
         <v>2284</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112" s="32">
         <v>18</v>
       </c>
       <c r="E112" s="1" t="s">
@@ -9220,7 +9307,7 @@
       <c r="C113" s="17" t="s">
         <v>2285</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113" s="32">
         <v>1</v>
       </c>
       <c r="E113" s="1" t="s">
@@ -9237,7 +9324,7 @@
       <c r="C114" s="17" t="s">
         <v>2272</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D114" s="32">
         <v>14</v>
       </c>
       <c r="E114" s="1" t="s">
@@ -9254,7 +9341,7 @@
       <c r="C115" s="17" t="s">
         <v>2285</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115" s="32">
         <v>6</v>
       </c>
       <c r="E115" s="1" t="s">
@@ -9271,7 +9358,7 @@
       <c r="C116" s="16" t="s">
         <v>2288</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116" s="32">
         <v>1</v>
       </c>
       <c r="E116" s="1" t="s">
@@ -9286,7 +9373,7 @@
         <v>347</v>
       </c>
       <c r="C117" s="17"/>
-      <c r="D117" s="1"/>
+      <c r="D117" s="32"/>
       <c r="E117" s="1" t="s">
         <v>348</v>
       </c>
@@ -9299,7 +9386,7 @@
         <v>350</v>
       </c>
       <c r="C118" s="17"/>
-      <c r="D118" s="1"/>
+      <c r="D118" s="32"/>
       <c r="E118" s="1" t="s">
         <v>351</v>
       </c>
@@ -9312,7 +9399,7 @@
         <v>353</v>
       </c>
       <c r="C119" s="17"/>
-      <c r="D119" s="1"/>
+      <c r="D119" s="32"/>
       <c r="E119" s="1" t="s">
         <v>354</v>
       </c>
@@ -9325,7 +9412,7 @@
         <v>356</v>
       </c>
       <c r="C120" s="17"/>
-      <c r="D120" s="1"/>
+      <c r="D120" s="32"/>
       <c r="E120" s="1" t="s">
         <v>357</v>
       </c>
@@ -9338,7 +9425,7 @@
         <v>359</v>
       </c>
       <c r="C121" s="17"/>
-      <c r="D121" s="1"/>
+      <c r="D121" s="32"/>
       <c r="E121" s="1" t="s">
         <v>360</v>
       </c>
@@ -9351,7 +9438,7 @@
         <v>362</v>
       </c>
       <c r="C122" s="17"/>
-      <c r="D122" s="1"/>
+      <c r="D122" s="32"/>
       <c r="E122" s="1" t="s">
         <v>363</v>
       </c>
@@ -9364,7 +9451,7 @@
         <v>365</v>
       </c>
       <c r="C123" s="17"/>
-      <c r="D123" s="1"/>
+      <c r="D123" s="32"/>
       <c r="E123" s="1" t="s">
         <v>366</v>
       </c>
@@ -9377,7 +9464,7 @@
         <v>368</v>
       </c>
       <c r="C124" s="17"/>
-      <c r="D124" s="1"/>
+      <c r="D124" s="32"/>
       <c r="E124" s="1" t="s">
         <v>369</v>
       </c>
@@ -9390,7 +9477,7 @@
         <v>371</v>
       </c>
       <c r="C125" s="17"/>
-      <c r="D125" s="1"/>
+      <c r="D125" s="32"/>
       <c r="E125" s="1" t="s">
         <v>372</v>
       </c>
@@ -9403,7 +9490,7 @@
         <v>374</v>
       </c>
       <c r="C126" s="17"/>
-      <c r="D126" s="1"/>
+      <c r="D126" s="32"/>
       <c r="E126" s="1" t="s">
         <v>375</v>
       </c>
@@ -9416,7 +9503,7 @@
         <v>377</v>
       </c>
       <c r="C127" s="17"/>
-      <c r="D127" s="1"/>
+      <c r="D127" s="32"/>
       <c r="E127" s="1" t="s">
         <v>378</v>
       </c>
@@ -9429,7 +9516,7 @@
         <v>380</v>
       </c>
       <c r="C128" s="17"/>
-      <c r="D128" s="1"/>
+      <c r="D128" s="32"/>
       <c r="E128" s="1" t="s">
         <v>381</v>
       </c>
@@ -9442,7 +9529,7 @@
         <v>383</v>
       </c>
       <c r="C129" s="17"/>
-      <c r="D129" s="1"/>
+      <c r="D129" s="32"/>
       <c r="E129" s="1" t="s">
         <v>384</v>
       </c>
@@ -9455,7 +9542,7 @@
         <v>386</v>
       </c>
       <c r="C130" s="17"/>
-      <c r="D130" s="1"/>
+      <c r="D130" s="32"/>
       <c r="E130" s="1" t="s">
         <v>387</v>
       </c>
@@ -9468,7 +9555,7 @@
         <v>389</v>
       </c>
       <c r="C131" s="17"/>
-      <c r="D131" s="1"/>
+      <c r="D131" s="32"/>
       <c r="E131" s="1" t="s">
         <v>390</v>
       </c>
@@ -9481,7 +9568,7 @@
         <v>392</v>
       </c>
       <c r="C132" s="17"/>
-      <c r="D132" s="1"/>
+      <c r="D132" s="32"/>
       <c r="E132" s="1" t="s">
         <v>393</v>
       </c>
@@ -9494,7 +9581,7 @@
         <v>395</v>
       </c>
       <c r="C133" s="17"/>
-      <c r="D133" s="1"/>
+      <c r="D133" s="32"/>
       <c r="E133" s="1" t="s">
         <v>396</v>
       </c>
@@ -9509,7 +9596,7 @@
       <c r="C134" s="16" t="s">
         <v>2287</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D134" s="32">
         <v>14</v>
       </c>
       <c r="E134" s="1" t="s">
@@ -9526,7 +9613,7 @@
       <c r="C135" s="16" t="s">
         <v>2287</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D135" s="32">
         <v>12</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -9543,7 +9630,7 @@
       <c r="C136" s="16" t="s">
         <v>2287</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D136" s="32">
         <v>13</v>
       </c>
       <c r="E136" s="1" t="s">
@@ -9560,7 +9647,7 @@
       <c r="C137" s="16" t="s">
         <v>2287</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D137" s="32">
         <v>5</v>
       </c>
       <c r="E137" s="1" t="s">
@@ -9577,7 +9664,7 @@
       <c r="C138" s="16" t="s">
         <v>2287</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D138" s="32">
         <v>4</v>
       </c>
       <c r="E138" s="1" t="s">
@@ -9594,7 +9681,7 @@
       <c r="C139" s="16" t="s">
         <v>2288</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D139" s="32">
         <v>4</v>
       </c>
       <c r="E139" s="1" t="s">
@@ -9611,7 +9698,7 @@
       <c r="C140" s="16" t="s">
         <v>2287</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D140" s="32">
         <v>2</v>
       </c>
       <c r="E140" s="1" t="s">
@@ -9628,7 +9715,7 @@
       <c r="C141" s="16" t="s">
         <v>2287</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D141" s="32">
         <v>1</v>
       </c>
       <c r="E141" s="1" t="s">
@@ -9645,7 +9732,7 @@
       <c r="C142" s="16" t="s">
         <v>2286</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D142" s="32">
         <v>8</v>
       </c>
       <c r="E142" s="1" t="s">
@@ -9662,7 +9749,7 @@
       <c r="C143" s="16" t="s">
         <v>2286</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D143" s="32">
         <v>7</v>
       </c>
       <c r="E143" s="1" t="s">
@@ -9679,7 +9766,7 @@
       <c r="C144" s="17" t="s">
         <v>2286</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D144" s="32">
         <v>2</v>
       </c>
       <c r="E144" s="1" t="s">
@@ -9696,7 +9783,7 @@
       <c r="C145" s="17" t="s">
         <v>2272</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D145" s="32">
         <v>12</v>
       </c>
       <c r="E145" s="1" t="s">
@@ -9710,8 +9797,12 @@
       <c r="B146" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C146" s="17"/>
-      <c r="D146" s="1"/>
+      <c r="C146" s="17" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D146" s="32">
+        <v>20</v>
+      </c>
       <c r="E146" s="1" t="s">
         <v>435</v>
       </c>
@@ -9723,8 +9814,12 @@
       <c r="B147" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C147" s="17"/>
-      <c r="D147" s="1"/>
+      <c r="C147" s="17" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D147" s="32">
+        <v>22</v>
+      </c>
       <c r="E147" s="1" t="s">
         <v>438</v>
       </c>
@@ -9736,8 +9831,12 @@
       <c r="B148" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C148" s="17"/>
-      <c r="D148" s="1"/>
+      <c r="C148" s="17" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D148" s="32">
+        <v>23</v>
+      </c>
       <c r="E148" s="1" t="s">
         <v>441</v>
       </c>
@@ -9752,7 +9851,7 @@
       <c r="C149" s="17" t="s">
         <v>2286</v>
       </c>
-      <c r="D149" s="1">
+      <c r="D149" s="32">
         <v>1</v>
       </c>
       <c r="E149" s="1" t="s">
@@ -9767,7 +9866,7 @@
         <v>446</v>
       </c>
       <c r="C150" s="17"/>
-      <c r="D150" s="1"/>
+      <c r="D150" s="32"/>
       <c r="E150" s="1" t="s">
         <v>447</v>
       </c>
@@ -9780,7 +9879,7 @@
         <v>449</v>
       </c>
       <c r="C151" s="17"/>
-      <c r="D151" s="1"/>
+      <c r="D151" s="32"/>
       <c r="E151" s="1" t="s">
         <v>450</v>
       </c>
@@ -9806,7 +9905,7 @@
       <c r="C153" s="8" t="s">
         <v>2151</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="33">
         <v>7</v>
       </c>
       <c r="E153" t="s">
@@ -9823,7 +9922,7 @@
       <c r="C154" s="8" t="s">
         <v>2151</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="33">
         <v>3</v>
       </c>
       <c r="E154" t="s">
@@ -9840,7 +9939,7 @@
       <c r="C155" s="8" t="s">
         <v>2151</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="33">
         <v>4</v>
       </c>
       <c r="E155" t="s">
@@ -9857,7 +9956,7 @@
       <c r="C156" s="8" t="s">
         <v>2151</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="33">
         <v>6</v>
       </c>
       <c r="E156" t="s">
@@ -9874,7 +9973,7 @@
       <c r="C157" s="8" t="s">
         <v>2151</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="33">
         <v>2</v>
       </c>
       <c r="E157" t="s">
@@ -9891,7 +9990,7 @@
       <c r="C158" s="8" t="s">
         <v>2151</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="33">
         <v>5</v>
       </c>
       <c r="E158" t="s">
@@ -9908,7 +10007,7 @@
       <c r="C159" s="8" t="s">
         <v>2151</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="33">
         <v>1</v>
       </c>
       <c r="E159" t="s">
@@ -9925,7 +10024,7 @@
       <c r="C160" s="8" t="s">
         <v>2152</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="33">
         <v>2</v>
       </c>
       <c r="E160" t="s">
@@ -9942,7 +10041,7 @@
       <c r="C161" s="8" t="s">
         <v>2152</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="33">
         <v>3</v>
       </c>
       <c r="E161" t="s">
@@ -9959,7 +10058,7 @@
       <c r="C162" s="8" t="s">
         <v>2152</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="33">
         <v>1</v>
       </c>
       <c r="E162" t="s">
@@ -9976,7 +10075,7 @@
       <c r="C163" s="8" t="s">
         <v>2152</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="33">
         <v>4</v>
       </c>
       <c r="E163" t="s">
@@ -9993,7 +10092,7 @@
       <c r="C164" s="8" t="s">
         <v>2151</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="33">
         <v>13</v>
       </c>
       <c r="E164" t="s">
@@ -10010,7 +10109,7 @@
       <c r="C165" s="8" t="s">
         <v>2152</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="33">
         <v>7</v>
       </c>
       <c r="E165" t="s">
@@ -10027,7 +10126,7 @@
       <c r="C166" s="8" t="s">
         <v>2151</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="33">
         <v>18</v>
       </c>
       <c r="E166" t="s">
@@ -10044,7 +10143,7 @@
       <c r="C167" s="8" t="s">
         <v>2152</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="33">
         <v>14</v>
       </c>
       <c r="E167" t="s">
@@ -10061,7 +10160,7 @@
       <c r="C168" s="8" t="s">
         <v>2151</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="33">
         <v>15</v>
       </c>
       <c r="E168" t="s">
@@ -10078,7 +10177,7 @@
       <c r="C169" s="8" t="s">
         <v>2151</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="33">
         <v>14</v>
       </c>
       <c r="E169" t="s">
@@ -10095,7 +10194,7 @@
       <c r="C170" s="8" t="s">
         <v>2151</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="33">
         <v>9</v>
       </c>
       <c r="E170" t="s">
@@ -10112,7 +10211,7 @@
       <c r="C171" s="8" t="s">
         <v>2151</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="33">
         <v>10</v>
       </c>
       <c r="E171" t="s">
@@ -10129,7 +10228,7 @@
       <c r="C172" s="8" t="s">
         <v>2151</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="33">
         <v>8</v>
       </c>
       <c r="E172" t="s">
@@ -10146,7 +10245,7 @@
       <c r="C173" s="8" t="s">
         <v>2151</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="33">
         <v>17</v>
       </c>
       <c r="E173" t="s">
@@ -10163,7 +10262,7 @@
       <c r="C174" s="8" t="s">
         <v>2151</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="33">
         <v>19</v>
       </c>
       <c r="E174" t="s">
@@ -10180,7 +10279,7 @@
       <c r="C175" s="8" t="s">
         <v>2151</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="33">
         <v>33</v>
       </c>
       <c r="E175" t="s">
@@ -10197,7 +10296,7 @@
       <c r="C176" s="8" t="s">
         <v>2151</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="33">
         <v>32</v>
       </c>
       <c r="E176" t="s">
@@ -10214,7 +10313,7 @@
       <c r="C177" s="8" t="s">
         <v>2156</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="33">
         <v>9</v>
       </c>
       <c r="E177" t="s">
@@ -10231,7 +10330,7 @@
       <c r="C178" s="8" t="s">
         <v>2156</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="33">
         <v>10</v>
       </c>
       <c r="E178" t="s">
@@ -10248,7 +10347,7 @@
       <c r="C179" s="8" t="s">
         <v>2156</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="33">
         <v>12</v>
       </c>
       <c r="E179" t="s">
@@ -10265,7 +10364,7 @@
       <c r="C180" s="8" t="s">
         <v>2156</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="33">
         <v>11</v>
       </c>
       <c r="E180" t="s">
@@ -10282,7 +10381,7 @@
       <c r="C181" s="8" t="s">
         <v>2156</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="33">
         <v>15</v>
       </c>
       <c r="E181" t="s">
@@ -10299,7 +10398,7 @@
       <c r="C182" s="8" t="s">
         <v>2156</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="33">
         <v>13</v>
       </c>
       <c r="E182" t="s">
@@ -10316,7 +10415,7 @@
       <c r="C183" s="8" t="s">
         <v>2156</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="33">
         <v>20</v>
       </c>
       <c r="E183" t="s">
@@ -10333,7 +10432,7 @@
       <c r="C184" s="8" t="s">
         <v>2156</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="33">
         <v>18</v>
       </c>
       <c r="E184" s="1" t="s">
@@ -10350,7 +10449,7 @@
       <c r="C185" s="8" t="s">
         <v>2151</v>
       </c>
-      <c r="D185">
+      <c r="D185" s="33">
         <v>36</v>
       </c>
       <c r="E185" t="s">
@@ -10367,7 +10466,7 @@
       <c r="C186" s="8" t="s">
         <v>2152</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="33">
         <v>21</v>
       </c>
       <c r="E186" t="s">
@@ -10384,7 +10483,7 @@
       <c r="C187" s="8" t="s">
         <v>2152</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="33">
         <v>19</v>
       </c>
       <c r="E187" t="s">
@@ -10401,7 +10500,7 @@
       <c r="C188" s="8" t="s">
         <v>2152</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="33">
         <v>20</v>
       </c>
       <c r="E188" t="s">
@@ -10418,7 +10517,7 @@
       <c r="C189" s="8" t="s">
         <v>2152</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="33">
         <v>24</v>
       </c>
       <c r="E189" t="s">
@@ -10435,7 +10534,7 @@
       <c r="C190" s="8" t="s">
         <v>2153</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="33">
         <v>11</v>
       </c>
       <c r="E190" t="s">
@@ -10452,7 +10551,7 @@
       <c r="C191" s="8" t="s">
         <v>2155</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="33">
         <v>5</v>
       </c>
       <c r="E191" t="s">
@@ -10469,7 +10568,7 @@
       <c r="C192" s="8" t="s">
         <v>2153</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="33">
         <v>12</v>
       </c>
       <c r="E192" t="s">
@@ -10486,7 +10585,7 @@
       <c r="C193" s="8" t="s">
         <v>2153</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="33">
         <v>9</v>
       </c>
       <c r="E193" t="s">
@@ -10503,7 +10602,7 @@
       <c r="C194" s="8" t="s">
         <v>2153</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="33">
         <v>18</v>
       </c>
       <c r="E194" t="s">
@@ -10520,7 +10619,7 @@
       <c r="C195" s="8" t="s">
         <v>2154</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="33">
         <v>5</v>
       </c>
       <c r="E195" t="s">
@@ -10537,7 +10636,7 @@
       <c r="C196" s="8" t="s">
         <v>2154</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="33">
         <v>6</v>
       </c>
       <c r="E196" t="s">
@@ -10554,7 +10653,7 @@
       <c r="C197" s="8" t="s">
         <v>2154</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="33">
         <v>8</v>
       </c>
       <c r="E197" t="s">
@@ -10571,7 +10670,7 @@
       <c r="C198" s="8" t="s">
         <v>2154</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="33">
         <v>7</v>
       </c>
       <c r="E198" t="s">
@@ -10588,7 +10687,7 @@
       <c r="C199" s="8" t="s">
         <v>2155</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="33">
         <v>25</v>
       </c>
       <c r="E199" t="s">
@@ -10605,7 +10704,7 @@
       <c r="C200" s="8" t="s">
         <v>2155</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="33">
         <v>22</v>
       </c>
       <c r="E200" t="s">
@@ -10622,7 +10721,7 @@
       <c r="C201" s="8" t="s">
         <v>2155</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="33">
         <v>29</v>
       </c>
       <c r="E201" t="s">
@@ -10637,6 +10736,7 @@
         <v>602</v>
       </c>
       <c r="C202" s="18"/>
+      <c r="D202" s="34"/>
       <c r="E202" s="6" t="s">
         <v>603</v>
       </c>
@@ -10649,6 +10749,7 @@
         <v>605</v>
       </c>
       <c r="C203" s="18"/>
+      <c r="D203" s="34"/>
       <c r="E203" s="6" t="s">
         <v>606</v>
       </c>
@@ -10661,6 +10762,7 @@
         <v>608</v>
       </c>
       <c r="C204" s="18"/>
+      <c r="D204" s="34"/>
       <c r="E204" s="6" t="s">
         <v>609</v>
       </c>
@@ -10673,6 +10775,7 @@
         <v>611</v>
       </c>
       <c r="C205" s="18"/>
+      <c r="D205" s="34"/>
       <c r="E205" s="6" t="s">
         <v>612</v>
       </c>
@@ -10685,6 +10788,7 @@
         <v>614</v>
       </c>
       <c r="C206" s="18"/>
+      <c r="D206" s="34"/>
       <c r="E206" s="6" t="s">
         <v>615</v>
       </c>
@@ -10697,6 +10801,7 @@
         <v>617</v>
       </c>
       <c r="C207" s="18"/>
+      <c r="D207" s="34"/>
       <c r="E207" s="6" t="s">
         <v>618</v>
       </c>
@@ -10709,6 +10814,7 @@
         <v>620</v>
       </c>
       <c r="C208" s="18"/>
+      <c r="D208" s="34"/>
       <c r="E208" s="6" t="s">
         <v>621</v>
       </c>
@@ -10721,6 +10827,7 @@
         <v>623</v>
       </c>
       <c r="C209" s="18"/>
+      <c r="D209" s="34"/>
       <c r="E209" s="6" t="s">
         <v>624</v>
       </c>
@@ -10733,6 +10840,7 @@
         <v>626</v>
       </c>
       <c r="C210" s="18"/>
+      <c r="D210" s="34"/>
       <c r="E210" s="6" t="s">
         <v>627</v>
       </c>
@@ -10745,6 +10853,7 @@
         <v>629</v>
       </c>
       <c r="C211" s="18"/>
+      <c r="D211" s="34"/>
       <c r="E211" s="6" t="s">
         <v>630</v>
       </c>
@@ -10757,6 +10866,7 @@
         <v>632</v>
       </c>
       <c r="C212" s="18"/>
+      <c r="D212" s="34"/>
       <c r="E212" s="6" t="s">
         <v>633</v>
       </c>
@@ -10769,6 +10879,7 @@
         <v>635</v>
       </c>
       <c r="C213" s="18"/>
+      <c r="D213" s="34"/>
       <c r="E213" s="6" t="s">
         <v>636</v>
       </c>
@@ -10781,6 +10892,7 @@
         <v>638</v>
       </c>
       <c r="C214" s="18"/>
+      <c r="D214" s="34"/>
       <c r="E214" s="6" t="s">
         <v>639</v>
       </c>
@@ -10793,6 +10905,7 @@
         <v>641</v>
       </c>
       <c r="C215" s="18"/>
+      <c r="D215" s="34"/>
       <c r="E215" s="6" t="s">
         <v>642</v>
       </c>
@@ -10805,6 +10918,7 @@
         <v>644</v>
       </c>
       <c r="C216" s="18"/>
+      <c r="D216" s="34"/>
       <c r="E216" s="6" t="s">
         <v>645</v>
       </c>
@@ -10817,6 +10931,7 @@
         <v>647</v>
       </c>
       <c r="C217" s="18"/>
+      <c r="D217" s="34"/>
       <c r="E217" s="6" t="s">
         <v>648</v>
       </c>
@@ -10829,6 +10944,7 @@
         <v>650</v>
       </c>
       <c r="C218" s="18"/>
+      <c r="D218" s="34"/>
       <c r="E218" s="6" t="s">
         <v>651</v>
       </c>
@@ -10841,6 +10957,7 @@
         <v>653</v>
       </c>
       <c r="C219" s="18"/>
+      <c r="D219" s="34"/>
       <c r="E219" s="6" t="s">
         <v>654</v>
       </c>
@@ -10853,6 +10970,7 @@
         <v>656</v>
       </c>
       <c r="C220" s="18"/>
+      <c r="D220" s="34"/>
       <c r="E220" s="6" t="s">
         <v>657</v>
       </c>
@@ -10865,6 +10983,7 @@
         <v>659</v>
       </c>
       <c r="C221" s="18"/>
+      <c r="D221" s="34"/>
       <c r="E221" s="6" t="s">
         <v>660</v>
       </c>
@@ -10877,6 +10996,7 @@
         <v>662</v>
       </c>
       <c r="C222" s="18"/>
+      <c r="D222" s="34"/>
       <c r="E222" s="6" t="s">
         <v>663</v>
       </c>
@@ -10889,6 +11009,7 @@
         <v>665</v>
       </c>
       <c r="C223" s="18"/>
+      <c r="D223" s="34"/>
       <c r="E223" s="6" t="s">
         <v>666</v>
       </c>
@@ -10901,6 +11022,7 @@
         <v>668</v>
       </c>
       <c r="C224" s="18"/>
+      <c r="D224" s="34"/>
       <c r="E224" s="6" t="s">
         <v>669</v>
       </c>
@@ -10913,6 +11035,7 @@
         <v>671</v>
       </c>
       <c r="C225" s="18"/>
+      <c r="D225" s="34"/>
       <c r="E225" s="6" t="s">
         <v>672</v>
       </c>
@@ -10925,6 +11048,7 @@
         <v>674</v>
       </c>
       <c r="C226" s="18"/>
+      <c r="D226" s="34"/>
       <c r="E226" s="6" t="s">
         <v>675</v>
       </c>
@@ -10937,6 +11061,7 @@
         <v>677</v>
       </c>
       <c r="C227" s="18"/>
+      <c r="D227" s="34"/>
       <c r="E227" s="6" t="s">
         <v>678</v>
       </c>
@@ -10949,6 +11074,7 @@
         <v>680</v>
       </c>
       <c r="C228" s="18"/>
+      <c r="D228" s="34"/>
       <c r="E228" s="6" t="s">
         <v>681</v>
       </c>
@@ -10961,6 +11087,7 @@
         <v>683</v>
       </c>
       <c r="C229" s="18"/>
+      <c r="D229" s="34"/>
       <c r="E229" s="6" t="s">
         <v>684</v>
       </c>
@@ -10975,7 +11102,7 @@
       <c r="C230" s="18" t="s">
         <v>2266</v>
       </c>
-      <c r="D230" s="6">
+      <c r="D230" s="34">
         <v>4</v>
       </c>
       <c r="E230" s="6" t="s">
@@ -10992,7 +11119,7 @@
       <c r="C231" s="18" t="s">
         <v>2266</v>
       </c>
-      <c r="D231" s="6">
+      <c r="D231" s="34">
         <v>1</v>
       </c>
       <c r="E231" s="6" t="s">
@@ -11009,7 +11136,7 @@
       <c r="C232" s="18" t="s">
         <v>2266</v>
       </c>
-      <c r="D232" s="6">
+      <c r="D232" s="34">
         <v>2</v>
       </c>
       <c r="E232" s="6" t="s">
@@ -11026,7 +11153,7 @@
       <c r="C233" s="18" t="s">
         <v>2266</v>
       </c>
-      <c r="D233" s="6">
+      <c r="D233" s="34">
         <v>3</v>
       </c>
       <c r="E233" s="6" t="s">
@@ -11043,7 +11170,7 @@
       <c r="C234" s="18" t="s">
         <v>2266</v>
       </c>
-      <c r="D234" s="6">
+      <c r="D234" s="34">
         <v>5</v>
       </c>
       <c r="E234" s="6" t="s">
@@ -11058,6 +11185,7 @@
         <v>701</v>
       </c>
       <c r="C235" s="18"/>
+      <c r="D235" s="34"/>
       <c r="E235" s="6" t="s">
         <v>702</v>
       </c>
@@ -11070,6 +11198,7 @@
         <v>704</v>
       </c>
       <c r="C236" s="18"/>
+      <c r="D236" s="34"/>
       <c r="E236" s="6" t="s">
         <v>705</v>
       </c>
@@ -11082,6 +11211,7 @@
         <v>707</v>
       </c>
       <c r="C237" s="18"/>
+      <c r="D237" s="34"/>
       <c r="E237" s="6" t="s">
         <v>708</v>
       </c>
@@ -11094,6 +11224,7 @@
         <v>710</v>
       </c>
       <c r="C238" s="18"/>
+      <c r="D238" s="34"/>
       <c r="E238" s="6" t="s">
         <v>711</v>
       </c>
@@ -11106,6 +11237,7 @@
         <v>713</v>
       </c>
       <c r="C239" s="18"/>
+      <c r="D239" s="34"/>
       <c r="E239" s="6" t="s">
         <v>714</v>
       </c>
@@ -11118,6 +11250,7 @@
         <v>716</v>
       </c>
       <c r="C240" s="18"/>
+      <c r="D240" s="34"/>
       <c r="E240" s="6" t="s">
         <v>717</v>
       </c>
@@ -11132,7 +11265,7 @@
       <c r="C241" s="18" t="s">
         <v>2265</v>
       </c>
-      <c r="D241" s="6">
+      <c r="D241" s="34">
         <v>4</v>
       </c>
       <c r="E241" s="6" t="s">
@@ -11149,7 +11282,7 @@
       <c r="C242" s="18" t="s">
         <v>2265</v>
       </c>
-      <c r="D242" s="6">
+      <c r="D242" s="34">
         <v>3</v>
       </c>
       <c r="E242" s="6" t="s">
@@ -11166,7 +11299,7 @@
       <c r="C243" s="18" t="s">
         <v>2265</v>
       </c>
-      <c r="D243" s="6">
+      <c r="D243" s="34">
         <v>2</v>
       </c>
       <c r="E243" s="6" t="s">
@@ -11183,7 +11316,7 @@
       <c r="C244" s="18" t="s">
         <v>2265</v>
       </c>
-      <c r="D244" s="6">
+      <c r="D244" s="34">
         <v>1</v>
       </c>
       <c r="E244" s="6" t="s">
@@ -11200,7 +11333,7 @@
       <c r="C245" s="18" t="s">
         <v>2266</v>
       </c>
-      <c r="D245" s="6">
+      <c r="D245" s="34">
         <v>6</v>
       </c>
       <c r="E245" s="6" t="s">
@@ -11217,7 +11350,7 @@
       <c r="C246" s="18" t="s">
         <v>2264</v>
       </c>
-      <c r="D246" s="6">
+      <c r="D246" s="34">
         <v>2</v>
       </c>
       <c r="E246" s="6" t="s">
@@ -11234,7 +11367,7 @@
       <c r="C247" s="18" t="s">
         <v>2264</v>
       </c>
-      <c r="D247" s="6">
+      <c r="D247" s="34">
         <v>1</v>
       </c>
       <c r="E247" s="6" t="s">
@@ -11251,7 +11384,7 @@
       <c r="C248" s="18" t="s">
         <v>2265</v>
       </c>
-      <c r="D248" s="6">
+      <c r="D248" s="34">
         <v>7</v>
       </c>
       <c r="E248" s="6" t="s">
@@ -11266,6 +11399,7 @@
         <v>743</v>
       </c>
       <c r="C249" s="18"/>
+      <c r="D249" s="34"/>
       <c r="E249" s="6" t="s">
         <v>744</v>
       </c>
@@ -11280,7 +11414,7 @@
       <c r="C250" s="18" t="s">
         <v>2264</v>
       </c>
-      <c r="D250" s="6">
+      <c r="D250" s="34">
         <v>3</v>
       </c>
       <c r="E250" s="6" t="s">
@@ -11295,6 +11429,7 @@
         <v>749</v>
       </c>
       <c r="C251" s="18"/>
+      <c r="D251" s="34"/>
       <c r="E251" s="6" t="s">
         <v>750</v>
       </c>
@@ -11393,7 +11528,7 @@
       <c r="C258" s="23" t="s">
         <v>2162</v>
       </c>
-      <c r="D258">
+      <c r="D258" s="33">
         <v>3</v>
       </c>
       <c r="E258" t="s">
@@ -11410,7 +11545,7 @@
       <c r="C259" s="23" t="s">
         <v>2162</v>
       </c>
-      <c r="D259">
+      <c r="D259" s="33">
         <v>2</v>
       </c>
       <c r="E259" t="s">
@@ -11427,7 +11562,7 @@
       <c r="C260" s="23" t="s">
         <v>2162</v>
       </c>
-      <c r="D260">
+      <c r="D260" s="33">
         <v>4</v>
       </c>
       <c r="E260" t="s">
@@ -11444,7 +11579,7 @@
       <c r="C261" s="23" t="s">
         <v>2162</v>
       </c>
-      <c r="D261">
+      <c r="D261" s="33">
         <v>8</v>
       </c>
       <c r="E261" t="s">
@@ -11461,7 +11596,7 @@
       <c r="C262" s="23" t="s">
         <v>2162</v>
       </c>
-      <c r="D262">
+      <c r="D262" s="33">
         <v>1</v>
       </c>
       <c r="E262" t="s">
@@ -11478,7 +11613,7 @@
       <c r="C263" s="23" t="s">
         <v>2162</v>
       </c>
-      <c r="D263">
+      <c r="D263" s="33">
         <v>9</v>
       </c>
       <c r="E263" t="s">
@@ -11495,7 +11630,7 @@
       <c r="C264" s="24" t="s">
         <v>2143</v>
       </c>
-      <c r="D264">
+      <c r="D264" s="33">
         <v>10</v>
       </c>
       <c r="E264" t="s">
@@ -11512,7 +11647,7 @@
       <c r="C265" s="24" t="s">
         <v>2143</v>
       </c>
-      <c r="D265">
+      <c r="D265" s="33">
         <v>4</v>
       </c>
       <c r="E265" t="s">
@@ -11529,7 +11664,7 @@
       <c r="C266" s="25" t="s">
         <v>2147</v>
       </c>
-      <c r="D266">
+      <c r="D266" s="33">
         <v>15</v>
       </c>
       <c r="E266" t="s">
@@ -11546,7 +11681,7 @@
       <c r="C267" s="25" t="s">
         <v>2147</v>
       </c>
-      <c r="D267">
+      <c r="D267" s="33">
         <v>2</v>
       </c>
       <c r="E267" t="s">
@@ -11563,7 +11698,7 @@
       <c r="C268" s="25" t="s">
         <v>2147</v>
       </c>
-      <c r="D268">
+      <c r="D268" s="33">
         <v>7</v>
       </c>
       <c r="E268" t="s">
@@ -11580,7 +11715,7 @@
       <c r="C269" s="25" t="s">
         <v>2147</v>
       </c>
-      <c r="D269">
+      <c r="D269" s="33">
         <v>12</v>
       </c>
       <c r="E269" t="s">
@@ -11597,7 +11732,7 @@
       <c r="C270" s="25" t="s">
         <v>2147</v>
       </c>
-      <c r="D270">
+      <c r="D270" s="33">
         <v>13</v>
       </c>
       <c r="E270" t="s">
@@ -11614,7 +11749,7 @@
       <c r="C271" s="25" t="s">
         <v>2147</v>
       </c>
-      <c r="D271">
+      <c r="D271" s="33">
         <v>14</v>
       </c>
       <c r="E271" t="s">
@@ -11631,7 +11766,7 @@
       <c r="C272" s="26" t="s">
         <v>2144</v>
       </c>
-      <c r="D272">
+      <c r="D272" s="33">
         <v>1</v>
       </c>
       <c r="E272" t="s">
@@ -11648,7 +11783,7 @@
       <c r="C273" s="24" t="s">
         <v>2143</v>
       </c>
-      <c r="D273">
+      <c r="D273" s="33">
         <v>14</v>
       </c>
       <c r="E273" t="s">
@@ -11665,7 +11800,7 @@
       <c r="C274" s="24" t="s">
         <v>2143</v>
       </c>
-      <c r="D274">
+      <c r="D274" s="33">
         <v>13</v>
       </c>
       <c r="E274" t="s">
@@ -11682,7 +11817,7 @@
       <c r="C275" s="26" t="s">
         <v>2144</v>
       </c>
-      <c r="D275">
+      <c r="D275" s="33">
         <v>3</v>
       </c>
       <c r="E275" t="s">
@@ -11699,7 +11834,7 @@
       <c r="C276" s="26" t="s">
         <v>2144</v>
       </c>
-      <c r="D276">
+      <c r="D276" s="33">
         <v>2</v>
       </c>
       <c r="E276" t="s">
@@ -11716,7 +11851,7 @@
       <c r="C277" s="26" t="s">
         <v>2144</v>
       </c>
-      <c r="D277">
+      <c r="D277" s="33">
         <v>4</v>
       </c>
       <c r="E277" t="s">
@@ -11733,7 +11868,7 @@
       <c r="C278" s="26" t="s">
         <v>2144</v>
       </c>
-      <c r="D278">
+      <c r="D278" s="33">
         <v>6</v>
       </c>
       <c r="E278" t="s">
@@ -11750,7 +11885,7 @@
       <c r="C279" s="27" t="s">
         <v>2145</v>
       </c>
-      <c r="D279">
+      <c r="D279" s="33">
         <v>1</v>
       </c>
       <c r="E279" t="s">
@@ -11767,7 +11902,7 @@
       <c r="C280" s="27" t="s">
         <v>2145</v>
       </c>
-      <c r="D280">
+      <c r="D280" s="33">
         <v>2</v>
       </c>
       <c r="E280" t="s">
@@ -11784,7 +11919,7 @@
       <c r="C281" s="27" t="s">
         <v>2145</v>
       </c>
-      <c r="D281">
+      <c r="D281" s="33">
         <v>7</v>
       </c>
       <c r="E281" t="s">
@@ -11801,7 +11936,7 @@
       <c r="C282" s="27" t="s">
         <v>2145</v>
       </c>
-      <c r="D282">
+      <c r="D282" s="33">
         <v>10</v>
       </c>
       <c r="E282" t="s">
@@ -11818,7 +11953,7 @@
       <c r="C283" s="27" t="s">
         <v>2145</v>
       </c>
-      <c r="D283">
+      <c r="D283" s="33">
         <v>13</v>
       </c>
       <c r="E283" t="s">
@@ -11835,7 +11970,7 @@
       <c r="C284" s="27" t="s">
         <v>2145</v>
       </c>
-      <c r="D284">
+      <c r="D284" s="33">
         <v>14</v>
       </c>
       <c r="E284" t="s">
@@ -11852,7 +11987,7 @@
       <c r="C285" s="28" t="s">
         <v>2146</v>
       </c>
-      <c r="D285">
+      <c r="D285" s="33">
         <v>1</v>
       </c>
       <c r="E285" t="s">
@@ -11869,7 +12004,7 @@
       <c r="C286" s="30" t="s">
         <v>2146</v>
       </c>
-      <c r="D286">
+      <c r="D286" s="33">
         <v>3</v>
       </c>
       <c r="E286" t="s">
@@ -11886,7 +12021,7 @@
       <c r="C287" s="30" t="s">
         <v>2146</v>
       </c>
-      <c r="D287">
+      <c r="D287" s="33">
         <v>2</v>
       </c>
       <c r="E287" t="s">
@@ -11903,7 +12038,7 @@
       <c r="C288" s="28" t="s">
         <v>2146</v>
       </c>
-      <c r="D288">
+      <c r="D288" s="33">
         <v>14</v>
       </c>
       <c r="E288" t="s">
@@ -11920,7 +12055,7 @@
       <c r="C289" s="28" t="s">
         <v>2146</v>
       </c>
-      <c r="D289">
+      <c r="D289" s="33">
         <v>23</v>
       </c>
       <c r="E289" t="s">
@@ -11937,7 +12072,7 @@
       <c r="C290" s="28" t="s">
         <v>2146</v>
       </c>
-      <c r="D290">
+      <c r="D290" s="33">
         <v>31</v>
       </c>
       <c r="E290" t="s">
@@ -11954,7 +12089,7 @@
       <c r="C291" s="28" t="s">
         <v>2146</v>
       </c>
-      <c r="D291">
+      <c r="D291" s="33">
         <v>4</v>
       </c>
       <c r="E291" t="s">
@@ -11971,7 +12106,7 @@
       <c r="C292" s="28" t="s">
         <v>2146</v>
       </c>
-      <c r="D292">
+      <c r="D292" s="33">
         <v>6</v>
       </c>
       <c r="E292" t="s">
@@ -11988,7 +12123,7 @@
       <c r="C293" s="28" t="s">
         <v>2146</v>
       </c>
-      <c r="D293">
+      <c r="D293" s="33">
         <v>5</v>
       </c>
       <c r="E293" t="s">
@@ -12005,7 +12140,7 @@
       <c r="C294" s="28" t="s">
         <v>2146</v>
       </c>
-      <c r="D294">
+      <c r="D294" s="33">
         <v>20</v>
       </c>
       <c r="E294" t="s">
@@ -12022,7 +12157,7 @@
       <c r="C295" s="28" t="s">
         <v>2146</v>
       </c>
-      <c r="D295">
+      <c r="D295" s="33">
         <v>29</v>
       </c>
       <c r="E295" t="s">
@@ -12039,7 +12174,7 @@
       <c r="C296" s="28" t="s">
         <v>2146</v>
       </c>
-      <c r="D296">
+      <c r="D296" s="33">
         <v>30</v>
       </c>
       <c r="E296" t="s">
@@ -12089,7 +12224,7 @@
       <c r="C300" s="24" t="s">
         <v>2143</v>
       </c>
-      <c r="D300">
+      <c r="D300" s="33">
         <v>12</v>
       </c>
       <c r="E300" t="s">
@@ -12106,7 +12241,7 @@
       <c r="C301" s="24" t="s">
         <v>2143</v>
       </c>
-      <c r="D301">
+      <c r="D301" s="33">
         <v>11</v>
       </c>
       <c r="E301" t="s">
@@ -12123,7 +12258,7 @@
       <c r="C302" s="18" t="s">
         <v>2241</v>
       </c>
-      <c r="D302" s="6">
+      <c r="D302" s="34">
         <v>7</v>
       </c>
       <c r="E302" s="6" t="s">
@@ -12140,7 +12275,7 @@
       <c r="C303" s="18" t="s">
         <v>2241</v>
       </c>
-      <c r="D303" s="6">
+      <c r="D303" s="34">
         <v>9</v>
       </c>
       <c r="E303" s="6" t="s">
@@ -12157,7 +12292,7 @@
       <c r="C304" s="18" t="s">
         <v>2241</v>
       </c>
-      <c r="D304" s="6">
+      <c r="D304" s="34">
         <v>11</v>
       </c>
       <c r="E304" s="6" t="s">
@@ -12174,7 +12309,7 @@
       <c r="C305" s="18" t="s">
         <v>2241</v>
       </c>
-      <c r="D305" s="6">
+      <c r="D305" s="34">
         <v>12</v>
       </c>
       <c r="E305" s="6" t="s">
@@ -12191,7 +12326,7 @@
       <c r="C306" s="18" t="s">
         <v>2241</v>
       </c>
-      <c r="D306" s="6">
+      <c r="D306" s="34">
         <v>13</v>
       </c>
       <c r="E306" s="6" t="s">
@@ -12206,6 +12341,7 @@
         <v>917</v>
       </c>
       <c r="C307" s="18"/>
+      <c r="D307" s="34"/>
       <c r="E307" s="6" t="s">
         <v>918</v>
       </c>
@@ -12220,7 +12356,7 @@
       <c r="C308" s="18" t="s">
         <v>2241</v>
       </c>
-      <c r="D308" s="6">
+      <c r="D308" s="34">
         <v>10</v>
       </c>
       <c r="E308" s="6" t="s">
@@ -12237,7 +12373,7 @@
       <c r="C309" s="18" t="s">
         <v>2241</v>
       </c>
-      <c r="D309" s="6">
+      <c r="D309" s="34">
         <v>8</v>
       </c>
       <c r="E309" s="6" t="s">
@@ -12254,7 +12390,7 @@
       <c r="C310" s="18" t="s">
         <v>2241</v>
       </c>
-      <c r="D310" s="6">
+      <c r="D310" s="34">
         <v>6</v>
       </c>
       <c r="E310" s="6" t="s">
@@ -12271,7 +12407,7 @@
       <c r="C311" s="18" t="s">
         <v>2242</v>
       </c>
-      <c r="D311" s="6">
+      <c r="D311" s="34">
         <v>11</v>
       </c>
       <c r="E311" s="6" t="s">
@@ -12288,7 +12424,7 @@
       <c r="C312" s="18" t="s">
         <v>2242</v>
       </c>
-      <c r="D312" s="6">
+      <c r="D312" s="34">
         <v>7</v>
       </c>
       <c r="E312" s="6" t="s">
@@ -12305,7 +12441,7 @@
       <c r="C313" s="18" t="s">
         <v>2242</v>
       </c>
-      <c r="D313" s="6">
+      <c r="D313" s="34">
         <v>6</v>
       </c>
       <c r="E313" s="6" t="s">
@@ -12322,7 +12458,7 @@
       <c r="C314" s="18" t="s">
         <v>2242</v>
       </c>
-      <c r="D314" s="6">
+      <c r="D314" s="34">
         <v>1</v>
       </c>
       <c r="E314" s="6" t="s">
@@ -12337,6 +12473,7 @@
         <v>941</v>
       </c>
       <c r="C315" s="18"/>
+      <c r="D315" s="34"/>
       <c r="E315" s="6" t="s">
         <v>942</v>
       </c>
@@ -12349,6 +12486,7 @@
         <v>944</v>
       </c>
       <c r="C316" s="18"/>
+      <c r="D316" s="34"/>
       <c r="E316" s="6" t="s">
         <v>945</v>
       </c>
@@ -12361,6 +12499,7 @@
         <v>947</v>
       </c>
       <c r="C317" s="18"/>
+      <c r="D317" s="34"/>
       <c r="E317" s="6" t="s">
         <v>948</v>
       </c>
@@ -12373,6 +12512,7 @@
         <v>950</v>
       </c>
       <c r="C318" s="18"/>
+      <c r="D318" s="34"/>
       <c r="E318" s="6" t="s">
         <v>951</v>
       </c>
@@ -12387,7 +12527,7 @@
       <c r="C319" s="18" t="s">
         <v>2247</v>
       </c>
-      <c r="D319" s="6">
+      <c r="D319" s="34">
         <v>2</v>
       </c>
       <c r="E319" s="6" t="s">
@@ -12404,7 +12544,7 @@
       <c r="C320" s="18" t="s">
         <v>2247</v>
       </c>
-      <c r="D320" s="6">
+      <c r="D320" s="34">
         <v>4</v>
       </c>
       <c r="E320" s="6" t="s">
@@ -12421,7 +12561,7 @@
       <c r="C321" s="18" t="s">
         <v>2247</v>
       </c>
-      <c r="D321" s="6">
+      <c r="D321" s="34">
         <v>3</v>
       </c>
       <c r="E321" s="6" t="s">
@@ -12436,6 +12576,7 @@
         <v>962</v>
       </c>
       <c r="C322" s="18"/>
+      <c r="D322" s="34"/>
       <c r="E322" s="6" t="s">
         <v>963</v>
       </c>
@@ -12450,7 +12591,7 @@
       <c r="C323" s="18" t="s">
         <v>2247</v>
       </c>
-      <c r="D323" s="6">
+      <c r="D323" s="34">
         <v>1</v>
       </c>
       <c r="E323" s="6" t="s">
@@ -12467,7 +12608,7 @@
       <c r="C324" s="18" t="s">
         <v>2246</v>
       </c>
-      <c r="D324" s="6">
+      <c r="D324" s="34">
         <v>4</v>
       </c>
       <c r="E324" s="6" t="s">
@@ -12484,7 +12625,7 @@
       <c r="C325" s="18" t="s">
         <v>2247</v>
       </c>
-      <c r="D325" s="6">
+      <c r="D325" s="34">
         <v>5</v>
       </c>
       <c r="E325" s="6" t="s">
@@ -12499,6 +12640,7 @@
         <v>973</v>
       </c>
       <c r="C326" s="18"/>
+      <c r="D326" s="34"/>
       <c r="E326" s="6" t="s">
         <v>974</v>
       </c>
@@ -12513,7 +12655,7 @@
       <c r="C327" s="18" t="s">
         <v>2246</v>
       </c>
-      <c r="D327" s="6">
+      <c r="D327" s="34">
         <v>3</v>
       </c>
       <c r="E327" s="6" t="s">
@@ -12530,7 +12672,7 @@
       <c r="C328" s="18" t="s">
         <v>2246</v>
       </c>
-      <c r="D328" s="6">
+      <c r="D328" s="34">
         <v>1</v>
       </c>
       <c r="E328" s="6" t="s">
@@ -12547,7 +12689,7 @@
       <c r="C329" s="18" t="s">
         <v>2246</v>
       </c>
-      <c r="D329" s="6">
+      <c r="D329" s="34">
         <v>2</v>
       </c>
       <c r="E329" s="6" t="s">
@@ -12562,6 +12704,7 @@
         <v>985</v>
       </c>
       <c r="C330" s="18"/>
+      <c r="D330" s="34"/>
       <c r="E330" s="6" t="s">
         <v>986</v>
       </c>
@@ -12574,6 +12717,7 @@
         <v>988</v>
       </c>
       <c r="C331" s="18"/>
+      <c r="D331" s="34"/>
       <c r="E331" s="6" t="s">
         <v>989</v>
       </c>
@@ -12586,6 +12730,7 @@
         <v>991</v>
       </c>
       <c r="C332" s="18"/>
+      <c r="D332" s="34"/>
       <c r="E332" s="6" t="s">
         <v>992</v>
       </c>
@@ -12598,6 +12743,7 @@
         <v>994</v>
       </c>
       <c r="C333" s="18"/>
+      <c r="D333" s="34"/>
       <c r="E333" s="6" t="s">
         <v>995</v>
       </c>
@@ -12610,6 +12756,7 @@
         <v>997</v>
       </c>
       <c r="C334" s="18"/>
+      <c r="D334" s="34"/>
       <c r="E334" s="6" t="s">
         <v>998</v>
       </c>
@@ -12624,7 +12771,7 @@
       <c r="C335" s="18" t="s">
         <v>2245</v>
       </c>
-      <c r="D335" s="6">
+      <c r="D335" s="34">
         <v>1</v>
       </c>
       <c r="E335" s="6" t="s">
@@ -12641,7 +12788,7 @@
       <c r="C336" s="18" t="s">
         <v>2245</v>
       </c>
-      <c r="D336" s="6">
+      <c r="D336" s="34">
         <v>3</v>
       </c>
       <c r="E336" s="6" t="s">
@@ -12658,7 +12805,7 @@
       <c r="C337" s="18" t="s">
         <v>2245</v>
       </c>
-      <c r="D337" s="6">
+      <c r="D337" s="34">
         <v>4</v>
       </c>
       <c r="E337" s="6" t="s">
@@ -12675,7 +12822,7 @@
       <c r="C338" s="18" t="s">
         <v>2245</v>
       </c>
-      <c r="D338" s="6">
+      <c r="D338" s="34">
         <v>2</v>
       </c>
       <c r="E338" s="6" t="s">
@@ -12692,7 +12839,7 @@
       <c r="C339" s="18" t="s">
         <v>2244</v>
       </c>
-      <c r="D339" s="6">
+      <c r="D339" s="34">
         <v>1</v>
       </c>
       <c r="E339" s="6" t="s">
@@ -12709,7 +12856,7 @@
       <c r="C340" s="18" t="s">
         <v>2244</v>
       </c>
-      <c r="D340" s="6">
+      <c r="D340" s="34">
         <v>3</v>
       </c>
       <c r="E340" s="6" t="s">
@@ -12726,7 +12873,7 @@
       <c r="C341" s="18" t="s">
         <v>2244</v>
       </c>
-      <c r="D341" s="6">
+      <c r="D341" s="34">
         <v>5</v>
       </c>
       <c r="E341" s="6" t="s">
@@ -12743,7 +12890,7 @@
       <c r="C342" s="18" t="s">
         <v>2244</v>
       </c>
-      <c r="D342" s="6">
+      <c r="D342" s="34">
         <v>4</v>
       </c>
       <c r="E342" s="6" t="s">
@@ -12760,7 +12907,7 @@
       <c r="C343" s="18" t="s">
         <v>2243</v>
       </c>
-      <c r="D343" s="6">
+      <c r="D343" s="34">
         <v>6</v>
       </c>
       <c r="E343" s="6" t="s">
@@ -12777,7 +12924,7 @@
       <c r="C344" s="18" t="s">
         <v>2243</v>
       </c>
-      <c r="D344" s="6">
+      <c r="D344" s="34">
         <v>4</v>
       </c>
       <c r="E344" s="6" t="s">
@@ -12794,7 +12941,7 @@
       <c r="C345" s="18" t="s">
         <v>2243</v>
       </c>
-      <c r="D345" s="6">
+      <c r="D345" s="34">
         <v>2</v>
       </c>
       <c r="E345" s="6" t="s">
@@ -12811,7 +12958,7 @@
       <c r="C346" s="18" t="s">
         <v>2243</v>
       </c>
-      <c r="D346" s="6">
+      <c r="D346" s="34">
         <v>3</v>
       </c>
       <c r="E346" s="6" t="s">
@@ -12826,6 +12973,7 @@
         <v>1036</v>
       </c>
       <c r="C347" s="18"/>
+      <c r="D347" s="34"/>
       <c r="E347" s="6" t="s">
         <v>1037</v>
       </c>
@@ -12838,6 +12986,7 @@
         <v>1039</v>
       </c>
       <c r="C348" s="18"/>
+      <c r="D348" s="34"/>
       <c r="E348" s="6" t="s">
         <v>1040</v>
       </c>
@@ -12850,6 +12999,7 @@
         <v>1042</v>
       </c>
       <c r="C349" s="18"/>
+      <c r="D349" s="34"/>
       <c r="E349" s="6" t="s">
         <v>1043</v>
       </c>
@@ -12862,6 +13012,7 @@
         <v>1045</v>
       </c>
       <c r="C350" s="18"/>
+      <c r="D350" s="34"/>
       <c r="E350" s="6" t="s">
         <v>1046</v>
       </c>
@@ -12874,6 +13025,7 @@
         <v>1048</v>
       </c>
       <c r="C351" s="18"/>
+      <c r="D351" s="34"/>
       <c r="E351" s="6" t="s">
         <v>1049</v>
       </c>
@@ -12899,7 +13051,7 @@
       <c r="C353" s="8" t="s">
         <v>2250</v>
       </c>
-      <c r="D353">
+      <c r="D353" s="33">
         <v>3</v>
       </c>
       <c r="E353" t="s">
@@ -12916,7 +13068,7 @@
       <c r="C354" s="8" t="s">
         <v>2251</v>
       </c>
-      <c r="D354">
+      <c r="D354" s="33">
         <v>2</v>
       </c>
       <c r="E354" t="s">
@@ -12933,7 +13085,7 @@
       <c r="C355" s="8" t="s">
         <v>2251</v>
       </c>
-      <c r="D355">
+      <c r="D355" s="33">
         <v>4</v>
       </c>
       <c r="E355" t="s">
@@ -12950,7 +13102,7 @@
       <c r="C356" s="8" t="s">
         <v>2251</v>
       </c>
-      <c r="D356">
+      <c r="D356" s="33">
         <v>1</v>
       </c>
       <c r="E356" t="s">
@@ -12967,7 +13119,7 @@
       <c r="C357" s="8" t="s">
         <v>2252</v>
       </c>
-      <c r="D357" s="8">
+      <c r="D357" s="35">
         <v>1</v>
       </c>
       <c r="E357" t="s">
@@ -12984,7 +13136,7 @@
       <c r="C358" s="8" t="s">
         <v>2252</v>
       </c>
-      <c r="D358">
+      <c r="D358" s="33">
         <v>2</v>
       </c>
       <c r="E358" t="s">
@@ -13001,7 +13153,7 @@
       <c r="C359" s="8" t="s">
         <v>2250</v>
       </c>
-      <c r="D359">
+      <c r="D359" s="33">
         <v>2</v>
       </c>
       <c r="E359" t="s">
@@ -13018,7 +13170,7 @@
       <c r="C360" s="8" t="s">
         <v>2250</v>
       </c>
-      <c r="D360">
+      <c r="D360" s="33">
         <v>1</v>
       </c>
       <c r="E360" t="s">
@@ -13046,7 +13198,7 @@
       <c r="C362" s="8" t="s">
         <v>2258</v>
       </c>
-      <c r="D362">
+      <c r="D362" s="33">
         <v>3</v>
       </c>
       <c r="E362" t="s">
@@ -13063,7 +13215,7 @@
       <c r="C363" s="8" t="s">
         <v>2258</v>
       </c>
-      <c r="D363">
+      <c r="D363" s="33">
         <v>2</v>
       </c>
       <c r="E363" t="s">
@@ -13080,7 +13232,7 @@
       <c r="C364" s="8" t="s">
         <v>2258</v>
       </c>
-      <c r="D364">
+      <c r="D364" s="33">
         <v>1</v>
       </c>
       <c r="E364" t="s">
@@ -13097,7 +13249,7 @@
       <c r="C365" s="8" t="s">
         <v>2257</v>
       </c>
-      <c r="D365">
+      <c r="D365" s="33">
         <v>3</v>
       </c>
       <c r="E365" t="s">
@@ -13114,7 +13266,7 @@
       <c r="C366" s="8" t="s">
         <v>2257</v>
       </c>
-      <c r="D366">
+      <c r="D366" s="33">
         <v>2</v>
       </c>
       <c r="E366" t="s">
@@ -13131,7 +13283,7 @@
       <c r="C367" s="8" t="s">
         <v>2257</v>
       </c>
-      <c r="D367">
+      <c r="D367" s="33">
         <v>1</v>
       </c>
       <c r="E367" t="s">
@@ -13170,7 +13322,7 @@
       <c r="C370" s="8" t="s">
         <v>2255</v>
       </c>
-      <c r="D370">
+      <c r="D370" s="33">
         <v>5</v>
       </c>
       <c r="E370" t="s">
@@ -13187,7 +13339,7 @@
       <c r="C371" s="8" t="s">
         <v>2255</v>
       </c>
-      <c r="D371">
+      <c r="D371" s="33">
         <v>3</v>
       </c>
       <c r="E371" t="s">
@@ -13204,7 +13356,7 @@
       <c r="C372" s="8" t="s">
         <v>2255</v>
       </c>
-      <c r="D372">
+      <c r="D372" s="33">
         <v>2</v>
       </c>
       <c r="E372" t="s">
@@ -13221,7 +13373,7 @@
       <c r="C373" s="8" t="s">
         <v>2255</v>
       </c>
-      <c r="D373">
+      <c r="D373" s="33">
         <v>4</v>
       </c>
       <c r="E373" t="s">
@@ -13238,7 +13390,7 @@
       <c r="C374" s="8" t="s">
         <v>2255</v>
       </c>
-      <c r="D374">
+      <c r="D374" s="33">
         <v>1</v>
       </c>
       <c r="E374" t="s">
@@ -13255,7 +13407,7 @@
       <c r="C375" s="8" t="s">
         <v>2254</v>
       </c>
-      <c r="D375">
+      <c r="D375" s="33">
         <v>1</v>
       </c>
       <c r="E375" t="s">
@@ -13272,7 +13424,7 @@
       <c r="C376" s="8" t="s">
         <v>2254</v>
       </c>
-      <c r="D376">
+      <c r="D376" s="33">
         <v>2</v>
       </c>
       <c r="E376" t="s">
@@ -13300,7 +13452,7 @@
       <c r="C378" s="8" t="s">
         <v>2256</v>
       </c>
-      <c r="D378">
+      <c r="D378" s="33">
         <v>2</v>
       </c>
       <c r="E378" t="s">
@@ -13317,7 +13469,7 @@
       <c r="C379" s="8" t="s">
         <v>2253</v>
       </c>
-      <c r="D379">
+      <c r="D379" s="33">
         <v>3</v>
       </c>
       <c r="E379" t="s">
@@ -13334,7 +13486,7 @@
       <c r="C380" s="8" t="s">
         <v>2256</v>
       </c>
-      <c r="D380">
+      <c r="D380" s="33">
         <v>1</v>
       </c>
       <c r="E380" t="s">
@@ -13362,7 +13514,7 @@
       <c r="C382" s="8" t="s">
         <v>2253</v>
       </c>
-      <c r="D382">
+      <c r="D382" s="33">
         <v>4</v>
       </c>
       <c r="E382" t="s">
@@ -13379,7 +13531,7 @@
       <c r="C383" s="8" t="s">
         <v>2253</v>
       </c>
-      <c r="D383">
+      <c r="D383" s="33">
         <v>5</v>
       </c>
       <c r="E383" t="s">
@@ -13396,7 +13548,7 @@
       <c r="C384" s="8" t="s">
         <v>2253</v>
       </c>
-      <c r="D384">
+      <c r="D384" s="33">
         <v>9</v>
       </c>
       <c r="E384" t="s">
@@ -13424,7 +13576,7 @@
       <c r="C386" s="8" t="s">
         <v>2260</v>
       </c>
-      <c r="D386">
+      <c r="D386" s="33">
         <v>2</v>
       </c>
       <c r="E386" t="s">
@@ -13441,7 +13593,7 @@
       <c r="C387" s="8" t="s">
         <v>2260</v>
       </c>
-      <c r="D387">
+      <c r="D387" s="33">
         <v>1</v>
       </c>
       <c r="E387" t="s">
@@ -13458,7 +13610,7 @@
       <c r="C388" s="8" t="s">
         <v>2261</v>
       </c>
-      <c r="D388">
+      <c r="D388" s="33">
         <v>5</v>
       </c>
       <c r="E388" t="s">
@@ -13475,7 +13627,7 @@
       <c r="C389" s="8" t="s">
         <v>2261</v>
       </c>
-      <c r="D389">
+      <c r="D389" s="33">
         <v>4</v>
       </c>
       <c r="E389" t="s">
@@ -13492,7 +13644,7 @@
       <c r="C390" s="8" t="s">
         <v>2261</v>
       </c>
-      <c r="D390">
+      <c r="D390" s="33">
         <v>2</v>
       </c>
       <c r="E390" t="s">
@@ -13509,7 +13661,7 @@
       <c r="C391" s="8" t="s">
         <v>2261</v>
       </c>
-      <c r="D391">
+      <c r="D391" s="33">
         <v>1</v>
       </c>
       <c r="E391" t="s">
@@ -13570,7 +13722,7 @@
       <c r="C396" s="8" t="s">
         <v>2262</v>
       </c>
-      <c r="D396">
+      <c r="D396" s="33">
         <v>3</v>
       </c>
       <c r="E396" t="s">
@@ -13587,7 +13739,7 @@
       <c r="C397" s="8" t="s">
         <v>2262</v>
       </c>
-      <c r="D397">
+      <c r="D397" s="33">
         <v>2</v>
       </c>
       <c r="E397" t="s">
@@ -13604,7 +13756,7 @@
       <c r="C398" s="8" t="s">
         <v>2262</v>
       </c>
-      <c r="D398">
+      <c r="D398" s="33">
         <v>1</v>
       </c>
       <c r="E398" t="s">
@@ -13652,7 +13804,7 @@
         <v>1201</v>
       </c>
       <c r="C402" s="19"/>
-      <c r="D402" s="4"/>
+      <c r="D402" s="36"/>
       <c r="E402" s="4" t="s">
         <v>1202</v>
       </c>
@@ -13665,7 +13817,7 @@
         <v>1204</v>
       </c>
       <c r="C403" s="19"/>
-      <c r="D403" s="4"/>
+      <c r="D403" s="36"/>
       <c r="E403" s="4" t="s">
         <v>1205</v>
       </c>
@@ -13678,7 +13830,7 @@
         <v>1207</v>
       </c>
       <c r="C404" s="19"/>
-      <c r="D404" s="4"/>
+      <c r="D404" s="36"/>
       <c r="E404" s="4" t="s">
         <v>1208</v>
       </c>
@@ -13691,7 +13843,7 @@
         <v>1210</v>
       </c>
       <c r="C405" s="19"/>
-      <c r="D405" s="4"/>
+      <c r="D405" s="36"/>
       <c r="E405" s="4" t="s">
         <v>1211</v>
       </c>
@@ -13704,7 +13856,7 @@
         <v>1213</v>
       </c>
       <c r="C406" s="19"/>
-      <c r="D406" s="4"/>
+      <c r="D406" s="36"/>
       <c r="E406" s="4" t="s">
         <v>1214</v>
       </c>
@@ -13717,7 +13869,7 @@
         <v>1216</v>
       </c>
       <c r="C407" s="19"/>
-      <c r="D407" s="4"/>
+      <c r="D407" s="36"/>
       <c r="E407" s="4" t="s">
         <v>1217</v>
       </c>
@@ -13730,7 +13882,7 @@
         <v>1219</v>
       </c>
       <c r="C408" s="19"/>
-      <c r="D408" s="4"/>
+      <c r="D408" s="36"/>
       <c r="E408" s="4" t="s">
         <v>1220</v>
       </c>
@@ -13743,7 +13895,7 @@
         <v>1222</v>
       </c>
       <c r="C409" s="19"/>
-      <c r="D409" s="4"/>
+      <c r="D409" s="36"/>
       <c r="E409" s="4" t="s">
         <v>1223</v>
       </c>
@@ -13756,7 +13908,7 @@
         <v>1225</v>
       </c>
       <c r="C410" s="19"/>
-      <c r="D410" s="4"/>
+      <c r="D410" s="36"/>
       <c r="E410" s="4" t="s">
         <v>1226</v>
       </c>
@@ -13769,7 +13921,7 @@
         <v>1228</v>
       </c>
       <c r="C411" s="19"/>
-      <c r="D411" s="4"/>
+      <c r="D411" s="36"/>
       <c r="E411" s="4" t="s">
         <v>1229</v>
       </c>
@@ -13782,7 +13934,7 @@
         <v>1231</v>
       </c>
       <c r="C412" s="19"/>
-      <c r="D412" s="4"/>
+      <c r="D412" s="36"/>
       <c r="E412" s="4" t="s">
         <v>1232</v>
       </c>
@@ -13795,7 +13947,7 @@
         <v>1234</v>
       </c>
       <c r="C413" s="29"/>
-      <c r="D413" s="4"/>
+      <c r="D413" s="36"/>
       <c r="E413" s="4" t="s">
         <v>1235</v>
       </c>
@@ -13808,7 +13960,7 @@
         <v>1237</v>
       </c>
       <c r="C414" s="29"/>
-      <c r="D414" s="4"/>
+      <c r="D414" s="36"/>
       <c r="E414" s="4" t="s">
         <v>1238</v>
       </c>
@@ -13821,7 +13973,7 @@
         <v>1240</v>
       </c>
       <c r="C415" s="29"/>
-      <c r="D415" s="4"/>
+      <c r="D415" s="36"/>
       <c r="E415" s="4" t="s">
         <v>1241</v>
       </c>
@@ -13834,7 +13986,7 @@
         <v>1243</v>
       </c>
       <c r="C416" s="29"/>
-      <c r="D416" s="4"/>
+      <c r="D416" s="36"/>
       <c r="E416" s="4" t="s">
         <v>1244</v>
       </c>
@@ -13847,7 +13999,7 @@
         <v>1246</v>
       </c>
       <c r="C417" s="29"/>
-      <c r="D417" s="4"/>
+      <c r="D417" s="36"/>
       <c r="E417" s="4" t="s">
         <v>1247</v>
       </c>
@@ -13860,7 +14012,7 @@
         <v>1249</v>
       </c>
       <c r="C418" s="29"/>
-      <c r="D418" s="4"/>
+      <c r="D418" s="36"/>
       <c r="E418" s="4" t="s">
         <v>1250</v>
       </c>
@@ -13873,7 +14025,7 @@
         <v>1252</v>
       </c>
       <c r="C419" s="29"/>
-      <c r="D419" s="4"/>
+      <c r="D419" s="36"/>
       <c r="E419" s="4" t="s">
         <v>1253</v>
       </c>
@@ -13886,7 +14038,7 @@
         <v>1255</v>
       </c>
       <c r="C420" s="29"/>
-      <c r="D420" s="4"/>
+      <c r="D420" s="36"/>
       <c r="E420" s="4" t="s">
         <v>1256</v>
       </c>
@@ -13899,7 +14051,7 @@
         <v>1258</v>
       </c>
       <c r="C421" s="29"/>
-      <c r="D421" s="4"/>
+      <c r="D421" s="36"/>
       <c r="E421" s="4" t="s">
         <v>1259</v>
       </c>
@@ -13912,7 +14064,7 @@
         <v>1261</v>
       </c>
       <c r="C422" s="29"/>
-      <c r="D422" s="4"/>
+      <c r="D422" s="36"/>
       <c r="E422" s="4" t="s">
         <v>1262</v>
       </c>
@@ -13927,7 +14079,9 @@
       <c r="C423" s="29" t="s">
         <v>2267</v>
       </c>
-      <c r="D423" s="4"/>
+      <c r="D423" s="36">
+        <v>2</v>
+      </c>
       <c r="E423" s="4" t="s">
         <v>1265</v>
       </c>
@@ -13942,7 +14096,9 @@
       <c r="C424" s="29" t="s">
         <v>2267</v>
       </c>
-      <c r="D424" s="4"/>
+      <c r="D424" s="36">
+        <v>3</v>
+      </c>
       <c r="E424" s="4" t="s">
         <v>1268</v>
       </c>
@@ -13957,7 +14113,9 @@
       <c r="C425" s="29" t="s">
         <v>2268</v>
       </c>
-      <c r="D425" s="4"/>
+      <c r="D425" s="36">
+        <v>2</v>
+      </c>
       <c r="E425" s="4" t="s">
         <v>1271</v>
       </c>
@@ -13972,7 +14130,9 @@
       <c r="C426" s="29" t="s">
         <v>2268</v>
       </c>
-      <c r="D426" s="4"/>
+      <c r="D426" s="36">
+        <v>1</v>
+      </c>
       <c r="E426" s="4" t="s">
         <v>1274</v>
       </c>
@@ -13985,7 +14145,7 @@
         <v>1276</v>
       </c>
       <c r="C427" s="29"/>
-      <c r="D427" s="4"/>
+      <c r="D427" s="36"/>
       <c r="E427" s="4" t="s">
         <v>1277</v>
       </c>
@@ -13998,7 +14158,7 @@
         <v>1279</v>
       </c>
       <c r="C428" s="29"/>
-      <c r="D428" s="4"/>
+      <c r="D428" s="36"/>
       <c r="E428" s="4" t="s">
         <v>1280</v>
       </c>
@@ -14011,7 +14171,7 @@
         <v>1282</v>
       </c>
       <c r="C429" s="29"/>
-      <c r="D429" s="4"/>
+      <c r="D429" s="36"/>
       <c r="E429" s="4" t="s">
         <v>1283</v>
       </c>
@@ -14024,7 +14184,7 @@
         <v>1285</v>
       </c>
       <c r="C430" s="29"/>
-      <c r="D430" s="4"/>
+      <c r="D430" s="36"/>
       <c r="E430" s="4" t="s">
         <v>1286</v>
       </c>
@@ -14037,7 +14197,7 @@
         <v>1288</v>
       </c>
       <c r="C431" s="29"/>
-      <c r="D431" s="4"/>
+      <c r="D431" s="36"/>
       <c r="E431" s="4" t="s">
         <v>1289</v>
       </c>
@@ -14050,7 +14210,7 @@
         <v>1291</v>
       </c>
       <c r="C432" s="29"/>
-      <c r="D432" s="4"/>
+      <c r="D432" s="36"/>
       <c r="E432" s="4" t="s">
         <v>1292</v>
       </c>
@@ -14065,7 +14225,9 @@
       <c r="C433" s="29" t="s">
         <v>2269</v>
       </c>
-      <c r="D433" s="4"/>
+      <c r="D433" s="36">
+        <v>2</v>
+      </c>
       <c r="E433" s="4" t="s">
         <v>1295</v>
       </c>
@@ -14080,7 +14242,9 @@
       <c r="C434" s="29" t="s">
         <v>2269</v>
       </c>
-      <c r="D434" s="4"/>
+      <c r="D434" s="36">
+        <v>1</v>
+      </c>
       <c r="E434" s="4" t="s">
         <v>1298</v>
       </c>
@@ -14095,7 +14259,9 @@
       <c r="C435" s="29" t="s">
         <v>2270</v>
       </c>
-      <c r="D435" s="4"/>
+      <c r="D435" s="36">
+        <v>2</v>
+      </c>
       <c r="E435" s="4" t="s">
         <v>1301</v>
       </c>
@@ -14110,7 +14276,9 @@
       <c r="C436" s="29" t="s">
         <v>2270</v>
       </c>
-      <c r="D436" s="4"/>
+      <c r="D436" s="36">
+        <v>3</v>
+      </c>
       <c r="E436" s="4" t="s">
         <v>1304</v>
       </c>
@@ -14125,7 +14293,9 @@
       <c r="C437" s="29" t="s">
         <v>2270</v>
       </c>
-      <c r="D437" s="4"/>
+      <c r="D437" s="36">
+        <v>1</v>
+      </c>
       <c r="E437" s="4" t="s">
         <v>1307</v>
       </c>
@@ -14138,7 +14308,7 @@
         <v>1309</v>
       </c>
       <c r="C438" s="29"/>
-      <c r="D438" s="4"/>
+      <c r="D438" s="36"/>
       <c r="E438" s="4" t="s">
         <v>1310</v>
       </c>
@@ -14151,7 +14321,7 @@
         <v>1312</v>
       </c>
       <c r="C439" s="29"/>
-      <c r="D439" s="4"/>
+      <c r="D439" s="36"/>
       <c r="E439" s="4" t="s">
         <v>1313</v>
       </c>
@@ -14164,7 +14334,7 @@
         <v>1315</v>
       </c>
       <c r="C440" s="29"/>
-      <c r="D440" s="4"/>
+      <c r="D440" s="36"/>
       <c r="E440" s="4" t="s">
         <v>1316</v>
       </c>
@@ -14177,7 +14347,7 @@
         <v>1318</v>
       </c>
       <c r="C441" s="29"/>
-      <c r="D441" s="4"/>
+      <c r="D441" s="36"/>
       <c r="E441" s="4" t="s">
         <v>1319</v>
       </c>
@@ -14190,7 +14360,7 @@
         <v>1321</v>
       </c>
       <c r="C442" s="29"/>
-      <c r="D442" s="4"/>
+      <c r="D442" s="36"/>
       <c r="E442" s="4" t="s">
         <v>1322</v>
       </c>
@@ -14203,7 +14373,7 @@
         <v>1324</v>
       </c>
       <c r="C443" s="29"/>
-      <c r="D443" s="4"/>
+      <c r="D443" s="36"/>
       <c r="E443" s="4" t="s">
         <v>1325</v>
       </c>
@@ -14216,7 +14386,7 @@
         <v>1327</v>
       </c>
       <c r="C444" s="29"/>
-      <c r="D444" s="4"/>
+      <c r="D444" s="36"/>
       <c r="E444" s="4" t="s">
         <v>1328</v>
       </c>
@@ -14229,7 +14399,7 @@
         <v>1330</v>
       </c>
       <c r="C445" s="29"/>
-      <c r="D445" s="4"/>
+      <c r="D445" s="36"/>
       <c r="E445" s="4" t="s">
         <v>1331</v>
       </c>
@@ -14242,7 +14412,7 @@
         <v>1333</v>
       </c>
       <c r="C446" s="29"/>
-      <c r="D446" s="4"/>
+      <c r="D446" s="36"/>
       <c r="E446" s="4" t="s">
         <v>1334</v>
       </c>
@@ -14255,7 +14425,7 @@
         <v>1336</v>
       </c>
       <c r="C447" s="19"/>
-      <c r="D447" s="4"/>
+      <c r="D447" s="36"/>
       <c r="E447" s="4" t="s">
         <v>1337</v>
       </c>
@@ -14268,7 +14438,7 @@
         <v>1339</v>
       </c>
       <c r="C448" s="19"/>
-      <c r="D448" s="4"/>
+      <c r="D448" s="36"/>
       <c r="E448" s="4" t="s">
         <v>1340</v>
       </c>
@@ -14281,7 +14451,7 @@
         <v>1342</v>
       </c>
       <c r="C449" s="19"/>
-      <c r="D449" s="4"/>
+      <c r="D449" s="36"/>
       <c r="E449" s="4" t="s">
         <v>1343</v>
       </c>
@@ -14294,7 +14464,7 @@
         <v>1345</v>
       </c>
       <c r="C450" s="19"/>
-      <c r="D450" s="4"/>
+      <c r="D450" s="36"/>
       <c r="E450" s="4" t="s">
         <v>1346</v>
       </c>
@@ -14307,7 +14477,7 @@
         <v>1348</v>
       </c>
       <c r="C451" s="19"/>
-      <c r="D451" s="4"/>
+      <c r="D451" s="36"/>
       <c r="E451" s="4" t="s">
         <v>1349</v>
       </c>
@@ -14333,7 +14503,7 @@
       <c r="C453" s="8" t="s">
         <v>2236</v>
       </c>
-      <c r="D453">
+      <c r="D453" s="33">
         <v>1</v>
       </c>
       <c r="E453" t="s">
@@ -14350,7 +14520,7 @@
       <c r="C454" s="8" t="s">
         <v>2236</v>
       </c>
-      <c r="D454">
+      <c r="D454" s="33">
         <v>2</v>
       </c>
       <c r="E454" t="s">
@@ -14367,7 +14537,7 @@
       <c r="C455" s="8" t="s">
         <v>2236</v>
       </c>
-      <c r="D455">
+      <c r="D455" s="33">
         <v>3</v>
       </c>
       <c r="E455" t="s">
@@ -14384,7 +14554,7 @@
       <c r="C456" s="8" t="s">
         <v>2236</v>
       </c>
-      <c r="D456">
+      <c r="D456" s="33">
         <v>4</v>
       </c>
       <c r="E456" t="s">
@@ -14401,7 +14571,7 @@
       <c r="C457" s="8" t="s">
         <v>2236</v>
       </c>
-      <c r="D457">
+      <c r="D457" s="33">
         <v>5</v>
       </c>
       <c r="E457" t="s">
@@ -14462,7 +14632,7 @@
       <c r="C462" s="8" t="s">
         <v>2235</v>
       </c>
-      <c r="D462">
+      <c r="D462" s="33">
         <v>5</v>
       </c>
       <c r="E462" t="s">
@@ -14479,7 +14649,7 @@
       <c r="C463" s="8" t="s">
         <v>2235</v>
       </c>
-      <c r="D463">
+      <c r="D463" s="33">
         <v>4</v>
       </c>
       <c r="E463" t="s">
@@ -14518,7 +14688,7 @@
       <c r="C466" s="8" t="s">
         <v>2235</v>
       </c>
-      <c r="D466">
+      <c r="D466" s="33">
         <v>2</v>
       </c>
       <c r="E466" t="s">
@@ -14535,7 +14705,7 @@
       <c r="C467" s="8" t="s">
         <v>2235</v>
       </c>
-      <c r="D467">
+      <c r="D467" s="33">
         <v>1</v>
       </c>
       <c r="E467" t="s">
@@ -14552,7 +14722,7 @@
       <c r="C468" s="8" t="s">
         <v>2235</v>
       </c>
-      <c r="D468">
+      <c r="D468" s="33">
         <v>3</v>
       </c>
       <c r="E468" t="s">
@@ -14569,7 +14739,7 @@
       <c r="C469" s="8" t="s">
         <v>2234</v>
       </c>
-      <c r="D469">
+      <c r="D469" s="33">
         <v>2</v>
       </c>
       <c r="E469" t="s">
@@ -14586,7 +14756,7 @@
       <c r="C470" s="8" t="s">
         <v>2234</v>
       </c>
-      <c r="D470">
+      <c r="D470" s="33">
         <v>1</v>
       </c>
       <c r="E470" t="s">
@@ -14603,7 +14773,7 @@
       <c r="C471" s="8" t="s">
         <v>2234</v>
       </c>
-      <c r="D471">
+      <c r="D471" s="33">
         <v>5</v>
       </c>
       <c r="E471" t="s">
@@ -14620,7 +14790,7 @@
       <c r="C472" s="8" t="s">
         <v>2234</v>
       </c>
-      <c r="D472">
+      <c r="D472" s="33">
         <v>4</v>
       </c>
       <c r="E472" t="s">
@@ -14637,7 +14807,7 @@
       <c r="C473" s="8" t="s">
         <v>2234</v>
       </c>
-      <c r="D473">
+      <c r="D473" s="33">
         <v>3</v>
       </c>
       <c r="E473" t="s">
@@ -14687,7 +14857,7 @@
       <c r="C477" s="8" t="s">
         <v>2237</v>
       </c>
-      <c r="D477">
+      <c r="D477" s="33">
         <v>4</v>
       </c>
       <c r="E477" t="s">
@@ -14715,7 +14885,7 @@
       <c r="C479" s="8" t="s">
         <v>2237</v>
       </c>
-      <c r="D479">
+      <c r="D479" s="33">
         <v>5</v>
       </c>
       <c r="E479" t="s">
@@ -14743,7 +14913,7 @@
       <c r="C481" s="8" t="s">
         <v>2237</v>
       </c>
-      <c r="D481">
+      <c r="D481" s="33">
         <v>3</v>
       </c>
       <c r="E481" t="s">
@@ -14760,7 +14930,7 @@
       <c r="C482" s="8" t="s">
         <v>2237</v>
       </c>
-      <c r="D482">
+      <c r="D482" s="33">
         <v>2</v>
       </c>
       <c r="E482" t="s">
@@ -14777,7 +14947,7 @@
       <c r="C483" s="8" t="s">
         <v>2237</v>
       </c>
-      <c r="D483">
+      <c r="D483" s="33">
         <v>1</v>
       </c>
       <c r="E483" t="s">
@@ -14794,7 +14964,7 @@
       <c r="C484" s="8" t="s">
         <v>2238</v>
       </c>
-      <c r="D484">
+      <c r="D484" s="33">
         <v>8</v>
       </c>
       <c r="E484" t="s">
@@ -14811,7 +14981,7 @@
       <c r="C485" s="8" t="s">
         <v>2238</v>
       </c>
-      <c r="D485">
+      <c r="D485" s="33">
         <v>7</v>
       </c>
       <c r="E485" t="s">
@@ -14828,7 +14998,7 @@
       <c r="C486" s="8" t="s">
         <v>2238</v>
       </c>
-      <c r="D486">
+      <c r="D486" s="33">
         <v>6</v>
       </c>
       <c r="E486" t="s">
@@ -14845,7 +15015,7 @@
       <c r="C487" s="8" t="s">
         <v>2238</v>
       </c>
-      <c r="D487">
+      <c r="D487" s="33">
         <v>5</v>
       </c>
       <c r="E487" t="s">
@@ -14862,7 +15032,7 @@
       <c r="C488" s="8" t="s">
         <v>2238</v>
       </c>
-      <c r="D488">
+      <c r="D488" s="33">
         <v>3</v>
       </c>
       <c r="E488" t="s">
@@ -14879,7 +15049,7 @@
       <c r="C489" s="8" t="s">
         <v>2238</v>
       </c>
-      <c r="D489">
+      <c r="D489" s="33">
         <v>4</v>
       </c>
       <c r="E489" t="s">
@@ -14896,7 +15066,7 @@
       <c r="C490" s="8" t="s">
         <v>2238</v>
       </c>
-      <c r="D490">
+      <c r="D490" s="33">
         <v>2</v>
       </c>
       <c r="E490" t="s">
@@ -14913,7 +15083,7 @@
       <c r="C491" s="8" t="s">
         <v>2238</v>
       </c>
-      <c r="D491">
+      <c r="D491" s="33">
         <v>1</v>
       </c>
       <c r="E491" t="s">
@@ -15038,7 +15208,7 @@
         <v>1501</v>
       </c>
       <c r="C502" s="19"/>
-      <c r="D502" s="4"/>
+      <c r="D502" s="36"/>
       <c r="E502" s="4" t="s">
         <v>1502</v>
       </c>
@@ -15051,7 +15221,7 @@
         <v>1504</v>
       </c>
       <c r="C503" s="19"/>
-      <c r="D503" s="4"/>
+      <c r="D503" s="36"/>
       <c r="E503" s="4" t="s">
         <v>1505</v>
       </c>
@@ -15064,7 +15234,7 @@
         <v>1507</v>
       </c>
       <c r="C504" s="19"/>
-      <c r="D504" s="4"/>
+      <c r="D504" s="36"/>
       <c r="E504" s="4" t="s">
         <v>1508</v>
       </c>
@@ -15077,7 +15247,7 @@
         <v>1510</v>
       </c>
       <c r="C505" s="19"/>
-      <c r="D505" s="4"/>
+      <c r="D505" s="36"/>
       <c r="E505" s="4" t="s">
         <v>1511</v>
       </c>
@@ -15090,7 +15260,7 @@
         <v>1513</v>
       </c>
       <c r="C506" s="19"/>
-      <c r="D506" s="4"/>
+      <c r="D506" s="36"/>
       <c r="E506" s="4" t="s">
         <v>1514</v>
       </c>
@@ -15103,7 +15273,7 @@
         <v>1516</v>
       </c>
       <c r="C507" s="19"/>
-      <c r="D507" s="4"/>
+      <c r="D507" s="36"/>
       <c r="E507" s="4" t="s">
         <v>1517</v>
       </c>
@@ -15116,7 +15286,7 @@
         <v>1519</v>
       </c>
       <c r="C508" s="19"/>
-      <c r="D508" s="4"/>
+      <c r="D508" s="36"/>
       <c r="E508" s="4" t="s">
         <v>1520</v>
       </c>
@@ -15129,7 +15299,7 @@
         <v>1522</v>
       </c>
       <c r="C509" s="19"/>
-      <c r="D509" s="4"/>
+      <c r="D509" s="36"/>
       <c r="E509" s="4" t="s">
         <v>1523</v>
       </c>
@@ -15142,7 +15312,7 @@
         <v>1525</v>
       </c>
       <c r="C510" s="19"/>
-      <c r="D510" s="4"/>
+      <c r="D510" s="36"/>
       <c r="E510" s="4" t="s">
         <v>1526</v>
       </c>
@@ -15155,7 +15325,7 @@
         <v>1528</v>
       </c>
       <c r="C511" s="19"/>
-      <c r="D511" s="4"/>
+      <c r="D511" s="36"/>
       <c r="E511" s="4" t="s">
         <v>1529</v>
       </c>
@@ -15168,7 +15338,7 @@
         <v>1531</v>
       </c>
       <c r="C512" s="19"/>
-      <c r="D512" s="4"/>
+      <c r="D512" s="36"/>
       <c r="E512" s="4" t="s">
         <v>1532</v>
       </c>
@@ -15181,7 +15351,7 @@
         <v>1534</v>
       </c>
       <c r="C513" s="19"/>
-      <c r="D513" s="4"/>
+      <c r="D513" s="36"/>
       <c r="E513" s="4" t="s">
         <v>1535</v>
       </c>
@@ -15194,7 +15364,7 @@
         <v>1537</v>
       </c>
       <c r="C514" s="19"/>
-      <c r="D514" s="4"/>
+      <c r="D514" s="36"/>
       <c r="E514" s="4" t="s">
         <v>1538</v>
       </c>
@@ -15207,7 +15377,7 @@
         <v>1540</v>
       </c>
       <c r="C515" s="19"/>
-      <c r="D515" s="4"/>
+      <c r="D515" s="36"/>
       <c r="E515" s="4" t="s">
         <v>1541</v>
       </c>
@@ -15220,7 +15390,7 @@
         <v>1543</v>
       </c>
       <c r="C516" s="19"/>
-      <c r="D516" s="4"/>
+      <c r="D516" s="36"/>
       <c r="E516" s="4" t="s">
         <v>1544</v>
       </c>
@@ -15233,7 +15403,7 @@
         <v>1546</v>
       </c>
       <c r="C517" s="19"/>
-      <c r="D517" s="4"/>
+      <c r="D517" s="36"/>
       <c r="E517" s="4" t="s">
         <v>1547</v>
       </c>
@@ -15246,7 +15416,7 @@
         <v>1549</v>
       </c>
       <c r="C518" s="19"/>
-      <c r="D518" s="4"/>
+      <c r="D518" s="36"/>
       <c r="E518" s="4" t="s">
         <v>1550</v>
       </c>
@@ -15259,7 +15429,7 @@
         <v>1552</v>
       </c>
       <c r="C519" s="19"/>
-      <c r="D519" s="4"/>
+      <c r="D519" s="36"/>
       <c r="E519" s="4" t="s">
         <v>1553</v>
       </c>
@@ -15272,7 +15442,7 @@
         <v>1555</v>
       </c>
       <c r="C520" s="19"/>
-      <c r="D520" s="4"/>
+      <c r="D520" s="36"/>
       <c r="E520" s="4" t="s">
         <v>1556</v>
       </c>
@@ -15285,7 +15455,7 @@
         <v>1558</v>
       </c>
       <c r="C521" s="19"/>
-      <c r="D521" s="4"/>
+      <c r="D521" s="36"/>
       <c r="E521" s="4" t="s">
         <v>1559</v>
       </c>
@@ -15298,7 +15468,7 @@
         <v>1561</v>
       </c>
       <c r="C522" s="19"/>
-      <c r="D522" s="4"/>
+      <c r="D522" s="36"/>
       <c r="E522" s="4" t="s">
         <v>1562</v>
       </c>
@@ -15311,7 +15481,7 @@
         <v>1564</v>
       </c>
       <c r="C523" s="19"/>
-      <c r="D523" s="4"/>
+      <c r="D523" s="36"/>
       <c r="E523" s="4" t="s">
         <v>1565</v>
       </c>
@@ -15324,7 +15494,7 @@
         <v>1567</v>
       </c>
       <c r="C524" s="19"/>
-      <c r="D524" s="4"/>
+      <c r="D524" s="36"/>
       <c r="E524" s="4" t="s">
         <v>1568</v>
       </c>
@@ -15337,7 +15507,7 @@
         <v>1570</v>
       </c>
       <c r="C525" s="19"/>
-      <c r="D525" s="4"/>
+      <c r="D525" s="36"/>
       <c r="E525" s="4" t="s">
         <v>1571</v>
       </c>
@@ -15350,7 +15520,7 @@
         <v>1573</v>
       </c>
       <c r="C526" s="19"/>
-      <c r="D526" s="4"/>
+      <c r="D526" s="36"/>
       <c r="E526" s="4" t="s">
         <v>1574</v>
       </c>
@@ -15363,7 +15533,7 @@
         <v>1576</v>
       </c>
       <c r="C527" s="19"/>
-      <c r="D527" s="4"/>
+      <c r="D527" s="36"/>
       <c r="E527" s="4" t="s">
         <v>1577</v>
       </c>
@@ -15376,7 +15546,7 @@
         <v>1579</v>
       </c>
       <c r="C528" s="19"/>
-      <c r="D528" s="4"/>
+      <c r="D528" s="36"/>
       <c r="E528" s="4" t="s">
         <v>1580</v>
       </c>
@@ -15389,7 +15559,7 @@
         <v>1582</v>
       </c>
       <c r="C529" s="19"/>
-      <c r="D529" s="4"/>
+      <c r="D529" s="36"/>
       <c r="E529" s="4" t="s">
         <v>1583</v>
       </c>
@@ -15402,7 +15572,7 @@
         <v>1585</v>
       </c>
       <c r="C530" s="19"/>
-      <c r="D530" s="4"/>
+      <c r="D530" s="36"/>
       <c r="E530" s="4" t="s">
         <v>1586</v>
       </c>
@@ -15415,7 +15585,7 @@
         <v>1588</v>
       </c>
       <c r="C531" s="19"/>
-      <c r="D531" s="4"/>
+      <c r="D531" s="36"/>
       <c r="E531" s="4" t="s">
         <v>1589</v>
       </c>
@@ -15428,7 +15598,7 @@
         <v>1591</v>
       </c>
       <c r="C532" s="19"/>
-      <c r="D532" s="4"/>
+      <c r="D532" s="36"/>
       <c r="E532" s="4" t="s">
         <v>1592</v>
       </c>
@@ -15441,7 +15611,7 @@
         <v>1594</v>
       </c>
       <c r="C533" s="19"/>
-      <c r="D533" s="4"/>
+      <c r="D533" s="36"/>
       <c r="E533" s="4" t="s">
         <v>1595</v>
       </c>
@@ -15454,7 +15624,7 @@
         <v>1597</v>
       </c>
       <c r="C534" s="19"/>
-      <c r="D534" s="4"/>
+      <c r="D534" s="36"/>
       <c r="E534" s="4" t="s">
         <v>1598</v>
       </c>
@@ -15467,7 +15637,7 @@
         <v>1600</v>
       </c>
       <c r="C535" s="19"/>
-      <c r="D535" s="4"/>
+      <c r="D535" s="36"/>
       <c r="E535" s="4" t="s">
         <v>1601</v>
       </c>
@@ -15480,7 +15650,7 @@
         <v>1603</v>
       </c>
       <c r="C536" s="19"/>
-      <c r="D536" s="4"/>
+      <c r="D536" s="36"/>
       <c r="E536" s="4" t="s">
         <v>1604</v>
       </c>
@@ -15493,7 +15663,7 @@
         <v>1606</v>
       </c>
       <c r="C537" s="19"/>
-      <c r="D537" s="4"/>
+      <c r="D537" s="36"/>
       <c r="E537" s="4" t="s">
         <v>1607</v>
       </c>
@@ -15506,7 +15676,7 @@
         <v>1609</v>
       </c>
       <c r="C538" s="19"/>
-      <c r="D538" s="4"/>
+      <c r="D538" s="36"/>
       <c r="E538" s="4" t="s">
         <v>1610</v>
       </c>
@@ -15519,7 +15689,7 @@
         <v>1612</v>
       </c>
       <c r="C539" s="19"/>
-      <c r="D539" s="4"/>
+      <c r="D539" s="36"/>
       <c r="E539" s="4" t="s">
         <v>1613</v>
       </c>
@@ -15532,7 +15702,7 @@
         <v>1615</v>
       </c>
       <c r="C540" s="19"/>
-      <c r="D540" s="4"/>
+      <c r="D540" s="36"/>
       <c r="E540" s="4" t="s">
         <v>1616</v>
       </c>
@@ -15545,7 +15715,7 @@
         <v>1618</v>
       </c>
       <c r="C541" s="19"/>
-      <c r="D541" s="4"/>
+      <c r="D541" s="36"/>
       <c r="E541" s="4" t="s">
         <v>1619</v>
       </c>
@@ -15558,7 +15728,7 @@
         <v>1621</v>
       </c>
       <c r="C542" s="19"/>
-      <c r="D542" s="4"/>
+      <c r="D542" s="36"/>
       <c r="E542" s="4" t="s">
         <v>1622</v>
       </c>
@@ -15571,7 +15741,7 @@
         <v>1624</v>
       </c>
       <c r="C543" s="19"/>
-      <c r="D543" s="4"/>
+      <c r="D543" s="36"/>
       <c r="E543" s="4" t="s">
         <v>1625</v>
       </c>
@@ -15584,7 +15754,7 @@
         <v>1627</v>
       </c>
       <c r="C544" s="19"/>
-      <c r="D544" s="4"/>
+      <c r="D544" s="36"/>
       <c r="E544" s="4" t="s">
         <v>1628</v>
       </c>
@@ -15597,7 +15767,7 @@
         <v>1630</v>
       </c>
       <c r="C545" s="19"/>
-      <c r="D545" s="4"/>
+      <c r="D545" s="36"/>
       <c r="E545" s="4" t="s">
         <v>1631</v>
       </c>
@@ -15610,7 +15780,7 @@
         <v>1633</v>
       </c>
       <c r="C546" s="19"/>
-      <c r="D546" s="4"/>
+      <c r="D546" s="36"/>
       <c r="E546" s="4" t="s">
         <v>1634</v>
       </c>
@@ -15623,7 +15793,7 @@
         <v>1636</v>
       </c>
       <c r="C547" s="19"/>
-      <c r="D547" s="4"/>
+      <c r="D547" s="36"/>
       <c r="E547" s="4" t="s">
         <v>1637</v>
       </c>
@@ -15636,7 +15806,7 @@
         <v>1639</v>
       </c>
       <c r="C548" s="19"/>
-      <c r="D548" s="4"/>
+      <c r="D548" s="36"/>
       <c r="E548" s="4" t="s">
         <v>1640</v>
       </c>
@@ -15649,7 +15819,7 @@
         <v>1642</v>
       </c>
       <c r="C549" s="19"/>
-      <c r="D549" s="4"/>
+      <c r="D549" s="36"/>
       <c r="E549" s="4" t="s">
         <v>1643</v>
       </c>
@@ -15662,7 +15832,7 @@
         <v>1645</v>
       </c>
       <c r="C550" s="19"/>
-      <c r="D550" s="4"/>
+      <c r="D550" s="36"/>
       <c r="E550" s="4" t="s">
         <v>1646</v>
       </c>
@@ -15675,7 +15845,7 @@
         <v>1648</v>
       </c>
       <c r="C551" s="19"/>
-      <c r="D551" s="4"/>
+      <c r="D551" s="36"/>
       <c r="E551" s="4" t="s">
         <v>1649</v>
       </c>
@@ -15690,6 +15860,9 @@
       <c r="C552" s="10" t="s">
         <v>2225</v>
       </c>
+      <c r="D552" s="33">
+        <v>1</v>
+      </c>
       <c r="E552" t="s">
         <v>1652</v>
       </c>
@@ -15704,6 +15877,9 @@
       <c r="C553" s="10" t="s">
         <v>2224</v>
       </c>
+      <c r="D553" s="33">
+        <v>1</v>
+      </c>
       <c r="E553" t="s">
         <v>1655</v>
       </c>
@@ -15718,6 +15894,9 @@
       <c r="C554" s="10" t="s">
         <v>2222</v>
       </c>
+      <c r="D554" s="33">
+        <v>1</v>
+      </c>
       <c r="E554" t="s">
         <v>1658</v>
       </c>
@@ -15732,6 +15911,9 @@
       <c r="C555" s="10" t="s">
         <v>2223</v>
       </c>
+      <c r="D555" s="33">
+        <v>1</v>
+      </c>
       <c r="E555" t="s">
         <v>1661</v>
       </c>
@@ -15746,6 +15928,9 @@
       <c r="C556" s="10" t="s">
         <v>2221</v>
       </c>
+      <c r="D556" s="33">
+        <v>1</v>
+      </c>
       <c r="E556" t="s">
         <v>1664</v>
       </c>
@@ -15760,6 +15945,9 @@
       <c r="C557" s="20" t="s">
         <v>2220</v>
       </c>
+      <c r="D557" s="33">
+        <v>1</v>
+      </c>
       <c r="E557" t="s">
         <v>1667</v>
       </c>
@@ -15774,6 +15962,9 @@
       <c r="C558" s="20" t="s">
         <v>2205</v>
       </c>
+      <c r="D558" s="33">
+        <v>1</v>
+      </c>
       <c r="E558" t="s">
         <v>1670</v>
       </c>
@@ -15788,6 +15979,9 @@
       <c r="C559" s="20" t="s">
         <v>2207</v>
       </c>
+      <c r="D559" s="33">
+        <v>1</v>
+      </c>
       <c r="E559" t="s">
         <v>1673</v>
       </c>
@@ -15802,6 +15996,9 @@
       <c r="C560" s="20" t="s">
         <v>2219</v>
       </c>
+      <c r="D560" s="33">
+        <v>1</v>
+      </c>
       <c r="E560" t="s">
         <v>1676</v>
       </c>
@@ -15816,6 +16013,9 @@
       <c r="C561" s="20" t="s">
         <v>2218</v>
       </c>
+      <c r="D561" s="33">
+        <v>1</v>
+      </c>
       <c r="E561" t="s">
         <v>1679</v>
       </c>
@@ -15830,6 +16030,9 @@
       <c r="C562" s="20" t="s">
         <v>2217</v>
       </c>
+      <c r="D562" s="33">
+        <v>2</v>
+      </c>
       <c r="E562" t="s">
         <v>1682</v>
       </c>
@@ -15844,6 +16047,9 @@
       <c r="C563" s="20" t="s">
         <v>2217</v>
       </c>
+      <c r="D563" s="33">
+        <v>1</v>
+      </c>
       <c r="E563" t="s">
         <v>1685</v>
       </c>
@@ -15858,6 +16064,9 @@
       <c r="C564" s="20" t="s">
         <v>2216</v>
       </c>
+      <c r="D564" s="33">
+        <v>5</v>
+      </c>
       <c r="E564" t="s">
         <v>1688</v>
       </c>
@@ -15872,6 +16081,9 @@
       <c r="C565" s="20" t="s">
         <v>2215</v>
       </c>
+      <c r="D565" s="33">
+        <v>1</v>
+      </c>
       <c r="E565" t="s">
         <v>1691</v>
       </c>
@@ -15886,6 +16098,9 @@
       <c r="C566" s="20" t="s">
         <v>2214</v>
       </c>
+      <c r="D566" s="33">
+        <v>1</v>
+      </c>
       <c r="E566" t="s">
         <v>1694</v>
       </c>
@@ -15988,6 +16203,9 @@
       <c r="C575" s="20" t="s">
         <v>2183</v>
       </c>
+      <c r="D575" s="33">
+        <v>1</v>
+      </c>
       <c r="E575" t="s">
         <v>1721</v>
       </c>
@@ -16046,6 +16264,9 @@
       <c r="C580" s="20" t="s">
         <v>2186</v>
       </c>
+      <c r="D580" s="33">
+        <v>1</v>
+      </c>
       <c r="E580" t="s">
         <v>1736</v>
       </c>
@@ -16060,6 +16281,9 @@
       <c r="C581" s="20" t="s">
         <v>2188</v>
       </c>
+      <c r="D581" s="33">
+        <v>1</v>
+      </c>
       <c r="E581" t="s">
         <v>1739</v>
       </c>
@@ -16074,6 +16298,9 @@
       <c r="C582" s="20" t="s">
         <v>2189</v>
       </c>
+      <c r="D582" s="33">
+        <v>1</v>
+      </c>
       <c r="E582" t="s">
         <v>243</v>
       </c>
@@ -16110,6 +16337,9 @@
       <c r="C585" s="20" t="s">
         <v>2190</v>
       </c>
+      <c r="D585" s="33">
+        <v>1</v>
+      </c>
       <c r="E585" t="s">
         <v>1750</v>
       </c>
@@ -16124,6 +16354,9 @@
       <c r="C586" s="20" t="s">
         <v>2190</v>
       </c>
+      <c r="D586" s="33">
+        <v>2</v>
+      </c>
       <c r="E586" t="s">
         <v>1753</v>
       </c>
@@ -16138,6 +16371,9 @@
       <c r="C587" s="20" t="s">
         <v>2193</v>
       </c>
+      <c r="D587" s="33">
+        <v>1</v>
+      </c>
       <c r="E587" t="s">
         <v>1756</v>
       </c>
@@ -16152,6 +16388,9 @@
       <c r="C588" s="20" t="s">
         <v>2193</v>
       </c>
+      <c r="D588" s="33">
+        <v>2</v>
+      </c>
       <c r="E588" t="s">
         <v>1759</v>
       </c>
@@ -16166,6 +16405,9 @@
       <c r="C589" s="20" t="s">
         <v>2201</v>
       </c>
+      <c r="D589" s="33">
+        <v>1</v>
+      </c>
       <c r="E589" t="s">
         <v>1762</v>
       </c>
@@ -16180,6 +16422,9 @@
       <c r="C590" s="20" t="s">
         <v>2203</v>
       </c>
+      <c r="D590" s="33">
+        <v>1</v>
+      </c>
       <c r="E590" t="s">
         <v>1765</v>
       </c>
@@ -16194,6 +16439,9 @@
       <c r="C591" s="20" t="s">
         <v>2204</v>
       </c>
+      <c r="D591" s="33">
+        <v>1</v>
+      </c>
       <c r="E591" t="s">
         <v>1768</v>
       </c>
@@ -16241,6 +16489,9 @@
       <c r="C595" s="10" t="s">
         <v>2227</v>
       </c>
+      <c r="D595" s="33">
+        <v>1</v>
+      </c>
       <c r="E595" t="s">
         <v>1780</v>
       </c>
@@ -16255,6 +16506,9 @@
       <c r="C596" s="10" t="s">
         <v>2228</v>
       </c>
+      <c r="D596" s="33">
+        <v>1</v>
+      </c>
       <c r="E596" t="s">
         <v>1783</v>
       </c>
@@ -16269,6 +16523,9 @@
       <c r="C597" s="10" t="s">
         <v>2229</v>
       </c>
+      <c r="D597" s="33">
+        <v>1</v>
+      </c>
       <c r="E597" t="s">
         <v>1786</v>
       </c>
@@ -16283,6 +16540,9 @@
       <c r="C598" s="10" t="s">
         <v>2229</v>
       </c>
+      <c r="D598" s="33">
+        <v>2</v>
+      </c>
       <c r="E598" t="s">
         <v>1789</v>
       </c>
@@ -16297,6 +16557,9 @@
       <c r="C599" s="10" t="s">
         <v>2230</v>
       </c>
+      <c r="D599" s="33">
+        <v>1</v>
+      </c>
       <c r="E599" t="s">
         <v>1792</v>
       </c>
@@ -16311,6 +16574,9 @@
       <c r="C600" s="10" t="s">
         <v>2230</v>
       </c>
+      <c r="D600" s="33">
+        <v>2</v>
+      </c>
       <c r="E600" t="s">
         <v>1795</v>
       </c>
@@ -16325,6 +16591,9 @@
       <c r="C601" s="10" t="s">
         <v>2231</v>
       </c>
+      <c r="D601" s="33">
+        <v>1</v>
+      </c>
       <c r="E601" t="s">
         <v>1798</v>
       </c>
@@ -16887,7 +17156,7 @@
         <v>1947</v>
       </c>
       <c r="C652" s="18"/>
-      <c r="D652" s="6"/>
+      <c r="D652" s="34"/>
       <c r="E652" s="6" t="s">
         <v>1948</v>
       </c>
@@ -16900,7 +17169,7 @@
         <v>1950</v>
       </c>
       <c r="C653" s="18"/>
-      <c r="D653" s="6"/>
+      <c r="D653" s="34"/>
       <c r="E653" s="6" t="s">
         <v>1951</v>
       </c>
@@ -16913,7 +17182,7 @@
         <v>1953</v>
       </c>
       <c r="C654" s="18"/>
-      <c r="D654" s="6"/>
+      <c r="D654" s="34"/>
       <c r="E654" s="6" t="s">
         <v>1954</v>
       </c>
@@ -16926,7 +17195,7 @@
         <v>1956</v>
       </c>
       <c r="C655" s="18"/>
-      <c r="D655" s="6"/>
+      <c r="D655" s="34"/>
       <c r="E655" s="6" t="s">
         <v>1957</v>
       </c>
@@ -16939,7 +17208,7 @@
         <v>1959</v>
       </c>
       <c r="C656" s="18"/>
-      <c r="D656" s="6"/>
+      <c r="D656" s="34"/>
       <c r="E656" s="6" t="s">
         <v>1960</v>
       </c>
@@ -16952,7 +17221,7 @@
         <v>1962</v>
       </c>
       <c r="C657" s="18"/>
-      <c r="D657" s="6"/>
+      <c r="D657" s="34"/>
       <c r="E657" s="6" t="s">
         <v>1963</v>
       </c>
@@ -16965,7 +17234,7 @@
         <v>1965</v>
       </c>
       <c r="C658" s="18"/>
-      <c r="D658" s="6"/>
+      <c r="D658" s="34"/>
       <c r="E658" s="6" t="s">
         <v>1966</v>
       </c>
@@ -16978,7 +17247,7 @@
         <v>1968</v>
       </c>
       <c r="C659" s="18"/>
-      <c r="D659" s="6"/>
+      <c r="D659" s="34"/>
       <c r="E659" s="6" t="s">
         <v>1969</v>
       </c>
@@ -16991,7 +17260,7 @@
         <v>1971</v>
       </c>
       <c r="C660" s="18"/>
-      <c r="D660" s="6"/>
+      <c r="D660" s="34"/>
       <c r="E660" s="6" t="s">
         <v>1972</v>
       </c>
@@ -17004,7 +17273,7 @@
         <v>1974</v>
       </c>
       <c r="C661" s="18"/>
-      <c r="D661" s="6"/>
+      <c r="D661" s="34"/>
       <c r="E661" s="6" t="s">
         <v>1975</v>
       </c>
@@ -17017,7 +17286,7 @@
         <v>1977</v>
       </c>
       <c r="C662" s="18"/>
-      <c r="D662" s="6"/>
+      <c r="D662" s="34"/>
       <c r="E662" s="6" t="s">
         <v>1978</v>
       </c>
@@ -17030,7 +17299,7 @@
         <v>1980</v>
       </c>
       <c r="C663" s="18"/>
-      <c r="D663" s="6"/>
+      <c r="D663" s="34"/>
       <c r="E663" s="6" t="s">
         <v>1981</v>
       </c>
@@ -17043,7 +17312,7 @@
         <v>1983</v>
       </c>
       <c r="C664" s="18"/>
-      <c r="D664" s="6"/>
+      <c r="D664" s="34"/>
       <c r="E664" s="6" t="s">
         <v>1984</v>
       </c>
@@ -17056,7 +17325,7 @@
         <v>1986</v>
       </c>
       <c r="C665" s="18"/>
-      <c r="D665" s="6"/>
+      <c r="D665" s="34"/>
       <c r="E665" s="6" t="s">
         <v>1987</v>
       </c>
@@ -17069,7 +17338,7 @@
         <v>1989</v>
       </c>
       <c r="C666" s="18"/>
-      <c r="D666" s="6"/>
+      <c r="D666" s="34"/>
       <c r="E666" s="6" t="s">
         <v>1990</v>
       </c>
@@ -17082,7 +17351,7 @@
         <v>1992</v>
       </c>
       <c r="C667" s="18"/>
-      <c r="D667" s="6"/>
+      <c r="D667" s="34"/>
       <c r="E667" s="6" t="s">
         <v>1993</v>
       </c>
@@ -17095,7 +17364,7 @@
         <v>1995</v>
       </c>
       <c r="C668" s="18"/>
-      <c r="D668" s="6"/>
+      <c r="D668" s="34"/>
       <c r="E668" s="6" t="s">
         <v>1996</v>
       </c>
@@ -17108,7 +17377,7 @@
         <v>1998</v>
       </c>
       <c r="C669" s="18"/>
-      <c r="D669" s="6"/>
+      <c r="D669" s="34"/>
       <c r="E669" s="6" t="s">
         <v>1999</v>
       </c>
@@ -17121,7 +17390,7 @@
         <v>2001</v>
       </c>
       <c r="C670" s="18"/>
-      <c r="D670" s="6"/>
+      <c r="D670" s="34"/>
       <c r="E670" s="6" t="s">
         <v>2002</v>
       </c>
@@ -17134,7 +17403,7 @@
         <v>2004</v>
       </c>
       <c r="C671" s="18"/>
-      <c r="D671" s="6"/>
+      <c r="D671" s="34"/>
       <c r="E671" s="6" t="s">
         <v>2005</v>
       </c>
@@ -17147,7 +17416,7 @@
         <v>2007</v>
       </c>
       <c r="C672" s="18"/>
-      <c r="D672" s="6"/>
+      <c r="D672" s="34"/>
       <c r="E672" s="6" t="s">
         <v>2008</v>
       </c>
@@ -17160,7 +17429,7 @@
         <v>2010</v>
       </c>
       <c r="C673" s="18"/>
-      <c r="D673" s="6"/>
+      <c r="D673" s="34"/>
       <c r="E673" s="6" t="s">
         <v>2011</v>
       </c>
@@ -17173,7 +17442,7 @@
         <v>2013</v>
       </c>
       <c r="C674" s="18"/>
-      <c r="D674" s="6"/>
+      <c r="D674" s="34"/>
       <c r="E674" s="6" t="s">
         <v>2014</v>
       </c>
@@ -17186,7 +17455,7 @@
         <v>2016</v>
       </c>
       <c r="C675" s="18"/>
-      <c r="D675" s="6"/>
+      <c r="D675" s="34"/>
       <c r="E675" s="6" t="s">
         <v>2017</v>
       </c>
@@ -17199,7 +17468,7 @@
         <v>2019</v>
       </c>
       <c r="C676" s="18"/>
-      <c r="D676" s="6"/>
+      <c r="D676" s="34"/>
       <c r="E676" s="6" t="s">
         <v>2020</v>
       </c>
@@ -17212,7 +17481,7 @@
         <v>2022</v>
       </c>
       <c r="C677" s="18"/>
-      <c r="D677" s="6"/>
+      <c r="D677" s="34"/>
       <c r="E677" s="6" t="s">
         <v>2023</v>
       </c>
@@ -17225,7 +17494,7 @@
         <v>2025</v>
       </c>
       <c r="C678" s="18"/>
-      <c r="D678" s="6"/>
+      <c r="D678" s="34"/>
       <c r="E678" s="6" t="s">
         <v>2026</v>
       </c>
@@ -17238,7 +17507,7 @@
         <v>2028</v>
       </c>
       <c r="C679" s="18"/>
-      <c r="D679" s="6"/>
+      <c r="D679" s="34"/>
       <c r="E679" s="6" t="s">
         <v>2029</v>
       </c>
@@ -17251,7 +17520,7 @@
         <v>2031</v>
       </c>
       <c r="C680" s="18"/>
-      <c r="D680" s="6"/>
+      <c r="D680" s="34"/>
       <c r="E680" s="6" t="s">
         <v>2032</v>
       </c>
@@ -17264,7 +17533,7 @@
         <v>2034</v>
       </c>
       <c r="C681" s="18"/>
-      <c r="D681" s="6"/>
+      <c r="D681" s="34"/>
       <c r="E681" s="6" t="s">
         <v>2035</v>
       </c>
@@ -17277,7 +17546,7 @@
         <v>2037</v>
       </c>
       <c r="C682" s="18"/>
-      <c r="D682" s="6"/>
+      <c r="D682" s="34"/>
       <c r="E682" s="6" t="s">
         <v>2038</v>
       </c>
@@ -17290,7 +17559,7 @@
         <v>2040</v>
       </c>
       <c r="C683" s="18"/>
-      <c r="D683" s="6"/>
+      <c r="D683" s="34"/>
       <c r="E683" s="6" t="s">
         <v>2041</v>
       </c>
@@ -17303,7 +17572,7 @@
         <v>2043</v>
       </c>
       <c r="C684" s="18"/>
-      <c r="D684" s="6"/>
+      <c r="D684" s="34"/>
       <c r="E684" s="6" t="s">
         <v>2044</v>
       </c>
@@ -17316,7 +17585,7 @@
         <v>2046</v>
       </c>
       <c r="C685" s="18"/>
-      <c r="D685" s="6"/>
+      <c r="D685" s="34"/>
       <c r="E685" s="6" t="s">
         <v>2047</v>
       </c>
@@ -17329,7 +17598,7 @@
         <v>2049</v>
       </c>
       <c r="C686" s="18"/>
-      <c r="D686" s="6"/>
+      <c r="D686" s="34"/>
       <c r="E686" s="6" t="s">
         <v>2050</v>
       </c>
@@ -17342,7 +17611,7 @@
         <v>2052</v>
       </c>
       <c r="C687" s="18"/>
-      <c r="D687" s="6"/>
+      <c r="D687" s="34"/>
       <c r="E687" s="6" t="s">
         <v>2053</v>
       </c>
@@ -17355,7 +17624,7 @@
         <v>2055</v>
       </c>
       <c r="C688" s="18"/>
-      <c r="D688" s="6"/>
+      <c r="D688" s="34"/>
       <c r="E688" s="6" t="s">
         <v>1592</v>
       </c>
@@ -17368,7 +17637,7 @@
         <v>2057</v>
       </c>
       <c r="C689" s="18"/>
-      <c r="D689" s="6"/>
+      <c r="D689" s="34"/>
       <c r="E689" s="6" t="s">
         <v>2058</v>
       </c>
@@ -17381,7 +17650,7 @@
         <v>2060</v>
       </c>
       <c r="C690" s="18"/>
-      <c r="D690" s="6"/>
+      <c r="D690" s="34"/>
       <c r="E690" s="6" t="s">
         <v>2061</v>
       </c>
@@ -17394,7 +17663,7 @@
         <v>2063</v>
       </c>
       <c r="C691" s="18"/>
-      <c r="D691" s="6"/>
+      <c r="D691" s="34"/>
       <c r="E691" s="6" t="s">
         <v>2064</v>
       </c>
@@ -17407,7 +17676,7 @@
         <v>2066</v>
       </c>
       <c r="C692" s="18"/>
-      <c r="D692" s="6"/>
+      <c r="D692" s="34"/>
       <c r="E692" s="6" t="s">
         <v>2067</v>
       </c>
@@ -17420,7 +17689,7 @@
         <v>2069</v>
       </c>
       <c r="C693" s="18"/>
-      <c r="D693" s="6"/>
+      <c r="D693" s="34"/>
       <c r="E693" s="6" t="s">
         <v>2070</v>
       </c>
@@ -17433,7 +17702,7 @@
         <v>2072</v>
       </c>
       <c r="C694" s="18"/>
-      <c r="D694" s="6"/>
+      <c r="D694" s="34"/>
       <c r="E694" s="6" t="s">
         <v>2073</v>
       </c>
@@ -17446,7 +17715,7 @@
         <v>2075</v>
       </c>
       <c r="C695" s="18"/>
-      <c r="D695" s="6"/>
+      <c r="D695" s="34"/>
       <c r="E695" s="6" t="s">
         <v>2076</v>
       </c>
@@ -17459,7 +17728,7 @@
         <v>2078</v>
       </c>
       <c r="C696" s="18"/>
-      <c r="D696" s="6"/>
+      <c r="D696" s="34"/>
       <c r="E696" s="6" t="s">
         <v>2079</v>
       </c>
@@ -17472,7 +17741,7 @@
         <v>2081</v>
       </c>
       <c r="C697" s="18"/>
-      <c r="D697" s="6"/>
+      <c r="D697" s="34"/>
       <c r="E697" s="6" t="s">
         <v>2082</v>
       </c>
@@ -17485,7 +17754,7 @@
         <v>2084</v>
       </c>
       <c r="C698" s="18"/>
-      <c r="D698" s="6"/>
+      <c r="D698" s="34"/>
       <c r="E698" s="6" t="s">
         <v>2085</v>
       </c>
@@ -17498,7 +17767,7 @@
         <v>2087</v>
       </c>
       <c r="C699" s="18"/>
-      <c r="D699" s="6"/>
+      <c r="D699" s="34"/>
       <c r="E699" s="6" t="s">
         <v>2088</v>
       </c>
@@ -17511,7 +17780,7 @@
         <v>2090</v>
       </c>
       <c r="C700" s="18"/>
-      <c r="D700" s="6"/>
+      <c r="D700" s="34"/>
       <c r="E700" s="6" t="s">
         <v>2091</v>
       </c>
@@ -17524,7 +17793,7 @@
         <v>2093</v>
       </c>
       <c r="C701" s="18"/>
-      <c r="D701" s="6"/>
+      <c r="D701" s="34"/>
       <c r="E701" s="6" t="s">
         <v>2094</v>
       </c>
@@ -17537,7 +17806,7 @@
         <v>2096</v>
       </c>
       <c r="C702" s="18"/>
-      <c r="D702" s="6"/>
+      <c r="D702" s="34"/>
       <c r="E702" s="6" t="s">
         <v>2097</v>
       </c>
@@ -17550,7 +17819,7 @@
         <v>2099</v>
       </c>
       <c r="C703" s="18"/>
-      <c r="D703" s="6"/>
+      <c r="D703" s="34"/>
       <c r="E703" s="6" t="s">
         <v>2100</v>
       </c>
@@ -17563,7 +17832,7 @@
         <v>2102</v>
       </c>
       <c r="C704" s="18"/>
-      <c r="D704" s="6"/>
+      <c r="D704" s="34"/>
       <c r="E704" s="6" t="s">
         <v>2103</v>
       </c>
@@ -17576,7 +17845,7 @@
         <v>2105</v>
       </c>
       <c r="C705" s="18"/>
-      <c r="D705" s="6"/>
+      <c r="D705" s="34"/>
       <c r="E705" s="6" t="s">
         <v>2106</v>
       </c>
@@ -17589,7 +17858,7 @@
         <v>2108</v>
       </c>
       <c r="C706" s="18"/>
-      <c r="D706" s="6"/>
+      <c r="D706" s="34"/>
       <c r="E706" s="6" t="s">
         <v>2109</v>
       </c>

--- a/data/other/cell_metadata.xlsx
+++ b/data/other/cell_metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/trca9794_colorado_edu/Documents/projects/CD_2F/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tristan/active_repos/cd_2f/data/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="378" documentId="8_{E2131F20-7469-1F48-9360-22BE44EA1A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1EB51ED-798B-8046-A1B8-5845F97CE4D6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D489BB-D923-6943-8EC7-3FE0555F5A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{F0790F3C-5B86-E547-B6EE-344AE8C045F9}"/>
+    <workbookView xWindow="1600" yWindow="1500" windowWidth="25600" windowHeight="15500" xr2:uid="{F0790F3C-5B86-E547-B6EE-344AE8C045F9}"/>
   </bookViews>
   <sheets>
     <sheet name="single_cell_metadata" sheetId="1" r:id="rId1"/>
@@ -7441,10 +7441,10 @@
   <dimension ref="A1:E706"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B581" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B468" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D593" sqref="D593"/>
+      <selection pane="bottomRight" activeCell="D491" sqref="D491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7629,7 +7629,7 @@
         <v>2196</v>
       </c>
       <c r="D11" s="32">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>30</v>

--- a/data/other/cell_metadata.xlsx
+++ b/data/other/cell_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tristan/active_repos/cd_2f/data/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A914447-BC89-A249-B34B-F5161B36DF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DADCE1-EA69-F044-B6CD-DDB8EA985707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{F0790F3C-5B86-E547-B6EE-344AE8C045F9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="1" xr2:uid="{F0790F3C-5B86-E547-B6EE-344AE8C045F9}"/>
   </bookViews>
   <sheets>
     <sheet name="single_cell_metadata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4451" uniqueCount="2374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4571" uniqueCount="2380">
   <si>
     <t>raman_spectrum_id</t>
   </si>
@@ -7158,6 +7158,24 @@
   </si>
   <si>
     <t>ignore</t>
+  </si>
+  <si>
+    <t>Thy_20_09_3_1</t>
+  </si>
+  <si>
+    <t>Thy_20_09_3_2</t>
+  </si>
+  <si>
+    <t>Thy_20_09_3_3</t>
+  </si>
+  <si>
+    <t>Thy_20_09_3_4</t>
+  </si>
+  <si>
+    <t>Thy_20_09_3_5</t>
+  </si>
+  <si>
+    <t>Thy_20_09_3_6</t>
   </si>
 </sst>
 </file>
@@ -7695,7 +7713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA62B451-AAA5-CC48-A7EF-03FFB53D9774}">
   <dimension ref="A1:F706"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="139" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -20245,13 +20263,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18C389C-E644-2C41-991C-9BC738E968D5}">
-  <dimension ref="A1:AJ99"/>
+  <dimension ref="A1:AJ105"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29678,7 +29696,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>2277</v>
       </c>
@@ -29776,7 +29794,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>2278</v>
       </c>
@@ -29874,7 +29892,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>2279</v>
       </c>
@@ -29972,9 +29990,605 @@
         <v>2187</v>
       </c>
     </row>
+    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C100" s="10">
+        <v>3</v>
+      </c>
+      <c r="D100" s="10">
+        <v>20</v>
+      </c>
+      <c r="E100" s="10">
+        <v>512</v>
+      </c>
+      <c r="F100" s="10">
+        <v>4500</v>
+      </c>
+      <c r="G100" t="s">
+        <v>2281</v>
+      </c>
+      <c r="H100" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>2280</v>
+      </c>
+      <c r="J100" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="K100" s="10">
+        <v>0</v>
+      </c>
+      <c r="L100" s="10">
+        <v>2</v>
+      </c>
+      <c r="M100" s="10">
+        <v>1</v>
+      </c>
+      <c r="N100" s="10">
+        <v>25</v>
+      </c>
+      <c r="O100" s="10" t="s">
+        <v>2163</v>
+      </c>
+      <c r="P100" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q100" s="10" t="s">
+        <v>2164</v>
+      </c>
+      <c r="R100" s="10">
+        <v>2</v>
+      </c>
+      <c r="S100" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="T100" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="U100" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="V100" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="W100" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="X100" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="Y100" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="Z100" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="AA100" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="AB100" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="AC100" s="10" t="s">
+        <v>2187</v>
+      </c>
+      <c r="AD100" s="10" t="s">
+        <v>2187</v>
+      </c>
+      <c r="AE100" s="10" t="s">
+        <v>2187</v>
+      </c>
+      <c r="AF100" s="10" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C101" s="10">
+        <v>3</v>
+      </c>
+      <c r="D101" s="10">
+        <v>20</v>
+      </c>
+      <c r="E101" s="10">
+        <v>512</v>
+      </c>
+      <c r="F101" s="10">
+        <v>4500</v>
+      </c>
+      <c r="G101" t="s">
+        <v>2281</v>
+      </c>
+      <c r="H101" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>2280</v>
+      </c>
+      <c r="J101" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="K101" s="10">
+        <v>0</v>
+      </c>
+      <c r="L101" s="10">
+        <v>2</v>
+      </c>
+      <c r="M101" s="10">
+        <v>1</v>
+      </c>
+      <c r="N101" s="10">
+        <v>25</v>
+      </c>
+      <c r="O101" s="10" t="s">
+        <v>2163</v>
+      </c>
+      <c r="P101" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q101" s="10" t="s">
+        <v>2164</v>
+      </c>
+      <c r="R101" s="10">
+        <v>2</v>
+      </c>
+      <c r="S101" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="T101" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="U101" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="V101" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="W101" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="X101" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="Y101" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="Z101" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="AA101" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="AB101" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="AC101" s="10" t="s">
+        <v>2187</v>
+      </c>
+      <c r="AD101" s="10" t="s">
+        <v>2187</v>
+      </c>
+      <c r="AE101" s="10" t="s">
+        <v>2187</v>
+      </c>
+      <c r="AF101" s="10" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C102" s="10">
+        <v>3</v>
+      </c>
+      <c r="D102" s="10">
+        <v>20</v>
+      </c>
+      <c r="E102" s="10">
+        <v>512</v>
+      </c>
+      <c r="F102" s="10">
+        <v>4500</v>
+      </c>
+      <c r="G102" t="s">
+        <v>2281</v>
+      </c>
+      <c r="H102" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>2280</v>
+      </c>
+      <c r="J102" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="K102" s="10">
+        <v>0</v>
+      </c>
+      <c r="L102" s="10">
+        <v>2</v>
+      </c>
+      <c r="M102" s="10">
+        <v>1</v>
+      </c>
+      <c r="N102" s="10">
+        <v>25</v>
+      </c>
+      <c r="O102" s="10" t="s">
+        <v>2163</v>
+      </c>
+      <c r="P102" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q102" s="10" t="s">
+        <v>2164</v>
+      </c>
+      <c r="R102" s="10">
+        <v>2</v>
+      </c>
+      <c r="S102" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="T102" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="U102" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="V102" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="W102" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="X102" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="Y102" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="Z102" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="AA102" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="AB102" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="AC102" s="10" t="s">
+        <v>2187</v>
+      </c>
+      <c r="AD102" s="10" t="s">
+        <v>2187</v>
+      </c>
+      <c r="AE102" s="10" t="s">
+        <v>2187</v>
+      </c>
+      <c r="AF102" s="10" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C103" s="10">
+        <v>3</v>
+      </c>
+      <c r="D103" s="10">
+        <v>20</v>
+      </c>
+      <c r="E103" s="10">
+        <v>512</v>
+      </c>
+      <c r="F103" s="10">
+        <v>4500</v>
+      </c>
+      <c r="G103" t="s">
+        <v>2281</v>
+      </c>
+      <c r="H103" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>2280</v>
+      </c>
+      <c r="J103" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="K103" s="10">
+        <v>0</v>
+      </c>
+      <c r="L103" s="10">
+        <v>2</v>
+      </c>
+      <c r="M103" s="10">
+        <v>1</v>
+      </c>
+      <c r="N103" s="10">
+        <v>25</v>
+      </c>
+      <c r="O103" s="10" t="s">
+        <v>2163</v>
+      </c>
+      <c r="P103" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q103" s="10" t="s">
+        <v>2164</v>
+      </c>
+      <c r="R103" s="10">
+        <v>2</v>
+      </c>
+      <c r="S103" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="T103" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="U103" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="V103" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="W103" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="X103" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="Y103" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="Z103" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="AA103" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="AB103" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="AC103" s="10" t="s">
+        <v>2187</v>
+      </c>
+      <c r="AD103" s="10" t="s">
+        <v>2187</v>
+      </c>
+      <c r="AE103" s="10" t="s">
+        <v>2187</v>
+      </c>
+      <c r="AF103" s="10" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A104" s="13" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C104" s="10">
+        <v>3</v>
+      </c>
+      <c r="D104" s="10">
+        <v>20</v>
+      </c>
+      <c r="E104" s="10">
+        <v>512</v>
+      </c>
+      <c r="F104" s="10">
+        <v>4500</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>2281</v>
+      </c>
+      <c r="H104" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" s="10" t="s">
+        <v>2280</v>
+      </c>
+      <c r="J104" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="K104" s="10">
+        <v>0</v>
+      </c>
+      <c r="L104" s="10">
+        <v>2</v>
+      </c>
+      <c r="M104" s="10">
+        <v>1</v>
+      </c>
+      <c r="N104" s="10">
+        <v>25</v>
+      </c>
+      <c r="O104" s="10" t="s">
+        <v>2163</v>
+      </c>
+      <c r="P104" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q104" s="10" t="s">
+        <v>2164</v>
+      </c>
+      <c r="R104" s="10">
+        <v>2</v>
+      </c>
+      <c r="S104" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="T104" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="U104" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="V104" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="W104" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="X104" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="Y104" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="Z104" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="AA104" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="AB104" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="AC104" s="10" t="s">
+        <v>2187</v>
+      </c>
+      <c r="AD104" s="10" t="s">
+        <v>2187</v>
+      </c>
+      <c r="AE104" s="10" t="s">
+        <v>2187</v>
+      </c>
+      <c r="AF104" s="10" t="s">
+        <v>2187</v>
+      </c>
+      <c r="AG104" s="10"/>
+      <c r="AH104" s="10"/>
+      <c r="AI104" s="10"/>
+      <c r="AJ104" s="10"/>
+    </row>
+    <row r="105" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A105" s="13" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C105" s="10">
+        <v>3</v>
+      </c>
+      <c r="D105" s="10">
+        <v>20</v>
+      </c>
+      <c r="E105" s="10">
+        <v>512</v>
+      </c>
+      <c r="F105" s="10">
+        <v>4500</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>2281</v>
+      </c>
+      <c r="H105" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" s="10" t="s">
+        <v>2280</v>
+      </c>
+      <c r="J105" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="K105" s="10">
+        <v>0</v>
+      </c>
+      <c r="L105" s="10">
+        <v>2</v>
+      </c>
+      <c r="M105" s="10">
+        <v>1</v>
+      </c>
+      <c r="N105" s="10">
+        <v>25</v>
+      </c>
+      <c r="O105" s="10" t="s">
+        <v>2163</v>
+      </c>
+      <c r="P105" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q105" s="10" t="s">
+        <v>2164</v>
+      </c>
+      <c r="R105" s="10">
+        <v>2</v>
+      </c>
+      <c r="S105" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="T105" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="U105" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="V105" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="W105" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="X105" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="Y105" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="Z105" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="AA105" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="AB105" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="AC105" s="10" t="s">
+        <v>2187</v>
+      </c>
+      <c r="AD105" s="10" t="s">
+        <v>2187</v>
+      </c>
+      <c r="AE105" s="10" t="s">
+        <v>2187</v>
+      </c>
+      <c r="AF105" s="10" t="s">
+        <v>2187</v>
+      </c>
+      <c r="AG105" s="10"/>
+      <c r="AH105" s="10"/>
+      <c r="AI105" s="10"/>
+      <c r="AJ105" s="10"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H1:H49 H59:H1048576">
+  <conditionalFormatting sqref="H1:H49 H59:H103 H106:H1048576">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;TRUE&quot;">
       <formula>NOT(ISERROR(SEARCH("""TRUE""",H1)))</formula>
     </cfRule>
